--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="B2" t="n">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="C2" t="n">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="D2" t="n">
-        <v>2.522955061982289</v>
+        <v>2.086800189432307</v>
       </c>
       <c r="E2" t="n">
-        <v>1.829771777913942</v>
+        <v>1.531971737245388</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6931832840683471</v>
+        <v>-0.554828452186919</v>
       </c>
       <c r="G2" t="n">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17686476578444</v>
+        <v>32.98912095343962</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="K2" t="n">
-        <v>179.7481892386598</v>
+        <v>177.2200638812365</v>
       </c>
       <c r="L2" t="n">
-        <v>5.679421749651304</v>
+        <v>3.94922971713776</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7526278825876028</v>
+        <v>0.8521320672412822</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.3189655172413793</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6585945958878765</v>
+        <v>0.2310013853953451</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5684946500340013</v>
+        <v>0.8008972860711538</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>948</v>
+        <v>2079</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>351</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="n">
-        <v>438</v>
+        <v>1105</v>
       </c>
       <c r="C3" t="n">
-        <v>609</v>
+        <v>1183</v>
       </c>
       <c r="D3" t="n">
-        <v>2.686434192070536</v>
+        <v>2.07829814957316</v>
       </c>
       <c r="E3" t="n">
-        <v>1.993250908002189</v>
+        <v>1.523469697386241</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6931832840683471</v>
+        <v>-0.554828452186919</v>
       </c>
       <c r="G3" t="n">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="H3" t="n">
-        <v>134.7272412813293</v>
+        <v>49.90536280640617</v>
       </c>
       <c r="I3" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="K3" t="n">
-        <v>420.2380658616999</v>
+        <v>123.461922089984</v>
       </c>
       <c r="L3" t="n">
-        <v>6.047429464504445</v>
+        <v>3.933139768211137</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6580275707730836</v>
+        <v>0.8165695020197703</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3566372467174103</v>
+        <v>0.1341142438304096</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7237496986773382</v>
+        <v>0.9769472841792454</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>949</v>
+        <v>2080</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>220</v>
+        <v>1183</v>
       </c>
       <c r="B4" t="n">
-        <v>347</v>
+        <v>1237</v>
       </c>
       <c r="C4" t="n">
-        <v>641</v>
+        <v>1371</v>
       </c>
       <c r="D4" t="n">
-        <v>3.260251180649959</v>
+        <v>2.047697664204815</v>
       </c>
       <c r="E4" t="n">
-        <v>2.411104737523216</v>
+        <v>1.492869212017895</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8491464431267435</v>
+        <v>-0.554828452186919</v>
       </c>
       <c r="G4" t="n">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="H4" t="n">
-        <v>285.4405347176067</v>
+        <v>30.75627636057675</v>
       </c>
       <c r="I4" t="n">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="K4" t="n">
-        <v>620.9714768245653</v>
+        <v>143.6003278182097</v>
       </c>
       <c r="L4" t="n">
-        <v>11.30787754327499</v>
+        <v>3.87522893094579</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6931518315923505</v>
+        <v>0.6500393640689669</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4319727891156462</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5802154645960188</v>
+        <v>0.273009065970107</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9657772460632414</v>
+        <v>0.8052913067834528</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>950</v>
+        <v>2081</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2707</v>
+        <v>254</v>
       </c>
       <c r="B5" t="n">
-        <v>2738</v>
+        <v>286</v>
       </c>
       <c r="C5" t="n">
-        <v>2998</v>
+        <v>351</v>
       </c>
       <c r="D5" t="n">
-        <v>2.762309298275015</v>
+        <v>2.580323794303897</v>
       </c>
       <c r="E5" t="n">
-        <v>1.913162855148272</v>
+        <v>1.885746356784018</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8491464431267435</v>
+        <v>-0.6945774375198798</v>
       </c>
       <c r="G5" t="n">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>42.85382702768948</v>
+        <v>28.76091187936174</v>
       </c>
       <c r="I5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="K5" t="n">
-        <v>506.6659440328121</v>
+        <v>179.4673242705981</v>
       </c>
       <c r="L5" t="n">
-        <v>9.58081250516306</v>
+        <v>5.810073818283446</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6448035511918229</v>
+        <v>0.7489687252976832</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1192307692307692</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2481011203522753</v>
+        <v>0.6386275534248382</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2536338797847039</v>
+        <v>0.4886389161238384</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>951</v>
+        <v>2082</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2741</v>
+        <v>351</v>
       </c>
       <c r="B6" t="n">
-        <v>2840</v>
+        <v>436</v>
       </c>
       <c r="C6" t="n">
-        <v>2998</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>2.715781571215905</v>
+        <v>2.76731151449746</v>
       </c>
       <c r="E6" t="n">
-        <v>2.141473770808501</v>
+        <v>2.072734076977581</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5743078004074031</v>
+        <v>-0.6945774375198798</v>
       </c>
       <c r="G6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H6" t="n">
-        <v>71.68355612221194</v>
+        <v>121.9723901444833</v>
       </c>
       <c r="I6" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J6" t="n">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K6" t="n">
-        <v>398.1128096221087</v>
+        <v>421.1593929172886</v>
       </c>
       <c r="L6" t="n">
-        <v>6.463615463000901</v>
+        <v>6.231111077186923</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.4761368653941017</v>
+        <v>0.6723972913842802</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6265822784810127</v>
+        <v>0.4885057471264368</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4096035268737238</v>
+        <v>0.3490183372484901</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2577487685555102</v>
+        <v>0.7247106059294164</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>952</v>
+        <v>2083</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="B7" t="n">
-        <v>669</v>
+        <v>347</v>
       </c>
       <c r="C7" t="n">
-        <v>719</v>
+        <v>642</v>
       </c>
       <c r="D7" t="n">
-        <v>2.077802876332925</v>
+        <v>3.345548401617386</v>
       </c>
       <c r="E7" t="n">
-        <v>1.32472102960162</v>
+        <v>2.49941287041545</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7530818467313052</v>
+        <v>-0.8461355312019361</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="H7" t="n">
-        <v>128.9271238534473</v>
+        <v>282.8785034218337</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="K7" t="n">
-        <v>126.0089531069807</v>
+        <v>529.0758884222499</v>
       </c>
       <c r="L7" t="n">
-        <v>9.040214755831565</v>
+        <v>11.49833898506723</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7416891355486279</v>
+        <v>0.7880122600841983</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="R7" t="n">
-        <v>0.464911712688505</v>
+        <v>0.6062287481313131</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9756336105416819</v>
+        <v>0.9508132596600071</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>953</v>
+        <v>2084</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1861</v>
+        <v>2366</v>
       </c>
       <c r="B8" t="n">
-        <v>1887</v>
+        <v>2394</v>
       </c>
       <c r="C8" t="n">
-        <v>1965</v>
+        <v>2485</v>
       </c>
       <c r="D8" t="n">
-        <v>2.774910929806294</v>
+        <v>1.625632106008934</v>
       </c>
       <c r="E8" t="n">
-        <v>2.021829083074988</v>
+        <v>0.7794965748069982</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7530818467313052</v>
+        <v>-0.8461355312019361</v>
       </c>
       <c r="G8" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H8" t="n">
-        <v>20.52461797421506</v>
+        <v>61.32749421091603</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K8" t="n">
-        <v>191.3938726013008</v>
+        <v>149.7562198370703</v>
       </c>
       <c r="L8" t="n">
-        <v>12.07322938065548</v>
+        <v>5.587146493191641</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8486330281245771</v>
+        <v>0.9200163658052347</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3464578087650695</v>
+        <v>0.4860807234962139</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8595377863198264</v>
+        <v>0.8710161611904146</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>954</v>
+        <v>2085</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1965</v>
+        <v>2709</v>
       </c>
       <c r="B9" t="n">
-        <v>2002</v>
+        <v>2737</v>
       </c>
       <c r="C9" t="n">
-        <v>2151</v>
+        <v>2865</v>
       </c>
       <c r="D9" t="n">
-        <v>2.211674237655297</v>
+        <v>2.828238954081805</v>
       </c>
       <c r="E9" t="n">
-        <v>1.458592390923992</v>
+        <v>1.982103422879869</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7530818467313052</v>
+        <v>-0.8461355312019361</v>
       </c>
       <c r="G9" t="n">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="H9" t="n">
-        <v>42.05627509318856</v>
+        <v>42.3905541554891</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K9" t="n">
-        <v>197.7969714865959</v>
+        <v>293.8679869937575</v>
       </c>
       <c r="L9" t="n">
-        <v>9.622669361990194</v>
+        <v>9.720394482735017</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8886293712145817</v>
+        <v>0.8333248203101337</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2483221476510067</v>
+        <v>0.21875</v>
       </c>
       <c r="R9" t="n">
-        <v>0.442808414751223</v>
+        <v>0.174156504640755</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9252714681572194</v>
+        <v>0.8251284809814978</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>955</v>
+        <v>2086</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2383</v>
+        <v>2865</v>
       </c>
       <c r="B10" t="n">
-        <v>2447</v>
+        <v>2894</v>
       </c>
       <c r="C10" t="n">
-        <v>2531</v>
+        <v>2942</v>
       </c>
       <c r="D10" t="n">
-        <v>2.442440512468322</v>
+        <v>1.801719931524483</v>
       </c>
       <c r="E10" t="n">
-        <v>1.689358665737016</v>
+        <v>0.9555844003225471</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7530818467313052</v>
+        <v>-0.8461355312019361</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H10" t="n">
-        <v>47.27851552575885</v>
+        <v>33.53641302557844</v>
       </c>
       <c r="I10" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="K10" t="n">
-        <v>239.6540449898818</v>
+        <v>117.068109956694</v>
       </c>
       <c r="L10" t="n">
-        <v>10.62669948750183</v>
+        <v>6.192343987253396</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.5568861731816945</v>
+        <v>0.6893590702632277</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1204813066120132</v>
+        <v>0.07508437982926026</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9498309874887796</v>
+        <v>0.877339844899149</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>956</v>
+        <v>2087</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2605</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>2636</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>2704</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
-        <v>2.807869482217014</v>
+        <v>2.901191260625663</v>
       </c>
       <c r="E11" t="n">
-        <v>2.054787635485709</v>
+        <v>2.293145121707184</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7530818467313052</v>
+        <v>-0.6080461389184789</v>
       </c>
       <c r="G11" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H11" t="n">
-        <v>62.75105340247683</v>
+        <v>27.9103395220919</v>
       </c>
       <c r="I11" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="K11" t="n">
-        <v>231.4368507019086</v>
+        <v>149.7108386455542</v>
       </c>
       <c r="L11" t="n">
-        <v>12.21662719535102</v>
+        <v>6.811478418405183</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7103441883972098</v>
+        <v>0.7449792427502301</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1032553956842466</v>
+        <v>0.5103392313207495</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7797164667960235</v>
+        <v>0.5118607176501413</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>957</v>
+        <v>2088</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>506</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
-        <v>547</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
-        <v>630</v>
+        <v>183</v>
       </c>
       <c r="D12" t="n">
-        <v>2.403417740417451</v>
+        <v>1.896801975624204</v>
       </c>
       <c r="E12" t="n">
-        <v>1.767489229710444</v>
+        <v>1.288755836705726</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6359285107070064</v>
+        <v>-0.6080461389184789</v>
       </c>
       <c r="G12" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="H12" t="n">
-        <v>61.70596916162015</v>
+        <v>25.79447522192771</v>
       </c>
       <c r="I12" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9952545347417</v>
+        <v>50.73416323727633</v>
       </c>
       <c r="L12" t="n">
-        <v>5.414236186185295</v>
+        <v>4.453351937288782</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8377843342999806</v>
+        <v>0.8037290030882052</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4939759036144578</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="R12" t="n">
-        <v>0.19839595557519</v>
+        <v>0.2756261332143612</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9461000737631239</v>
+        <v>0.9595455298752785</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>958</v>
+        <v>2089</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>630</v>
+        <v>2541</v>
       </c>
       <c r="B13" t="n">
-        <v>697</v>
+        <v>2585</v>
       </c>
       <c r="C13" t="n">
-        <v>893</v>
+        <v>2641</v>
       </c>
       <c r="D13" t="n">
-        <v>2.515040812761233</v>
+        <v>1.959306405106039</v>
       </c>
       <c r="E13" t="n">
-        <v>1.879112302054226</v>
+        <v>1.35126026618756</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6359285107070064</v>
+        <v>-0.6080461389184789</v>
       </c>
       <c r="G13" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>139.4393567491921</v>
+        <v>66.39530396497821</v>
       </c>
       <c r="I13" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="J13" t="n">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
-        <v>388.127696933372</v>
+        <v>130.3511583131129</v>
       </c>
       <c r="L13" t="n">
-        <v>5.66569213049896</v>
+        <v>4.600101163459561</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8483424322189369</v>
+        <v>0.6568443147247969</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3418367346938775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R13" t="n">
-        <v>0.276878462513876</v>
+        <v>0.1447743572273736</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8206191833198426</v>
+        <v>0.8098263418157678</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>959</v>
+        <v>2090</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1592,37 +1592,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>3.966682677670441</v>
+        <v>2.169169633147571</v>
       </c>
       <c r="E14" t="n">
-        <v>3.41513735791966</v>
+        <v>1.5920297636576</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5515453197507805</v>
+        <v>-0.5771398694899718</v>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
-        <v>111.134003386988</v>
+        <v>27.78732820127085</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>160.8012805789322</v>
+        <v>75.15008522851295</v>
       </c>
       <c r="L14" t="n">
-        <v>14.87745837827493</v>
+        <v>5.144304922520982</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.6926586962760375</v>
+        <v>0.7602551851848262</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.46875</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1977112077615354</v>
+        <v>0.1120043926003038</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8822589633109144</v>
+        <v>0.9724352765524036</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>960</v>
+        <v>2091</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>964</v>
+        <v>2032</v>
       </c>
       <c r="B15" t="n">
-        <v>1076</v>
+        <v>2054</v>
       </c>
       <c r="C15" t="n">
-        <v>1254</v>
+        <v>2084</v>
       </c>
       <c r="D15" t="n">
-        <v>2.223324903357213</v>
+        <v>1.929048736537899</v>
       </c>
       <c r="E15" t="n">
-        <v>1.671779583606433</v>
+        <v>1.351908867047927</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5515453197507805</v>
+        <v>-0.5771398694899718</v>
       </c>
       <c r="G15" t="n">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="H15" t="n">
-        <v>81.30568583637069</v>
+        <v>24.32919568730563</v>
       </c>
       <c r="I15" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>294.876015043452</v>
+        <v>67.55092611347214</v>
       </c>
       <c r="L15" t="n">
-        <v>8.338812655038192</v>
+        <v>4.574845028028141</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7029599812311031</v>
+        <v>0.7903124932814268</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6292134831460674</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2476777648169995</v>
+        <v>0.4060525772807403</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9299967114168773</v>
+        <v>0.9276218521020803</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>961</v>
+        <v>2092</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2063</v>
+        <v>2183</v>
       </c>
       <c r="B16" t="n">
-        <v>2094</v>
+        <v>2213</v>
       </c>
       <c r="C16" t="n">
-        <v>2177</v>
+        <v>2305</v>
       </c>
       <c r="D16" t="n">
-        <v>1.647498185587699</v>
+        <v>2.696429333398602</v>
       </c>
       <c r="E16" t="n">
-        <v>1.148976610855644</v>
+        <v>2.11928946390863</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4985215747320555</v>
+        <v>-0.5771398694899718</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H16" t="n">
-        <v>72.40998813297256</v>
+        <v>45.72693454267392</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K16" t="n">
-        <v>94.56091754745047</v>
+        <v>175.4928315674627</v>
       </c>
       <c r="L16" t="n">
-        <v>8.304610437098754</v>
+        <v>6.394730260401318</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8831796943075232</v>
+        <v>0.8336179448796028</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3734939759036144</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2484681297457264</v>
+        <v>0.1199345364305952</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9231260355938297</v>
+        <v>0.7890361927815872</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>962</v>
+        <v>2093</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2780</v>
+        <v>2939</v>
       </c>
       <c r="B17" t="n">
-        <v>2871</v>
+        <v>2957</v>
       </c>
       <c r="C17" t="n">
         <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>1.682097412587721</v>
+        <v>1.948666413193111</v>
       </c>
       <c r="E17" t="n">
-        <v>1.183575837855666</v>
+        <v>1.371526543703139</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4985215747320555</v>
+        <v>-0.5771398694899718</v>
       </c>
       <c r="G17" t="n">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85704302022305</v>
+        <v>27.0618370147954</v>
       </c>
       <c r="I17" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="K17" t="n">
-        <v>168.8026954396859</v>
+        <v>87.79812604400766</v>
       </c>
       <c r="L17" t="n">
-        <v>8.479016153701975</v>
+        <v>4.621369425679511</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.5857236545363051</v>
+        <v>0.8400018008920704</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7165354330708661</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2107733040119398</v>
+        <v>0.163042356517351</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8499639043210273</v>
+        <v>0.9667116651053306</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>963</v>
+        <v>2094</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253</v>
+        <v>632</v>
       </c>
       <c r="B18" t="n">
-        <v>295</v>
+        <v>668</v>
       </c>
       <c r="C18" t="n">
-        <v>351</v>
+        <v>720</v>
       </c>
       <c r="D18" t="n">
-        <v>2.912204259348492</v>
+        <v>2.098089978044614</v>
       </c>
       <c r="E18" t="n">
-        <v>2.252900332120003</v>
+        <v>1.341132185748316</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6593039272284886</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H18" t="n">
-        <v>312.1602483013368</v>
+        <v>130.900180903916</v>
       </c>
       <c r="I18" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K18" t="n">
-        <v>234.7609071088148</v>
+        <v>127.4764154559825</v>
       </c>
       <c r="L18" t="n">
-        <v>10.18783844847046</v>
+        <v>9.154152963800641</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.5723950675862238</v>
+        <v>0.7534305654951464</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1063984742249971</v>
+        <v>0.4546188591216496</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9246095567361842</v>
+        <v>0.9595161461674604</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>964</v>
+        <v>2095</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>351</v>
+        <v>899</v>
       </c>
       <c r="B19" t="n">
-        <v>382</v>
+        <v>978</v>
       </c>
       <c r="C19" t="n">
-        <v>523</v>
+        <v>1134</v>
       </c>
       <c r="D19" t="n">
-        <v>2.707104418809582</v>
+        <v>2.39853968172102</v>
       </c>
       <c r="E19" t="n">
-        <v>2.047800491581093</v>
+        <v>1.641581889424722</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6593039272284886</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G19" t="n">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="H19" t="n">
-        <v>46.82370266348312</v>
+        <v>125.26310434914</v>
       </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J19" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K19" t="n">
-        <v>297.7130078340376</v>
+        <v>262.0901818073626</v>
       </c>
       <c r="L19" t="n">
-        <v>9.470332444380992</v>
+        <v>10.46504171221633</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.866015433437453</v>
+        <v>0.7250711258479836</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2034435770801774</v>
+        <v>0.4994856965567393</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8490453790686957</v>
+        <v>0.9410245440459922</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>965</v>
+        <v>2096</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,73 +2105,73 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>969</v>
+        <v>1861</v>
       </c>
       <c r="B20" t="n">
-        <v>996</v>
+        <v>1889</v>
       </c>
       <c r="C20" t="n">
-        <v>1217</v>
+        <v>1967</v>
       </c>
       <c r="D20" t="n">
-        <v>2.208871409591454</v>
+        <v>2.794841363520158</v>
       </c>
       <c r="E20" t="n">
-        <v>1.549567482362965</v>
+        <v>2.037883571223861</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6593039272284886</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G20" t="n">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="H20" t="n">
-        <v>33.5103578712318</v>
+        <v>20.46470459628608</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="K20" t="n">
-        <v>236.5769173066203</v>
+        <v>193.9420731802978</v>
       </c>
       <c r="L20" t="n">
-        <v>7.727351198709322</v>
+        <v>12.19414115645552</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1110), 'value': np.float64(0.331228229826236), 'amplitude': np.float64(0.9905321570547246), 'start_idx': np.int64(1100), 'end_idx': np.int64(1115), 'duration': np.float64(15.0), 'fwhm': np.float64(82.3320672677346), 'rise_time': np.float64(10.0), 'decay_time': np.float64(5.0), 'auc': np.float64(13.638034390013615)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7057620125360932</v>
+        <v>0.8255236638327896</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1221719457013575</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4550020319595408</v>
+        <v>0.3648720993223452</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5443905819955472</v>
+        <v>0.8210999688048313</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>966</v>
+        <v>2097</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>255</v>
+        <v>1967</v>
       </c>
       <c r="B21" t="n">
-        <v>285</v>
+        <v>2000</v>
       </c>
       <c r="C21" t="n">
-        <v>405</v>
+        <v>2152</v>
       </c>
       <c r="D21" t="n">
-        <v>4.22392494585402</v>
+        <v>2.274878674361918</v>
       </c>
       <c r="E21" t="n">
-        <v>3.692227183094869</v>
+        <v>1.517920882065621</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5316977627591517</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G21" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="H21" t="n">
-        <v>64.99287227744509</v>
+        <v>38.74478758874534</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="K21" t="n">
-        <v>280.5642396902847</v>
+        <v>196.6453174642996</v>
       </c>
       <c r="L21" t="n">
-        <v>16.67704644926604</v>
+        <v>9.925497751342967</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9358301671490981</v>
+        <v>0.8642551013717951</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.25</v>
+        <v>0.2171052631578947</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4061852475351311</v>
+        <v>0.4369992177108091</v>
       </c>
       <c r="S21" t="n">
-        <v>0.862721198675618</v>
+        <v>0.9251355534929132</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>967</v>
+        <v>2098</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>405</v>
+        <v>2382</v>
       </c>
       <c r="B22" t="n">
-        <v>465</v>
+        <v>2445</v>
       </c>
       <c r="C22" t="n">
-        <v>543</v>
+        <v>2531</v>
       </c>
       <c r="D22" t="n">
-        <v>2.236731836577192</v>
+        <v>2.482494465922434</v>
       </c>
       <c r="E22" t="n">
-        <v>1.705034073818041</v>
+        <v>1.725536673626136</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5316977627591517</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G22" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H22" t="n">
-        <v>80.90697187846825</v>
+        <v>47.64915697048082</v>
       </c>
       <c r="I22" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K22" t="n">
-        <v>184.7189985333027</v>
+        <v>241.7317694673341</v>
       </c>
       <c r="L22" t="n">
-        <v>8.831141938202217</v>
+        <v>10.83134389404119</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6255966680586089</v>
+        <v>0.5412456410447604</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3732866436209983</v>
+        <v>0.1326528113991169</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6146412636809798</v>
+        <v>0.9432193918002637</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>968</v>
+        <v>2099</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1286</v>
+        <v>2605</v>
       </c>
       <c r="B23" t="n">
-        <v>1315</v>
+        <v>2636</v>
       </c>
       <c r="C23" t="n">
-        <v>1362</v>
+        <v>2704</v>
       </c>
       <c r="D23" t="n">
-        <v>3.594185867428869</v>
+        <v>2.88500785500515</v>
       </c>
       <c r="E23" t="n">
-        <v>3.062488104669717</v>
+        <v>2.128050062708852</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5316977627591517</v>
+        <v>-0.7569577922962974</v>
       </c>
       <c r="G23" t="n">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H23" t="n">
-        <v>49.17609706981534</v>
+        <v>84.46882275095686</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K23" t="n">
-        <v>147.1256209134208</v>
+        <v>231.7801548797624</v>
       </c>
       <c r="L23" t="n">
-        <v>14.19068885616471</v>
+        <v>12.58754556899272</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8014964515138487</v>
+        <v>0.7087076653658857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2181627881956262</v>
+        <v>0.1230379822150869</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9715373419594339</v>
+        <v>0.7555937389447872</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>969</v>
+        <v>2100</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>259</v>
+        <v>2279</v>
       </c>
       <c r="B24" t="n">
-        <v>293</v>
+        <v>2330</v>
       </c>
       <c r="C24" t="n">
-        <v>350</v>
+        <v>2414</v>
       </c>
       <c r="D24" t="n">
-        <v>3.923920569111706</v>
+        <v>2.026985372501962</v>
       </c>
       <c r="E24" t="n">
-        <v>3.295699273275742</v>
+        <v>1.466879414039745</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6282212958359638</v>
+        <v>-0.5601059584622172</v>
       </c>
       <c r="G24" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H24" t="n">
-        <v>248.3176062115969</v>
+        <v>76.94710677331796</v>
       </c>
       <c r="I24" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J24" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5354729272749</v>
+        <v>156.2490688172153</v>
       </c>
       <c r="L24" t="n">
-        <v>17.85428948588138</v>
+        <v>3.802254985033382</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7651478127587236</v>
+        <v>0.802580992417238</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2100378012918571</v>
+        <v>0.3841594910945037</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9680410011883429</v>
+        <v>0.9175173711476341</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>970</v>
+        <v>2101</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="B25" t="n">
-        <v>372</v>
+        <v>547</v>
       </c>
       <c r="C25" t="n">
-        <v>436</v>
+        <v>632</v>
       </c>
       <c r="D25" t="n">
-        <v>1.929019544736098</v>
+        <v>2.455280497510411</v>
       </c>
       <c r="E25" t="n">
-        <v>1.300798248900134</v>
+        <v>1.819941097823126</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6282212958359638</v>
+        <v>-0.6353393996872846</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H25" t="n">
-        <v>21.50036458986722</v>
+        <v>61.25822078300803</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
-        <v>92.8774946356483</v>
+        <v>172.2408542574376</v>
       </c>
       <c r="L25" t="n">
-        <v>8.777260591551221</v>
+        <v>5.542782588602684</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8679538497575811</v>
+        <v>0.8470415814818621</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.34375</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4581244098787998</v>
+        <v>0.2009526887641656</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8496064290437214</v>
+        <v>0.9475676780001165</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>971</v>
+        <v>2102</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>436</v>
+        <v>632</v>
       </c>
       <c r="B26" t="n">
-        <v>510</v>
+        <v>688</v>
       </c>
       <c r="C26" t="n">
-        <v>648</v>
+        <v>894</v>
       </c>
       <c r="D26" t="n">
-        <v>3.025623441895741</v>
+        <v>2.5779602733899</v>
       </c>
       <c r="E26" t="n">
-        <v>2.397402146059777</v>
+        <v>1.942620873702616</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6282212958359638</v>
+        <v>-0.6353393996872846</v>
       </c>
       <c r="G26" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="H26" t="n">
-        <v>44.25895872368596</v>
+        <v>137.4849940240264</v>
       </c>
       <c r="I26" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="J26" t="n">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="K26" t="n">
-        <v>255.4550071823286</v>
+        <v>387.14156159709</v>
       </c>
       <c r="L26" t="n">
-        <v>13.76693433402105</v>
+        <v>5.819731526374968</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.5679863095844626</v>
+        <v>0.8301933693364212</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5362318840579711</v>
+        <v>0.2718446601941747</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7854127660321341</v>
+        <v>0.2403474571569359</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6917106658277888</v>
+        <v>0.8084278483890162</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>972</v>
+        <v>2103</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>193</v>
+        <v>946</v>
       </c>
       <c r="B27" t="n">
-        <v>281</v>
+        <v>973</v>
       </c>
       <c r="C27" t="n">
-        <v>477</v>
+        <v>1031</v>
       </c>
       <c r="D27" t="n">
-        <v>3.351144403514997</v>
+        <v>2.519573765524781</v>
       </c>
       <c r="E27" t="n">
-        <v>2.780295718523934</v>
+        <v>1.884234365837496</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5708486849910634</v>
+        <v>-0.6353393996872846</v>
       </c>
       <c r="G27" t="n">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="H27" t="n">
-        <v>234.5588603705074</v>
+        <v>22.39434665525039</v>
       </c>
       <c r="I27" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="K27" t="n">
-        <v>503.5692132255912</v>
+        <v>159.5696810444513</v>
       </c>
       <c r="L27" t="n">
-        <v>10.0679391907512</v>
+        <v>5.687924297208181</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.5633056337524982</v>
+        <v>0.6893144961410941</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4489795918367347</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3808126508899545</v>
+        <v>0.1475832625681687</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4486259184171938</v>
+        <v>0.5474528882655781</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>973</v>
+        <v>2104</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>842</v>
+        <v>1031</v>
       </c>
       <c r="B28" t="n">
-        <v>897</v>
+        <v>1096</v>
       </c>
       <c r="C28" t="n">
-        <v>990</v>
+        <v>1225</v>
       </c>
       <c r="D28" t="n">
-        <v>5.448225888494493</v>
+        <v>2.785942218518548</v>
       </c>
       <c r="E28" t="n">
-        <v>4.997158059092983</v>
+        <v>2.150602818831263</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4510678294015105</v>
+        <v>-0.6353393996872846</v>
       </c>
       <c r="G28" t="n">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="H28" t="n">
-        <v>85.73749336689207</v>
+        <v>247.4012565793761</v>
       </c>
       <c r="I28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J28" t="n">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K28" t="n">
-        <v>440.9822966931181</v>
+        <v>340.5068393602528</v>
       </c>
       <c r="L28" t="n">
-        <v>23.2720192552725</v>
+        <v>6.289249654903131</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7181383250723402</v>
+        <v>0.7020649998347233</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8196035854108009</v>
+        <v>0.3645051827167962</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9113417971147721</v>
+        <v>0.8856558057704152</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>974</v>
+        <v>2105</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1904</v>
+        <v>1801</v>
       </c>
       <c r="B29" t="n">
-        <v>1921</v>
+        <v>1830</v>
       </c>
       <c r="C29" t="n">
-        <v>2004</v>
+        <v>1933</v>
       </c>
       <c r="D29" t="n">
-        <v>3.622478243415698</v>
+        <v>2.848497889585401</v>
       </c>
       <c r="E29" t="n">
-        <v>3.126032679837125</v>
+        <v>2.213158489898116</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4964455635785733</v>
+        <v>-0.6353393996872846</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H29" t="n">
-        <v>14.87963966320126</v>
+        <v>135.1831590431927</v>
       </c>
       <c r="I29" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K29" t="n">
-        <v>261.497825180467</v>
+        <v>223.5184374099692</v>
       </c>
       <c r="L29" t="n">
-        <v>15.68928324182468</v>
+        <v>6.430468747694886</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8131725988585283</v>
+        <v>0.9172680153719294</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2048192771084337</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2399198976102242</v>
+        <v>0.2839963628997513</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8440788736772498</v>
+        <v>0.9563976971835266</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>975</v>
+        <v>2106</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2508</v>
+        <v>2245</v>
       </c>
       <c r="B30" t="n">
-        <v>2560</v>
+        <v>2273</v>
       </c>
       <c r="C30" t="n">
-        <v>2708</v>
+        <v>2352</v>
       </c>
       <c r="D30" t="n">
-        <v>2.783776676231355</v>
+        <v>1.005659129151889</v>
       </c>
       <c r="E30" t="n">
-        <v>2.116102818698902</v>
+        <v>0.557866592309357</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.667673857532453</v>
+        <v>-0.4477925368425319</v>
       </c>
       <c r="G30" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="H30" t="n">
-        <v>91.06687758792441</v>
+        <v>55.05238828136726</v>
       </c>
       <c r="I30" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2265924295841</v>
+        <v>61.30540742083389</v>
       </c>
       <c r="L30" t="n">
-        <v>10.47409283751206</v>
+        <v>5.23111887605448</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.801562844414921</v>
+        <v>0.8737084303122566</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1672211419954032</v>
+        <v>0.2776708242382556</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9500432998522665</v>
+        <v>0.7673039501662601</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>976</v>
+        <v>2107</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1099</v>
+        <v>2762</v>
       </c>
       <c r="B31" t="n">
-        <v>1159</v>
+        <v>2783</v>
       </c>
       <c r="C31" t="n">
-        <v>1247</v>
+        <v>2818</v>
       </c>
       <c r="D31" t="n">
-        <v>1.302262269016955</v>
+        <v>1.026635320231178</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7007479178021137</v>
+        <v>0.5788427833886466</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6015143512148411</v>
+        <v>-0.4477925368425319</v>
       </c>
       <c r="G31" t="n">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="H31" t="n">
-        <v>66.07362501350121</v>
+        <v>22.20039282671269</v>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="K31" t="n">
-        <v>129.4014802984037</v>
+        <v>29.69522858297278</v>
       </c>
       <c r="L31" t="n">
-        <v>6.0551735875701</v>
+        <v>5.340230349238377</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.528120524799214</v>
+        <v>0.8440867741717728</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1930507673128282</v>
+        <v>0.2940199043121894</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5394695467400832</v>
+        <v>0.9153973868965573</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>977</v>
+        <v>2108</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1332</v>
+        <v>437</v>
       </c>
       <c r="B32" t="n">
-        <v>1362</v>
+        <v>467</v>
       </c>
       <c r="C32" t="n">
-        <v>1414</v>
+        <v>525</v>
       </c>
       <c r="D32" t="n">
-        <v>2.130338820458178</v>
+        <v>3.559421791832682</v>
       </c>
       <c r="E32" t="n">
-        <v>1.528824469243337</v>
+        <v>3.053776737203287</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6015143512148411</v>
+        <v>-0.5056450546293947</v>
       </c>
       <c r="G32" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H32" t="n">
-        <v>57.52923146095145</v>
+        <v>56.11443489794641</v>
       </c>
       <c r="I32" t="n">
         <v>30</v>
       </c>
       <c r="J32" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K32" t="n">
-        <v>137.0835161178925</v>
+        <v>187.0963432623263</v>
       </c>
       <c r="L32" t="n">
-        <v>9.905509562179947</v>
+        <v>7.545303704169836</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6365017344055683</v>
+        <v>0.7812690557496502</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1017847431121603</v>
+        <v>0.1584263609612853</v>
       </c>
       <c r="S32" t="n">
-        <v>0.874689302028655</v>
+        <v>0.979186618318089</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>978</v>
+        <v>2109</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,73 +3223,73 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1529</v>
+        <v>674</v>
       </c>
       <c r="B33" t="n">
-        <v>1553</v>
+        <v>691</v>
       </c>
       <c r="C33" t="n">
-        <v>1598</v>
+        <v>764</v>
       </c>
       <c r="D33" t="n">
-        <v>3.57132935583026</v>
+        <v>1.895337250671151</v>
       </c>
       <c r="E33" t="n">
-        <v>2.969815004615419</v>
+        <v>1.389692196041756</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6015143512148411</v>
+        <v>-0.5056450546293947</v>
       </c>
       <c r="G33" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H33" t="n">
-        <v>27.63181157830445</v>
+        <v>21.6641935614424</v>
       </c>
       <c r="I33" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K33" t="n">
-        <v>190.0301725089517</v>
+        <v>105.968844944667</v>
       </c>
       <c r="L33" t="n">
-        <v>16.60573273328522</v>
+        <v>4.017757943426209</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(742), 'value': np.float64(0.9767585261710134), 'amplitude': np.float64(1.4824035808004081), 'start_idx': np.int64(735), 'end_idx': np.int64(763), 'duration': np.float64(28.0), 'fwhm': np.float64(22.568924717765753), 'rise_time': np.float64(7.0), 'decay_time': np.float64(21.0), 'auc': np.float64(28.61549034319704)}]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7510731837983614</v>
+        <v>0.7616334503998954</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07923151714243686</v>
+        <v>0.2728563823350691</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9857380713309625</v>
+        <v>0.3502493674265965</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>979</v>
+        <v>2110</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2176</v>
+        <v>1249</v>
       </c>
       <c r="B34" t="n">
-        <v>2198</v>
+        <v>1275</v>
       </c>
       <c r="C34" t="n">
-        <v>2231</v>
+        <v>1350</v>
       </c>
       <c r="D34" t="n">
-        <v>2.346998385397123</v>
+        <v>2.060579427696906</v>
       </c>
       <c r="E34" t="n">
-        <v>1.745484034182282</v>
+        <v>1.554934373067511</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6015143512148411</v>
+        <v>-0.5056450546293947</v>
       </c>
       <c r="G34" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="H34" t="n">
-        <v>23.55290430224477</v>
+        <v>126.8962467731933</v>
       </c>
       <c r="I34" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J34" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="K34" t="n">
-        <v>94.15810817733296</v>
+        <v>106.4455347485582</v>
       </c>
       <c r="L34" t="n">
-        <v>10.91291898063992</v>
+        <v>4.368040231762586</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.6884670455761013</v>
+        <v>0.8854619817689999</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07154387969530215</v>
+        <v>0.4480050433252984</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9560815783975858</v>
+        <v>0.9893952518011175</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>980</v>
+        <v>2111</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2231</v>
+        <v>292</v>
       </c>
       <c r="B35" t="n">
-        <v>2250</v>
+        <v>313</v>
       </c>
       <c r="C35" t="n">
-        <v>2285</v>
+        <v>342</v>
       </c>
       <c r="D35" t="n">
-        <v>1.392245332891097</v>
+        <v>1.302767816969651</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7907309816762558</v>
+        <v>0.7482080549701539</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6015143512148411</v>
+        <v>-0.554559761999497</v>
       </c>
       <c r="G35" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>29.34931627318383</v>
+        <v>22.38348125390729</v>
       </c>
       <c r="I35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K35" t="n">
-        <v>59.84416119614747</v>
+        <v>42.74953690556334</v>
       </c>
       <c r="L35" t="n">
-        <v>6.473570929382547</v>
+        <v>4.861908986428413</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7635873386218757</v>
+        <v>0.8106099684341825</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1492752406399128</v>
+        <v>0.2813056057458972</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9248523214693725</v>
+        <v>0.9871792602499564</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>981</v>
+        <v>2112</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1478</v>
+        <v>962</v>
       </c>
       <c r="B36" t="n">
-        <v>1517</v>
+        <v>1075</v>
       </c>
       <c r="C36" t="n">
-        <v>1613</v>
+        <v>1256</v>
       </c>
       <c r="D36" t="n">
-        <v>4.762626770982058</v>
+        <v>2.215951009720291</v>
       </c>
       <c r="E36" t="n">
-        <v>4.217917480934664</v>
+        <v>1.661391247720794</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5447092900473934</v>
+        <v>-0.554559761999497</v>
       </c>
       <c r="G36" t="n">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="H36" t="n">
-        <v>116.3716379493683</v>
+        <v>83.13646705146516</v>
       </c>
       <c r="I36" t="n">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="J36" t="n">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="K36" t="n">
-        <v>413.1793047235741</v>
+        <v>296.6264750284794</v>
       </c>
       <c r="L36" t="n">
-        <v>25.77469459838112</v>
+        <v>8.269894287613635</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8209728588763915</v>
+        <v>0.7704269074589415</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.40625</v>
+        <v>0.6243093922651933</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1739264269664587</v>
+        <v>0.257381508582856</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9638998756608476</v>
+        <v>0.920289783950194</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>982</v>
+        <v>2113</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2444</v>
+        <v>1256</v>
       </c>
       <c r="B37" t="n">
-        <v>2478</v>
+        <v>1340</v>
       </c>
       <c r="C37" t="n">
-        <v>2609</v>
+        <v>1496</v>
       </c>
       <c r="D37" t="n">
-        <v>3.179966566458665</v>
+        <v>3.662281527705293</v>
       </c>
       <c r="E37" t="n">
-        <v>2.588811493139063</v>
+        <v>3.107721765705796</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5911550733196024</v>
+        <v>-0.554559761999497</v>
       </c>
       <c r="G37" t="n">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="H37" t="n">
-        <v>85.07128995835683</v>
+        <v>102.9733866356253</v>
       </c>
       <c r="I37" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="J37" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="K37" t="n">
-        <v>247.8370189884086</v>
+        <v>407.7327398661413</v>
       </c>
       <c r="L37" t="n">
-        <v>9.01357546772431</v>
+        <v>13.66757701445118</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9165979023261083</v>
+        <v>0.755161132717134</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2595419847328244</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2802473276604248</v>
+        <v>0.2193823487040818</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8381096820470361</v>
+        <v>0.9193816217067703</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>983</v>
+        <v>2114</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1887</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n">
-        <v>1925</v>
+        <v>120</v>
       </c>
       <c r="C38" t="n">
-        <v>2018</v>
+        <v>165</v>
       </c>
       <c r="D38" t="n">
-        <v>4.083811078962901</v>
+        <v>3.834716274159117</v>
       </c>
       <c r="E38" t="n">
-        <v>3.559693775921515</v>
+        <v>3.328501478001922</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5241173030413857</v>
+        <v>-0.5062147961571947</v>
       </c>
       <c r="G38" t="n">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H38" t="n">
-        <v>80.50182413602192</v>
+        <v>26.27224505784341</v>
       </c>
       <c r="I38" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J38" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="K38" t="n">
-        <v>295.4256965461007</v>
+        <v>229.5545143416699</v>
       </c>
       <c r="L38" t="n">
-        <v>21.4087540957855</v>
+        <v>18.71965592612904</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8783967007511786</v>
+        <v>0.699651802118884</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2922003886213269</v>
+        <v>0.2326574868610956</v>
       </c>
       <c r="S38" t="n">
-        <v>0.963479498918709</v>
+        <v>0.9791824906014784</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>984</v>
+        <v>2115</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1416</v>
+        <v>2062</v>
       </c>
       <c r="B39" t="n">
-        <v>1449</v>
+        <v>2094</v>
       </c>
       <c r="C39" t="n">
-        <v>1543</v>
+        <v>2180</v>
       </c>
       <c r="D39" t="n">
-        <v>3.737650860342173</v>
+        <v>1.697580117886737</v>
       </c>
       <c r="E39" t="n">
-        <v>3.249629795067457</v>
+        <v>1.191365321729542</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4880210652747162</v>
+        <v>-0.5062147961571947</v>
       </c>
       <c r="G39" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H39" t="n">
-        <v>32.56492021022132</v>
+        <v>66.68180883660625</v>
       </c>
       <c r="I39" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J39" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K39" t="n">
-        <v>223.5194093088538</v>
+        <v>96.24837518335696</v>
       </c>
       <c r="L39" t="n">
-        <v>21.04559352383659</v>
+        <v>8.286953568904037</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.883376818030101</v>
+        <v>0.8879946595507311</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.351063829787234</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3034864303669082</v>
+        <v>0.2684789101819674</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9209300147124746</v>
+        <v>0.905768100471214</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>985</v>
+        <v>2116</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>649</v>
+        <v>2912</v>
       </c>
       <c r="B40" t="n">
-        <v>676</v>
+        <v>2925</v>
       </c>
       <c r="C40" t="n">
-        <v>739</v>
+        <v>2998</v>
       </c>
       <c r="D40" t="n">
-        <v>2.151515854941171</v>
+        <v>0.9663678262565223</v>
       </c>
       <c r="E40" t="n">
-        <v>1.591244293861089</v>
+        <v>0.4601530300993276</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.560271561080082</v>
+        <v>-0.5062147961571947</v>
       </c>
       <c r="G40" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H40" t="n">
-        <v>32.91630350406751</v>
+        <v>21.92351801323503</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K40" t="n">
-        <v>89.83770173847003</v>
+        <v>49.62800055821879</v>
       </c>
       <c r="L40" t="n">
-        <v>6.003458069307312</v>
+        <v>4.71744763165566</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9007715466449568</v>
+        <v>0.8481222617869363</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2504055788065186</v>
+        <v>0.2819570994118069</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9144826009669034</v>
+        <v>0.8302553472090765</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>986</v>
+        <v>2117</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1037</v>
+        <v>256</v>
       </c>
       <c r="B41" t="n">
-        <v>1110</v>
+        <v>281</v>
       </c>
       <c r="C41" t="n">
-        <v>1285</v>
+        <v>350</v>
       </c>
       <c r="D41" t="n">
-        <v>4.017978861206605</v>
+        <v>2.848933108718284</v>
       </c>
       <c r="E41" t="n">
-        <v>3.457707300126523</v>
+        <v>2.189957536405276</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.560271561080082</v>
+        <v>-0.6589755723130074</v>
       </c>
       <c r="G41" t="n">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="H41" t="n">
-        <v>206.9110640303927</v>
+        <v>48.81280632505036</v>
       </c>
       <c r="I41" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J41" t="n">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="K41" t="n">
-        <v>574.1067715561104</v>
+        <v>227.0474776868992</v>
       </c>
       <c r="L41" t="n">
-        <v>11.21152212809352</v>
+        <v>9.753114409675076</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8377223418749995</v>
+        <v>0.7376548377081407</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4171428571428571</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2601207397222257</v>
+        <v>0.06704273959249231</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8653628365891861</v>
+        <v>0.8018876007160288</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>987</v>
+        <v>2118</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,85 +3997,6535 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1104</v>
+        <v>350</v>
       </c>
       <c r="B42" t="n">
-        <v>1173</v>
+        <v>382</v>
       </c>
       <c r="C42" t="n">
-        <v>1303</v>
+        <v>478</v>
       </c>
       <c r="D42" t="n">
-        <v>3.199419023813978</v>
+        <v>2.621448567793693</v>
       </c>
       <c r="E42" t="n">
-        <v>2.742571006904294</v>
+        <v>1.962472995480685</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4568480169096842</v>
+        <v>-0.6589755723130074</v>
       </c>
       <c r="G42" t="n">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="H42" t="n">
-        <v>41.51404538997645</v>
+        <v>49.34211776708435</v>
       </c>
       <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>96</v>
+      </c>
+      <c r="K42" t="n">
+        <v>244.3820517683113</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.97433769944613</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8401595606530436</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.09595597575091504</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9165300354943794</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>2119</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>478</v>
+      </c>
+      <c r="B43" t="n">
+        <v>490</v>
+      </c>
+      <c r="C43" t="n">
+        <v>523</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.502770226124577</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8437946538115694</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6589755723130074</v>
+      </c>
+      <c r="G43" t="n">
+        <v>45</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19.18241504860094</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>33</v>
+      </c>
+      <c r="K43" t="n">
+        <v>54.72955640692236</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.144624105772786</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.7668152614248027</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.09091254554280742</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.7400301853924258</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>2120</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.010515477825106</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3515399055120986</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6589755723130074</v>
+      </c>
+      <c r="G44" t="n">
+        <v>148</v>
+      </c>
+      <c r="H44" t="n">
+        <v>85.54365789925282</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46</v>
+      </c>
+      <c r="J44" t="n">
+        <v>102</v>
+      </c>
+      <c r="K44" t="n">
+        <v>90.365857307639</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.459425929592899</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7293543630752914</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1576830851792297</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8059071237951774</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>2121</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1459</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.891890470828515</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.232914898515507</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6589755723130074</v>
+      </c>
+      <c r="G45" t="n">
+        <v>113</v>
+      </c>
+      <c r="H45" t="n">
+        <v>147.0404578593746</v>
+      </c>
+      <c r="I45" t="n">
+        <v>37</v>
+      </c>
+      <c r="J45" t="n">
+        <v>76</v>
+      </c>
+      <c r="K45" t="n">
+        <v>210.0181427322414</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9.900175801224355</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7664216542226066</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4868421052631579</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.3811687141209493</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8909621274816096</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>2122</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>26</v>
+      </c>
+      <c r="C46" t="n">
+        <v>56</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.261409522002095</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7295824124142121</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17.45325810018073</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30</v>
+      </c>
+      <c r="K46" t="n">
+        <v>38.74922065301207</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.829801208104028</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.803682828584019</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2786476014061957</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.866325094420799</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>2123</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90</v>
+      </c>
+      <c r="C47" t="n">
+        <v>147</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.610066138789554</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.078239029201671</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G47" t="n">
+        <v>91</v>
+      </c>
+      <c r="H47" t="n">
+        <v>38.44882463462771</v>
+      </c>
+      <c r="I47" t="n">
+        <v>34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>57</v>
+      </c>
+      <c r="K47" t="n">
+        <v>181.2492925718583</v>
+      </c>
+      <c r="L47" t="n">
+        <v>13.82255444749392</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7884290232134705</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5964912280701754</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1548289620243899</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.969556785690343</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>2124</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>258</v>
+      </c>
+      <c r="B48" t="n">
+        <v>285</v>
+      </c>
+      <c r="C48" t="n">
+        <v>339</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.387315820708689</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.855488711120806</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G48" t="n">
+        <v>81</v>
+      </c>
+      <c r="H48" t="n">
+        <v>54.40822006150825</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>54</v>
+      </c>
+      <c r="K48" t="n">
+        <v>213.3302836983872</v>
+      </c>
+      <c r="L48" t="n">
+        <v>16.79855977110465</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7686824033281692</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1447708566548825</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9643624247430478</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>2125</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>339</v>
+      </c>
+      <c r="B49" t="n">
+        <v>365</v>
+      </c>
+      <c r="C49" t="n">
+        <v>406</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.386809054225844</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8549819446379608</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G49" t="n">
+        <v>67</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19.94695117989039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26</v>
+      </c>
+      <c r="J49" t="n">
+        <v>41</v>
+      </c>
+      <c r="K49" t="n">
+        <v>61.95409390439924</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.309942511674222</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.812930031010385</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.6341463414634146</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3011692895796028</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9821997560767423</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>2126</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>475</v>
+      </c>
+      <c r="B50" t="n">
+        <v>493</v>
+      </c>
+      <c r="C50" t="n">
+        <v>540</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.894596659068988</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.362769549481105</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G50" t="n">
+        <v>65</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10.32270030147851</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>47</v>
+      </c>
+      <c r="K50" t="n">
+        <v>92.95867842788581</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.25420656276452</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6581666610740655</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2546006111535585</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6961067888488665</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>2127</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>769</v>
+      </c>
+      <c r="B51" t="n">
+        <v>790</v>
+      </c>
+      <c r="C51" t="n">
+        <v>852</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.305810357759394</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.773983248171511</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G51" t="n">
+        <v>83</v>
+      </c>
+      <c r="H51" t="n">
+        <v>31.48300464820056</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="n">
+        <v>62</v>
+      </c>
+      <c r="K51" t="n">
+        <v>50.87499676348022</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.999807226324869</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(831), 'value': np.float64(0.17507035909744814), 'amplitude': np.float64(0.706897468685331), 'start_idx': np.int64(811), 'end_idx': np.int64(851), 'duration': np.float64(40.0), 'fwhm': np.float64(18.936894480712112), 'rise_time': np.float64(20.0), 'decay_time': np.float64(20.0), 'auc': np.float64(18.187843128132222)}]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8550067351165511</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3387096774193548</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3118062523641053</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.492583077412009</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>2128</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1367</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.772765470614062</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.240938361026179</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5318271095878828</v>
+      </c>
+      <c r="G52" t="n">
+        <v>80</v>
+      </c>
+      <c r="H52" t="n">
+        <v>45.86122377179549</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>54</v>
+      </c>
+      <c r="K52" t="n">
+        <v>152.0385002434087</v>
+      </c>
+      <c r="L52" t="n">
+        <v>14.44551266661098</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8521947024322751</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2534988321767354</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9559465711781341</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>2129</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>258</v>
+      </c>
+      <c r="B53" t="n">
+        <v>294</v>
+      </c>
+      <c r="C53" t="n">
+        <v>346</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.925754370842171</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.298343523986523</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.627410846855648</v>
+      </c>
+      <c r="G53" t="n">
+        <v>88</v>
+      </c>
+      <c r="H53" t="n">
+        <v>248.9331427226068</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>52</v>
+      </c>
+      <c r="K53" t="n">
+        <v>248.4999284951892</v>
+      </c>
+      <c r="L53" t="n">
+        <v>17.30864229833651</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.7056549846147038</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1873325678125524</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9105487438844654</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>2130</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>543</v>
+      </c>
+      <c r="B54" t="n">
+        <v>578</v>
+      </c>
+      <c r="C54" t="n">
+        <v>650</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.411220767541759</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7838099206861114</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.627410846855648</v>
+      </c>
+      <c r="G54" t="n">
+        <v>107</v>
+      </c>
+      <c r="H54" t="n">
+        <v>44.28488253977889</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>72</v>
+      </c>
+      <c r="K54" t="n">
+        <v>121.3889296428163</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.222069228473959</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6599482870866593</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1818624863352601</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8002442032389669</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>2131</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2816</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.503969333576392</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8765584867207437</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.627410846855648</v>
+      </c>
+      <c r="G55" t="n">
+        <v>74</v>
+      </c>
+      <c r="H55" t="n">
+        <v>58.63751013598903</v>
+      </c>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" t="n">
+        <v>54</v>
+      </c>
+      <c r="K55" t="n">
+        <v>71.65601736708203</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.630997450040889</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8092322272246115</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.165998010292026</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8547004449305755</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>2132</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>122</v>
+      </c>
+      <c r="B56" t="n">
+        <v>139</v>
+      </c>
+      <c r="C56" t="n">
+        <v>225</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.047712191912499</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.532192251563041</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5155199403494579</v>
+      </c>
+      <c r="G56" t="n">
+        <v>103</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.91705123397404</v>
+      </c>
+      <c r="I56" t="n">
+        <v>17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>86</v>
+      </c>
+      <c r="K56" t="n">
+        <v>212.9985990952861</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.011513513726291</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8013534722262186</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2546095418544996</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.8125188142156821</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>2133</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>394</v>
+      </c>
+      <c r="B57" t="n">
+        <v>429</v>
+      </c>
+      <c r="C57" t="n">
+        <v>475</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.956615213000288</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.44109527265083</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5155199403494579</v>
+      </c>
+      <c r="G57" t="n">
+        <v>81</v>
+      </c>
+      <c r="H57" t="n">
+        <v>46.51910029561117</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>46</v>
+      </c>
+      <c r="K57" t="n">
+        <v>195.911105352956</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.102519951911201</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.610696753751651</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.03980856361559318</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9675710819939586</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>2134</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>694</v>
+      </c>
+      <c r="B58" t="n">
+        <v>712</v>
+      </c>
+      <c r="C58" t="n">
+        <v>783</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.626858883914172</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.104005828252221</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5228530556619507</v>
+      </c>
+      <c r="G58" t="n">
+        <v>89</v>
+      </c>
+      <c r="H58" t="n">
+        <v>14.37020584394293</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18</v>
+      </c>
+      <c r="J58" t="n">
+        <v>71</v>
+      </c>
+      <c r="K58" t="n">
+        <v>79.14022910437357</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.83007276188217</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7944124663675417</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4180246308655341</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.6240665082300076</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>2135</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1389</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.877871550223992</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.355018494562041</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5228530556619507</v>
+      </c>
+      <c r="G59" t="n">
+        <v>73</v>
+      </c>
+      <c r="H59" t="n">
+        <v>149.3824879217739</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>45</v>
+      </c>
+      <c r="K59" t="n">
+        <v>95.05198451080037</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.42102553942583</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7685440543682832</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3752161392458498</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9640238146772349</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>2136</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>132</v>
+      </c>
+      <c r="B60" t="n">
+        <v>150</v>
+      </c>
+      <c r="C60" t="n">
+        <v>198</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.978169957379079</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.395401476606093</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17.88789233553607</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>48</v>
+      </c>
+      <c r="K60" t="n">
+        <v>143.9329379755022</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.80858761275017</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7707505489668234</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2889139916062898</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9415571356515916</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>2137</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>198</v>
+      </c>
+      <c r="B61" t="n">
+        <v>220</v>
+      </c>
+      <c r="C61" t="n">
+        <v>250</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.676275310282024</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.093506829509038</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G61" t="n">
+        <v>52</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17.41806672871095</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>30</v>
+      </c>
+      <c r="K61" t="n">
+        <v>114.674566465959</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.915668307662904</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.711876365787809</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.1483666026396317</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8486365446270792</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>2138</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>250</v>
+      </c>
+      <c r="B62" t="n">
+        <v>281</v>
+      </c>
+      <c r="C62" t="n">
+        <v>347</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.425253461473507</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.842484980700521</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G62" t="n">
+        <v>97</v>
+      </c>
+      <c r="H62" t="n">
+        <v>232.4636886889053</v>
+      </c>
+      <c r="I62" t="n">
+        <v>31</v>
+      </c>
+      <c r="J62" t="n">
+        <v>66</v>
+      </c>
+      <c r="K62" t="n">
+        <v>222.5489192671281</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10.13093464881284</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7103544606804887</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3203675748824993</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9763004063229184</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>2139</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>347</v>
+      </c>
+      <c r="B63" t="n">
+        <v>368</v>
+      </c>
+      <c r="C63" t="n">
+        <v>395</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.881025727163728</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.298257246390741</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G63" t="n">
+        <v>48</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25.62874719889635</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>27</v>
+      </c>
+      <c r="K63" t="n">
+        <v>66.86430707347841</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.56354410818797</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6070042115328046</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.03262819145920545</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.970458081600284</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>2140</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>483</v>
+      </c>
+      <c r="B64" t="n">
+        <v>517</v>
+      </c>
+      <c r="C64" t="n">
+        <v>575</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.005964591119798</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.423196110346812</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G64" t="n">
+        <v>92</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31.69825305296325</v>
+      </c>
+      <c r="I64" t="n">
+        <v>34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>58</v>
+      </c>
+      <c r="K64" t="n">
+        <v>143.8161385163309</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.890796308013782</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8113396908348207</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2352758250277332</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.80822094535891</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>2141</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2927</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2946</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.202782577629416</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6200140968564303</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5827684807729862</v>
+      </c>
+      <c r="G65" t="n">
+        <v>71</v>
+      </c>
+      <c r="H65" t="n">
+        <v>54.37618248596891</v>
+      </c>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>52</v>
+      </c>
+      <c r="K65" t="n">
+        <v>59.49029559041517</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.557491971835651</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8042618194147183</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3264915175060185</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5916228685271886</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>2142</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.220007261564917</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.772105486171482</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.4479017753934351</v>
+      </c>
+      <c r="G66" t="n">
+        <v>70</v>
+      </c>
+      <c r="H66" t="n">
+        <v>54.07822288105672</v>
+      </c>
+      <c r="I66" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39</v>
+      </c>
+      <c r="K66" t="n">
+        <v>89.66503083674928</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.167533591283415</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7445344417315484</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.273201750979612</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9403179435851299</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>2143</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>842</v>
+      </c>
+      <c r="B67" t="n">
+        <v>894</v>
+      </c>
+      <c r="C67" t="n">
+        <v>993</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.525238761864322</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.074191832453078</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.4510469294112439</v>
+      </c>
+      <c r="G67" t="n">
+        <v>151</v>
+      </c>
+      <c r="H67" t="n">
+        <v>85.79901546845622</v>
+      </c>
+      <c r="I67" t="n">
+        <v>52</v>
+      </c>
+      <c r="J67" t="n">
+        <v>99</v>
+      </c>
+      <c r="K67" t="n">
+        <v>444.5339367523681</v>
+      </c>
+      <c r="L67" t="n">
+        <v>22.97282644755497</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.721245097777913</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.9950270709260093</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9045397144423633</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>2144</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9073411791370728</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4562942497258289</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4510469294112439</v>
+      </c>
+      <c r="G68" t="n">
+        <v>63</v>
+      </c>
+      <c r="H68" t="n">
+        <v>22.43967564640297</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>43</v>
+      </c>
+      <c r="K68" t="n">
+        <v>30.99981217043545</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.772541302812882</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8692946629128478</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3035003979334899</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.8579410702173129</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>2145</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>431</v>
+      </c>
+      <c r="B69" t="n">
+        <v>464</v>
+      </c>
+      <c r="C69" t="n">
+        <v>658</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.203830579270591</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.64000218013095</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5638283991396416</v>
+      </c>
+      <c r="G69" t="n">
+        <v>227</v>
+      </c>
+      <c r="H69" t="n">
+        <v>227.3724468742691</v>
+      </c>
+      <c r="I69" t="n">
+        <v>33</v>
+      </c>
+      <c r="J69" t="n">
+        <v>194</v>
+      </c>
+      <c r="K69" t="n">
+        <v>362.3011095554353</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.276948119914496</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8528032071282372</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.1701030927835052</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.3925655208885053</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9076666566420003</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>2146</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.946516483911092</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.382688084771451</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5638283991396416</v>
+      </c>
+      <c r="G70" t="n">
+        <v>155</v>
+      </c>
+      <c r="H70" t="n">
+        <v>76.35590122649774</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65</v>
+      </c>
+      <c r="J70" t="n">
+        <v>90</v>
+      </c>
+      <c r="K70" t="n">
+        <v>269.1263555423245</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.963830950869658</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6545492936451675</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2032850674235237</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8680709972758544</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>2147</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.64516994446435</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.153276348687282</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4918935957770684</v>
+      </c>
+      <c r="G71" t="n">
+        <v>104</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20.00487532608076</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>86</v>
+      </c>
+      <c r="K71" t="n">
+        <v>271.8325685248614</v>
+      </c>
+      <c r="L71" t="n">
+        <v>15.54933257026773</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8337870155051851</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2228952966218557</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8420660887462621</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>2148</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.845510065189353</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.382243217597062</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.4632668475922906</v>
+      </c>
+      <c r="G72" t="n">
+        <v>45</v>
+      </c>
+      <c r="H72" t="n">
+        <v>24.10809834462862</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" t="n">
+        <v>25</v>
+      </c>
+      <c r="K72" t="n">
+        <v>53.29400690543383</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.42986487991594</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7506654121259766</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.5738594510215148</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.8709370601831637</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>2149</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.145032778725418</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.681765931133128</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4632668475922906</v>
+      </c>
+      <c r="G73" t="n">
+        <v>64</v>
+      </c>
+      <c r="H73" t="n">
+        <v>16.65915431559529</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>50</v>
+      </c>
+      <c r="K73" t="n">
+        <v>96.6715888771827</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.148823380580852</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.841025921644898</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.164856160842473</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.7785655915368714</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>2150</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.784077728645471</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.32081088105318</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4632668475922906</v>
+      </c>
+      <c r="G74" t="n">
+        <v>84</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.90091098107382</v>
+      </c>
+      <c r="I74" t="n">
+        <v>37</v>
+      </c>
+      <c r="J74" t="n">
+        <v>47</v>
+      </c>
+      <c r="K74" t="n">
+        <v>81.69247995710452</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.282405944156086</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.5785645830373719</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2928524688420946</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9167855611517948</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>2151</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2297</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2432</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.554012194596705</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.090745347004414</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4632668475922906</v>
+      </c>
+      <c r="G75" t="n">
+        <v>162</v>
+      </c>
+      <c r="H75" t="n">
+        <v>68.32427028259508</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="n">
+        <v>135</v>
+      </c>
+      <c r="K75" t="n">
+        <v>160.841383019387</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.730168788377061</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7092540529359367</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2759247854655035</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.7032525595216543</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>2152</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.903816547313553</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.232035402161266</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6717811451522874</v>
+      </c>
+      <c r="G76" t="n">
+        <v>107</v>
+      </c>
+      <c r="H76" t="n">
+        <v>119.4029159731633</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30</v>
+      </c>
+      <c r="J76" t="n">
+        <v>77</v>
+      </c>
+      <c r="K76" t="n">
+        <v>156.7727293788914</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.079116514352052</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7119742566557202</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3896103896103896</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1680987976324622</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.8037288027334426</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>2153</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2076</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.450473897723793</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7786927525715052</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6717811451522874</v>
+      </c>
+      <c r="G77" t="n">
+        <v>66</v>
+      </c>
+      <c r="H77" t="n">
+        <v>55.49586176520711</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28</v>
+      </c>
+      <c r="J77" t="n">
+        <v>38</v>
+      </c>
+      <c r="K77" t="n">
+        <v>60.98083034567693</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.393415524989638</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7540920697047714</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3430582477178189</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9435856024131708</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>2154</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2428</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2511</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.800275828918337</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.128494683766049</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6717811451522874</v>
+      </c>
+      <c r="G78" t="n">
+        <v>126</v>
+      </c>
+      <c r="H78" t="n">
+        <v>28.72439627604535</v>
+      </c>
+      <c r="I78" t="n">
+        <v>43</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83</v>
+      </c>
+      <c r="K78" t="n">
+        <v>142.0584874243254</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.694112607051348</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7124380955050753</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.5180722891566265</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1834684911374021</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.6750377607472198</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>2155</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2511</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2709</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.822997624315558</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.151216479163271</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6717811451522874</v>
+      </c>
+      <c r="G79" t="n">
+        <v>198</v>
+      </c>
+      <c r="H79" t="n">
+        <v>90.98972319878339</v>
+      </c>
+      <c r="I79" t="n">
+        <v>47</v>
+      </c>
+      <c r="J79" t="n">
+        <v>151</v>
+      </c>
+      <c r="K79" t="n">
+        <v>336.0387093435495</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10.49698256403353</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.847151128804482</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3112582781456953</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1757268888229219</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9412334630681272</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>2156</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1257</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.081771824611193</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4862877495834366</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G80" t="n">
+        <v>73</v>
+      </c>
+      <c r="H80" t="n">
+        <v>21.61929071268742</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26</v>
+      </c>
+      <c r="J80" t="n">
+        <v>47</v>
+      </c>
+      <c r="K80" t="n">
+        <v>52.81316966033042</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.892201858279988</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8367445463657767</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.3001298667572286</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9838486072928816</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>2157</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1357</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.155459145819135</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.559975070791379</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G81" t="n">
+        <v>88</v>
+      </c>
+      <c r="H81" t="n">
+        <v>51.14067561737443</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26</v>
+      </c>
+      <c r="J81" t="n">
+        <v>62</v>
+      </c>
+      <c r="K81" t="n">
+        <v>143.3870718865295</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9.747842381098252</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7295669102834328</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.07082187240655469</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9069765061763996</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>2158</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1466</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.997760518244444</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.402276443216688</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G82" t="n">
+        <v>108</v>
+      </c>
+      <c r="H82" t="n">
+        <v>170.9986942471924</v>
+      </c>
+      <c r="I82" t="n">
+        <v>47</v>
+      </c>
+      <c r="J82" t="n">
+        <v>61</v>
+      </c>
+      <c r="K82" t="n">
+        <v>345.8710557066287</v>
+      </c>
+      <c r="L82" t="n">
+        <v>18.07946092822603</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.5882553999728544</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.7704918032786885</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.2407953884775926</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.6228476042089642</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>2159</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1601</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.585509068434825</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.990024993407069</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G83" t="n">
+        <v>74</v>
+      </c>
+      <c r="H83" t="n">
+        <v>31.4079592093824</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29</v>
+      </c>
+      <c r="J83" t="n">
+        <v>45</v>
+      </c>
+      <c r="K83" t="n">
+        <v>199.6917945564815</v>
+      </c>
+      <c r="L83" t="n">
+        <v>16.21509613062916</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.749784551707123</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1226346278374044</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9915431513265023</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>2160</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2199</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2230</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.397401327816503</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.801917252788746</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G84" t="n">
+        <v>53</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.94167428795572</v>
+      </c>
+      <c r="I84" t="n">
+        <v>22</v>
+      </c>
+      <c r="J84" t="n">
+        <v>31</v>
+      </c>
+      <c r="K84" t="n">
+        <v>91.53398513090256</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10.84200102475608</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.6526379947741701</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.03507687278786632</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9711107163053492</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>2161</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2362</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2389</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.138213191760868</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5427291167331113</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.5954840750277564</v>
+      </c>
+      <c r="G85" t="n">
+        <v>48</v>
+      </c>
+      <c r="H85" t="n">
+        <v>19.64144848645674</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="n">
+        <v>42.06196557570411</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.147452138395894</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.7468925586229788</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.174694514272009</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.8835465726640025</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>2162</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.775550790182437</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.236372305272184</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.5391784849102533</v>
+      </c>
+      <c r="G86" t="n">
+        <v>133</v>
+      </c>
+      <c r="H86" t="n">
+        <v>114.1047034673431</v>
+      </c>
+      <c r="I86" t="n">
+        <v>33</v>
+      </c>
+      <c r="J86" t="n">
+        <v>100</v>
+      </c>
+      <c r="K86" t="n">
+        <v>410.2194340008823</v>
+      </c>
+      <c r="L86" t="n">
+        <v>25.3045653077841</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8372859223730598</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.153311768830793</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.9595546074876148</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>2163</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2170</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.67066420234218</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.131485717431927</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.5391784849102533</v>
+      </c>
+      <c r="G87" t="n">
+        <v>128</v>
+      </c>
+      <c r="H87" t="n">
+        <v>40.62778570278078</v>
+      </c>
+      <c r="I87" t="n">
+        <v>32</v>
+      </c>
+      <c r="J87" t="n">
+        <v>96</v>
+      </c>
+      <c r="K87" t="n">
+        <v>148.2220789796875</v>
+      </c>
+      <c r="L87" t="n">
+        <v>14.15124656662842</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.931650124371233</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3615346266927591</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.960281782489901</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>2164</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2378</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.247537867496834</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.708359382586581</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.5391784849102533</v>
+      </c>
+      <c r="G88" t="n">
+        <v>152</v>
+      </c>
+      <c r="H88" t="n">
+        <v>169.4177145414419</v>
+      </c>
+      <c r="I88" t="n">
+        <v>47</v>
+      </c>
+      <c r="J88" t="n">
+        <v>105</v>
+      </c>
+      <c r="K88" t="n">
+        <v>318.9680861716958</v>
+      </c>
+      <c r="L88" t="n">
+        <v>17.20796985899844</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.7853173095056774</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.4476190476190476</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1685064648754695</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9381667505374532</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>2165</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>391</v>
+      </c>
+      <c r="B89" t="n">
+        <v>441</v>
+      </c>
+      <c r="C89" t="n">
+        <v>551</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.561781709842439</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.951428976422359</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.6103527334200799</v>
+      </c>
+      <c r="G89" t="n">
+        <v>160</v>
+      </c>
+      <c r="H89" t="n">
+        <v>107.761453218713</v>
+      </c>
+      <c r="I89" t="n">
+        <v>50</v>
+      </c>
+      <c r="J89" t="n">
+        <v>110</v>
+      </c>
+      <c r="K89" t="n">
+        <v>274.2778276835</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.169217967335584</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.6490712361274071</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.148074821913326</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.8860521945517807</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>2166</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.748497606024197</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.138144872604117</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.6103527334200799</v>
+      </c>
+      <c r="G90" t="n">
+        <v>61</v>
+      </c>
+      <c r="H90" t="n">
+        <v>23.32811164977238</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12</v>
+      </c>
+      <c r="J90" t="n">
+        <v>49</v>
+      </c>
+      <c r="K90" t="n">
+        <v>91.71418649646543</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.893219591970193</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.7239375130202444</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1044589315807568</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.3132767070265222</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>2167</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2290</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2313</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.388152848281893</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.777800114861813</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.6103527334200799</v>
+      </c>
+      <c r="G91" t="n">
+        <v>38</v>
+      </c>
+      <c r="H91" t="n">
+        <v>21.41650715461537</v>
+      </c>
+      <c r="I91" t="n">
+        <v>15</v>
+      </c>
+      <c r="J91" t="n">
+        <v>23</v>
+      </c>
+      <c r="K91" t="n">
+        <v>44.07897906578688</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3.884784680550594</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.6425248080291769</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0580004136552493</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9125202165980036</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>2168</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.242446628727367</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.632093895307287</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.6103527334200799</v>
+      </c>
+      <c r="G92" t="n">
+        <v>164</v>
+      </c>
+      <c r="H92" t="n">
+        <v>82.11567243962099</v>
+      </c>
+      <c r="I92" t="n">
+        <v>30</v>
+      </c>
+      <c r="J92" t="n">
+        <v>134</v>
+      </c>
+      <c r="K92" t="n">
+        <v>251.0607045801635</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9.074077833988694</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8968739508093629</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.2238805970149254</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.2648276823502572</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.8201387747518393</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>2169</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.136399680971116</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.621381612340346</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5150180686307698</v>
+      </c>
+      <c r="G93" t="n">
+        <v>131</v>
+      </c>
+      <c r="H93" t="n">
+        <v>78.29283666601282</v>
+      </c>
+      <c r="I93" t="n">
+        <v>33</v>
+      </c>
+      <c r="J93" t="n">
+        <v>98</v>
+      </c>
+      <c r="K93" t="n">
+        <v>298.0149727475351</v>
+      </c>
+      <c r="L93" t="n">
+        <v>21.00720837704197</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.9082813375622322</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.336734693877551</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.2152099511669086</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.95855708111703</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>2170</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2762</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2802</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.001183464174518</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4861653955437481</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.5150180686307698</v>
+      </c>
+      <c r="G94" t="n">
+        <v>40</v>
+      </c>
+      <c r="H94" t="n">
+        <v>21.74736932970109</v>
+      </c>
+      <c r="I94" t="n">
+        <v>17</v>
+      </c>
+      <c r="J94" t="n">
+        <v>23</v>
+      </c>
+      <c r="K94" t="n">
+        <v>22.03559317591739</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5.084631872572107</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.7274290412657632</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1779839464102694</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.8862494951849461</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>2171</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.497810819291134</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.085427444983541</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.4123833743075934</v>
+      </c>
+      <c r="G95" t="n">
+        <v>84</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22.72661180575778</v>
+      </c>
+      <c r="I95" t="n">
+        <v>19</v>
+      </c>
+      <c r="J95" t="n">
+        <v>65</v>
+      </c>
+      <c r="K95" t="n">
+        <v>75.06015602480007</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5.022345096073022</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.8645667141775469</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.3056018668005003</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.6646604166137142</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>2172</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.023393053606285</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.611009679298692</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.4123833743075934</v>
+      </c>
+      <c r="G96" t="n">
+        <v>39</v>
+      </c>
+      <c r="H96" t="n">
+        <v>13.61816476448348</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>30</v>
+      </c>
+      <c r="K96" t="n">
+        <v>92.61684209338756</v>
+      </c>
+      <c r="L96" t="n">
+        <v>10.13781118463753</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.9185880464385863</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.1669949006349426</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.9719044953899981</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>2173</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.606482469826822</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.252767889626699</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.3537145802001231</v>
+      </c>
+      <c r="G97" t="n">
+        <v>79</v>
+      </c>
+      <c r="H97" t="n">
+        <v>109.2033619558267</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>56</v>
+      </c>
+      <c r="K97" t="n">
+        <v>133.5490088139713</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.349322686223678</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.7719765259443482</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.4107142857142857</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.2020615997129256</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.6901334787864803</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>2174</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9987403823371568</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5048974747442357</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G98" t="n">
+        <v>86</v>
+      </c>
+      <c r="H98" t="n">
+        <v>45.96886661098529</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="n">
+        <v>59</v>
+      </c>
+      <c r="K98" t="n">
+        <v>51.66519547897918</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5.494418654569482</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8271751246230151</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.2718116441995995</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.7755153628307349</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>2175</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.258650856383565</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7648079487906441</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G99" t="n">
+        <v>58</v>
+      </c>
+      <c r="H99" t="n">
+        <v>28.48330069277858</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34</v>
+      </c>
+      <c r="K99" t="n">
+        <v>38.36387765445086</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.924276686119964</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.790686308216573</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.2168122813584886</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.9365895931035682</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>2176</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.012398786544987</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.518555878952067</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G100" t="n">
+        <v>81</v>
+      </c>
+      <c r="H100" t="n">
+        <v>45.8904425233427</v>
+      </c>
+      <c r="I100" t="n">
+        <v>35</v>
+      </c>
+      <c r="J100" t="n">
+        <v>46</v>
+      </c>
+      <c r="K100" t="n">
+        <v>187.0086208815642</v>
+      </c>
+      <c r="L100" t="n">
+        <v>22.07360304263983</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.7773863799864122</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4474548144182345</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.9760437495430953</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>2177</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.77568490890386</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.281842001310939</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G101" t="n">
+        <v>135</v>
+      </c>
+      <c r="H101" t="n">
+        <v>25.17465964337771</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>116</v>
+      </c>
+      <c r="K101" t="n">
+        <v>144.7087610981158</v>
+      </c>
+      <c r="L101" t="n">
+        <v>9.768661066140119</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.8232651093871325</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.1637931034482759</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.3779585360547333</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9030375826412256</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>2178</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.892655804329111</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.39881289673619</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G102" t="n">
+        <v>98</v>
+      </c>
+      <c r="H102" t="n">
+        <v>30.39782136784856</v>
+      </c>
+      <c r="I102" t="n">
+        <v>29</v>
+      </c>
+      <c r="J102" t="n">
         <v>69</v>
       </c>
-      <c r="J42" t="n">
-        <v>130</v>
-      </c>
-      <c r="K42" t="n">
-        <v>239.0497283009504</v>
-      </c>
-      <c r="L42" t="n">
-        <v>8.019505858437711</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>0.6183254237791681</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.5307692307692308</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.3559330876537703</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.7878003948838346</v>
-      </c>
-      <c r="T42" t="inlineStr">
+      <c r="K102" t="n">
+        <v>197.2086103416658</v>
+      </c>
+      <c r="L102" t="n">
+        <v>21.41485519697738</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.8849752901220427</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.4202898550724637</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.2428733270350615</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.9468947910958198</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>2179</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1516</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.102290721806395</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6084478142134736</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.493842907592921</v>
+      </c>
+      <c r="G103" t="n">
+        <v>29</v>
+      </c>
+      <c r="H103" t="n">
+        <v>15.85187600913605</v>
+      </c>
+      <c r="I103" t="n">
+        <v>11</v>
+      </c>
+      <c r="J103" t="n">
+        <v>18</v>
+      </c>
+      <c r="K103" t="n">
+        <v>28.05733261373269</v>
+      </c>
+      <c r="L103" t="n">
+        <v>6.064085133394923</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.6419768610953098</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.04382257830013532</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.9059425353472174</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>2180</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>843</v>
+      </c>
+      <c r="B104" t="n">
+        <v>859</v>
+      </c>
+      <c r="C104" t="n">
+        <v>905</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.791999305013371</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.353000301504183</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.4389990035091879</v>
+      </c>
+      <c r="G104" t="n">
+        <v>62</v>
+      </c>
+      <c r="H104" t="n">
+        <v>41.00990175751826</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16</v>
+      </c>
+      <c r="J104" t="n">
+        <v>46</v>
+      </c>
+      <c r="K104" t="n">
+        <v>94.56862269210659</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4.041083800841633</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.7129680929219561</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.0592181898944128</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.769108999475864</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>2181</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.754087154245101</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.315088150735913</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.4389990035091879</v>
+      </c>
+      <c r="G105" t="n">
+        <v>126</v>
+      </c>
+      <c r="H105" t="n">
+        <v>108.5573220159472</v>
+      </c>
+      <c r="I105" t="n">
+        <v>51</v>
+      </c>
+      <c r="J105" t="n">
+        <v>75</v>
+      </c>
+      <c r="K105" t="n">
+        <v>202.8459906891047</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6.210659208399006</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0.7533122644807133</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.2654385602855561</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.8827315193602115</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>2182</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1377</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.646614109486533</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.172317325906204</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.4742967835803288</v>
+      </c>
+      <c r="G106" t="n">
+        <v>103</v>
+      </c>
+      <c r="H106" t="n">
+        <v>38.36425936846103</v>
+      </c>
+      <c r="I106" t="n">
+        <v>28</v>
+      </c>
+      <c r="J106" t="n">
+        <v>75</v>
+      </c>
+      <c r="K106" t="n">
+        <v>159.5405428244421</v>
+      </c>
+      <c r="L106" t="n">
+        <v>8.980994385972936</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.8861720974430728</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1638396146258363</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.9559159490380307</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>2183</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>650</v>
+      </c>
+      <c r="B107" t="n">
+        <v>676</v>
+      </c>
+      <c r="C107" t="n">
+        <v>740</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.179507752369648</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.608599853363113</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.5709078990065356</v>
+      </c>
+      <c r="G107" t="n">
+        <v>90</v>
+      </c>
+      <c r="H107" t="n">
+        <v>32.41927472017892</v>
+      </c>
+      <c r="I107" t="n">
+        <v>26</v>
+      </c>
+      <c r="J107" t="n">
+        <v>64</v>
+      </c>
+      <c r="K107" t="n">
+        <v>91.33438202786721</v>
+      </c>
+      <c r="L107" t="n">
+        <v>6.024572296139829</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0.9121162778413687</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.3017507406004127</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.9343415445991486</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>2184</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.047791863235349</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.476883964228813</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.5709078990065356</v>
+      </c>
+      <c r="G108" t="n">
+        <v>87</v>
+      </c>
+      <c r="H108" t="n">
+        <v>42.15964137722244</v>
+      </c>
+      <c r="I108" t="n">
+        <v>18</v>
+      </c>
+      <c r="J108" t="n">
+        <v>69</v>
+      </c>
+      <c r="K108" t="n">
+        <v>143.5541954660806</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.660484627363626</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0.8321964053916161</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1314709592563155</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.7898666486086026</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U108" t="n">
+        <v>2185</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1405</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.157259922973076</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.586352023966541</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.5709078990065356</v>
+      </c>
+      <c r="G109" t="n">
+        <v>117</v>
+      </c>
+      <c r="H109" t="n">
+        <v>48.84752357304524</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25</v>
+      </c>
+      <c r="J109" t="n">
+        <v>92</v>
+      </c>
+      <c r="K109" t="n">
+        <v>167.5751534546801</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.963075081236094</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0.878426849296184</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.2717391304347826</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1775101031968613</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.7013396425779604</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>2186</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1606</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.575163977112521</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.004256078105985</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.5709078990065356</v>
+      </c>
+      <c r="G110" t="n">
+        <v>73</v>
+      </c>
+      <c r="H110" t="n">
+        <v>34.21458204833857</v>
+      </c>
+      <c r="I110" t="n">
+        <v>16</v>
+      </c>
+      <c r="J110" t="n">
+        <v>57</v>
+      </c>
+      <c r="K110" t="n">
+        <v>89.72312601171109</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4.354051619257584</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0.7888644117308423</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.08437665645859559</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.7254183911194123</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>2187</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.573739009380225</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.140967818284349</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.4327711910958759</v>
+      </c>
+      <c r="G111" t="n">
+        <v>71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>60.27956914506399</v>
+      </c>
+      <c r="I111" t="n">
+        <v>22</v>
+      </c>
+      <c r="J111" t="n">
+        <v>49</v>
+      </c>
+      <c r="K111" t="n">
+        <v>63.02363186896456</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3.998261890021412</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>0.7234966883760667</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.1183720759066943</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.8288088965373159</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>2188</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.813207933487565</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.380436742391689</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.4327711910958759</v>
+      </c>
+      <c r="G112" t="n">
+        <v>74</v>
+      </c>
+      <c r="H112" t="n">
+        <v>27.2667248275211</v>
+      </c>
+      <c r="I112" t="n">
+        <v>16</v>
+      </c>
+      <c r="J112" t="n">
+        <v>58</v>
+      </c>
+      <c r="K112" t="n">
+        <v>83.36183269592291</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4.606659767557583</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0.9119129800468437</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.2752075465422369</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.6428144164739237</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>2189</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2058</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.644587495856111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.211816304760235</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.4327711910958759</v>
+      </c>
+      <c r="G113" t="n">
+        <v>91</v>
+      </c>
+      <c r="H113" t="n">
+        <v>61.71728530619657</v>
+      </c>
+      <c r="I113" t="n">
+        <v>33</v>
+      </c>
+      <c r="J113" t="n">
+        <v>58</v>
+      </c>
+      <c r="K113" t="n">
+        <v>166.3744462823781</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6.718873546683472</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>0.5780174367698991</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.5689655172413793</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.1429561951891651</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.7752064555372051</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U113" t="n">
+        <v>2190</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2117</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.916153500795987</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.427902320597461</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.4882511801985254</v>
+      </c>
+      <c r="G114" t="n">
+        <v>157</v>
+      </c>
+      <c r="H114" t="n">
+        <v>173.619205170625</v>
+      </c>
+      <c r="I114" t="n">
+        <v>59</v>
+      </c>
+      <c r="J114" t="n">
+        <v>98</v>
+      </c>
+      <c r="K114" t="n">
+        <v>421.309066723157</v>
+      </c>
+      <c r="L114" t="n">
+        <v>15.26480182734137</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>0.6325433206724888</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.6020408163265306</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.3382919465566205</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.9005681965311223</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U114" t="n">
+        <v>2191</v>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1226</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.696063740452019</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.231312326201845</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.4647514142501731</v>
+      </c>
+      <c r="G115" t="n">
+        <v>25</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9.784494520000862</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9</v>
+      </c>
+      <c r="J115" t="n">
+        <v>16</v>
+      </c>
+      <c r="K115" t="n">
+        <v>32.89076819460016</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4.144201511834704</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0.7710407657152119</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1074534865169525</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.9868330526485073</v>
+      </c>
+      <c r="T115" t="inlineStr">
         <is>
           <t>n40</t>
         </is>
       </c>
-      <c r="U42" t="n">
-        <v>988</v>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
+      <c r="U115" t="n">
+        <v>2192</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.496399341256598</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.031647927006424</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.4647514142501731</v>
+      </c>
+      <c r="G116" t="n">
+        <v>74</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.23819168247678</v>
+      </c>
+      <c r="I116" t="n">
+        <v>21</v>
+      </c>
+      <c r="J116" t="n">
+        <v>53</v>
+      </c>
+      <c r="K116" t="n">
+        <v>67.87364192742471</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.656336884303248</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1272), 'value': np.float64(0.47969858377882846), 'amplitude': np.float64(0.9444499980290015), 'start_idx': np.int64(1262), 'end_idx': np.int64(1280), 'duration': np.float64(18.0), 'fwhm': np.float64(23.115594249477226), 'rise_time': np.float64(10.0), 'decay_time': np.float64(8.0), 'auc': np.float64(13.72809020759952)}]</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>0.7270212393905072</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.3962264150943396</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.3322230219069842</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.3606015142928043</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U116" t="n">
+        <v>2193</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1534</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.484758547608922</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.020007133358749</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.4647514142501731</v>
+      </c>
+      <c r="G117" t="n">
+        <v>234</v>
+      </c>
+      <c r="H117" t="n">
+        <v>55.88417227354603</v>
+      </c>
+      <c r="I117" t="n">
+        <v>32</v>
+      </c>
+      <c r="J117" t="n">
+        <v>202</v>
+      </c>
+      <c r="K117" t="n">
+        <v>259.9787116830986</v>
+      </c>
+      <c r="L117" t="n">
+        <v>6.07131671053869</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>0.8089873749414648</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.1584158415841584</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.2655818363377885</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.7301883969187918</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U117" t="n">
+        <v>2194</v>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>327</v>
+        <v>1185</v>
       </c>
       <c r="B2" t="n">
-        <v>364</v>
+        <v>1237</v>
       </c>
       <c r="C2" t="n">
-        <v>480</v>
+        <v>1371</v>
       </c>
       <c r="D2" t="n">
-        <v>2.086800189432307</v>
+        <v>2.031599939829392</v>
       </c>
       <c r="E2" t="n">
-        <v>1.531971737245388</v>
+        <v>1.469032089891952</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.554828452186919</v>
+        <v>-0.5625678499374394</v>
       </c>
       <c r="G2" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="H2" t="n">
-        <v>32.98912095343962</v>
+        <v>31.76984203180655</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="K2" t="n">
-        <v>177.2200638812365</v>
+        <v>143.9893578910138</v>
       </c>
       <c r="L2" t="n">
-        <v>3.94922971713776</v>
+        <v>3.853265856121773</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8521320672412822</v>
+        <v>0.656286245609932</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3189655172413793</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2310013853953451</v>
+        <v>0.2663654354909692</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8008972860711538</v>
+        <v>0.8136993462943665</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2079</v>
+        <v>1652</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1070</v>
+        <v>254</v>
       </c>
       <c r="B3" t="n">
-        <v>1105</v>
+        <v>286</v>
       </c>
       <c r="C3" t="n">
-        <v>1183</v>
+        <v>351</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07829814957316</v>
+        <v>2.565124391155705</v>
       </c>
       <c r="E3" t="n">
-        <v>1.523469697386241</v>
+        <v>1.867294621183443</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.554828452186919</v>
+        <v>-0.6978297699722614</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>49.90536280640617</v>
+        <v>29.47094207829821</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>123.461922089984</v>
+        <v>179.9448338976696</v>
       </c>
       <c r="L3" t="n">
-        <v>3.933139768211137</v>
+        <v>5.776352449691352</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8165695020197703</v>
+        <v>0.7576997384999432</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1341142438304096</v>
+        <v>0.6273113008894908</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9769472841792454</v>
+        <v>0.5116751382540868</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>2080</v>
+        <v>1653</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1183</v>
+        <v>351</v>
       </c>
       <c r="B4" t="n">
-        <v>1237</v>
+        <v>436</v>
       </c>
       <c r="C4" t="n">
-        <v>1371</v>
+        <v>609</v>
       </c>
       <c r="D4" t="n">
-        <v>2.047697664204815</v>
+        <v>2.742994173910291</v>
       </c>
       <c r="E4" t="n">
-        <v>1.492869212017895</v>
+        <v>2.04516440393803</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.554828452186919</v>
+        <v>-0.6978297699722614</v>
       </c>
       <c r="G4" t="n">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="H4" t="n">
-        <v>30.75627636057675</v>
+        <v>123.3844939336258</v>
       </c>
       <c r="I4" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J4" t="n">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="K4" t="n">
-        <v>143.6003278182097</v>
+        <v>421.6092327014584</v>
       </c>
       <c r="L4" t="n">
-        <v>3.87522893094579</v>
+        <v>6.176893865492875</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6500393640689669</v>
+        <v>0.6784669945411302</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4029850746268657</v>
+        <v>0.4913294797687861</v>
       </c>
       <c r="R4" t="n">
-        <v>0.273009065970107</v>
+        <v>0.3453225401574184</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8052913067834528</v>
+        <v>0.7281438662866688</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>2081</v>
+        <v>1654</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B5" t="n">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="C5" t="n">
-        <v>351</v>
+        <v>642</v>
       </c>
       <c r="D5" t="n">
-        <v>2.580323794303897</v>
+        <v>3.31877911100015</v>
       </c>
       <c r="E5" t="n">
-        <v>1.885746356784018</v>
+        <v>2.471104922570607</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6945774375198798</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>421</v>
       </c>
       <c r="H5" t="n">
-        <v>28.76091187936174</v>
+        <v>283.72996977641</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>179.4673242705981</v>
+        <v>618.7292565384205</v>
       </c>
       <c r="L5" t="n">
-        <v>5.810073818283446</v>
+        <v>11.4407613094189</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7489687252976832</v>
+        <v>0.6932660532075624</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6386275534248382</v>
+        <v>0.5825801195124948</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4886389161238384</v>
+        <v>0.9556343295755277</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>2082</v>
+        <v>1655</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>351</v>
+        <v>2366</v>
       </c>
       <c r="B6" t="n">
-        <v>436</v>
+        <v>2394</v>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>2484</v>
       </c>
       <c r="D6" t="n">
-        <v>2.76731151449746</v>
+        <v>1.626983951508795</v>
       </c>
       <c r="E6" t="n">
-        <v>2.072734076977581</v>
+        <v>0.7793097630792533</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6945774375198798</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G6" t="n">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="H6" t="n">
-        <v>121.9723901444833</v>
+        <v>60.67908796253232</v>
       </c>
       <c r="I6" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>421.1593929172886</v>
+        <v>148.7387648511213</v>
       </c>
       <c r="L6" t="n">
-        <v>6.231111077186923</v>
+        <v>5.608669459733282</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6723972913842802</v>
+        <v>0.9212969620668013</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4885057471264368</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3490183372484901</v>
+        <v>0.4861901160726786</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7247106059294164</v>
+        <v>0.8841376286825817</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>2083</v>
+        <v>1656</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>262</v>
+        <v>2708</v>
       </c>
       <c r="B7" t="n">
-        <v>347</v>
+        <v>2737</v>
       </c>
       <c r="C7" t="n">
-        <v>642</v>
+        <v>2865</v>
       </c>
       <c r="D7" t="n">
-        <v>3.345548401617386</v>
+        <v>2.805728319275008</v>
       </c>
       <c r="E7" t="n">
-        <v>2.49941287041545</v>
+        <v>1.958054130845466</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8461355312019361</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G7" t="n">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="H7" t="n">
-        <v>282.8785034218337</v>
+        <v>42.61190448209663</v>
       </c>
       <c r="I7" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="K7" t="n">
-        <v>529.0758884222499</v>
+        <v>295.7010421898184</v>
       </c>
       <c r="L7" t="n">
-        <v>11.49833898506723</v>
+        <v>9.672131505681579</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7880122600841983</v>
+        <v>0.8302120259382448</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.288135593220339</v>
+        <v>0.2265625</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6062287481313131</v>
+        <v>0.1649501466807419</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9508132596600071</v>
+        <v>0.8320388110428787</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2084</v>
+        <v>1657</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2366</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2394</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>2485</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
-        <v>1.625632106008934</v>
+        <v>2.878230857501778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7794965748069982</v>
+        <v>2.272282247754756</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8461355312019361</v>
+        <v>-0.6059486097470221</v>
       </c>
       <c r="G8" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H8" t="n">
-        <v>61.32749421091603</v>
+        <v>27.38149817685481</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="K8" t="n">
-        <v>149.7562198370703</v>
+        <v>149.5011481458317</v>
       </c>
       <c r="L8" t="n">
-        <v>5.587146493191641</v>
+        <v>6.769194586688646</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9200163658052347</v>
+        <v>0.7517547435239045</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4860807234962139</v>
+        <v>0.5125367428058236</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8710161611904146</v>
+        <v>0.559424296971562</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2085</v>
+        <v>1658</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2709</v>
+        <v>2541</v>
       </c>
       <c r="B9" t="n">
-        <v>2737</v>
+        <v>2585</v>
       </c>
       <c r="C9" t="n">
-        <v>2865</v>
+        <v>2641</v>
       </c>
       <c r="D9" t="n">
-        <v>2.828238954081805</v>
+        <v>1.951452480676061</v>
       </c>
       <c r="E9" t="n">
-        <v>1.982103422879869</v>
+        <v>1.345503870929039</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8461355312019361</v>
+        <v>-0.6059486097470221</v>
       </c>
       <c r="G9" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>42.3905541554891</v>
+        <v>65.5557289623971</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>293.8679869937575</v>
+        <v>129.9114777447005</v>
       </c>
       <c r="L9" t="n">
-        <v>9.720394482735017</v>
+        <v>4.589542056344366</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8333248203101337</v>
+        <v>0.660666723200413</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.21875</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R9" t="n">
-        <v>0.174156504640755</v>
+        <v>0.1450156183706548</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8251284809814978</v>
+        <v>0.8228898651755951</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2086</v>
+        <v>1659</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2865</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>2894</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>2942</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>1.801719931524483</v>
+        <v>2.162493531841156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9555844003225471</v>
+        <v>1.584914505015944</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8461355312019361</v>
+        <v>-0.5775790268252122</v>
       </c>
       <c r="G10" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
-        <v>33.53641302557844</v>
+        <v>27.36973017803567</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K10" t="n">
-        <v>117.068109956694</v>
+        <v>75.1263711891999</v>
       </c>
       <c r="L10" t="n">
-        <v>6.192343987253396</v>
+        <v>5.133925332971557</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.6893590702632277</v>
+        <v>0.7587513072493917</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.46875</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07508437982926026</v>
+        <v>0.1090976927937362</v>
       </c>
       <c r="S10" t="n">
-        <v>0.877339844899149</v>
+        <v>0.9727382718294949</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>2087</v>
+        <v>1660</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>2183</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>2215</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>2305</v>
       </c>
       <c r="D11" t="n">
-        <v>2.901191260625663</v>
+        <v>2.702815582024888</v>
       </c>
       <c r="E11" t="n">
-        <v>2.293145121707184</v>
+        <v>2.125236555199676</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6080461389184789</v>
+        <v>-0.5775790268252122</v>
       </c>
       <c r="G11" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11" t="n">
-        <v>27.9103395220919</v>
+        <v>45.51204888138955</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>149.7108386455542</v>
+        <v>175.6846835702573</v>
       </c>
       <c r="L11" t="n">
-        <v>6.811478418405183</v>
+        <v>6.416691279115044</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7449792427502301</v>
+        <v>0.8454300802886403</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1308411214953271</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5103392313207495</v>
+        <v>0.1494980911784519</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5118607176501413</v>
+        <v>0.7905795799733666</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>2088</v>
+        <v>1661</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="B12" t="n">
-        <v>148</v>
+        <v>668</v>
       </c>
       <c r="C12" t="n">
-        <v>183</v>
+        <v>719</v>
       </c>
       <c r="D12" t="n">
-        <v>1.896801975624204</v>
+        <v>2.094754125966929</v>
       </c>
       <c r="E12" t="n">
-        <v>1.288755836705726</v>
+        <v>1.337462070057641</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6080461389184789</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G12" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="H12" t="n">
-        <v>25.79447522192771</v>
+        <v>130.6782340386588</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K12" t="n">
-        <v>50.73416323727633</v>
+        <v>126.3590883753763</v>
       </c>
       <c r="L12" t="n">
-        <v>4.453351937288782</v>
+        <v>9.132795314018434</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8037290030882052</v>
+        <v>0.7513675072739343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2756261332143612</v>
+        <v>0.4564602305370219</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9595455298752785</v>
+        <v>0.9658157710731531</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>2089</v>
+        <v>1662</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2541</v>
+        <v>898</v>
       </c>
       <c r="B13" t="n">
-        <v>2585</v>
+        <v>978</v>
       </c>
       <c r="C13" t="n">
-        <v>2641</v>
+        <v>1133</v>
       </c>
       <c r="D13" t="n">
-        <v>1.959306405106039</v>
+        <v>2.386217123951576</v>
       </c>
       <c r="E13" t="n">
-        <v>1.35126026618756</v>
+        <v>1.628925068042288</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6080461389184789</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="H13" t="n">
-        <v>66.39530396497821</v>
+        <v>124.9624959986095</v>
       </c>
       <c r="I13" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K13" t="n">
-        <v>130.3511583131129</v>
+        <v>262.1277087003609</v>
       </c>
       <c r="L13" t="n">
-        <v>4.600101163459561</v>
+        <v>10.40352769697781</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.6568443147247969</v>
+        <v>0.7223348737814447</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1447743572273736</v>
+        <v>0.4910930793042526</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8098263418157678</v>
+        <v>0.9363883743265052</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2090</v>
+        <v>1663</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1861</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>1888</v>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>1966</v>
       </c>
       <c r="D14" t="n">
-        <v>2.169169633147571</v>
+        <v>2.78792768838703</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5920297636576</v>
+        <v>2.030635632477741</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5771398694899718</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
-        <v>27.78732820127085</v>
+        <v>20.54237929693545</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K14" t="n">
-        <v>75.15008522851295</v>
+        <v>192.8941918912656</v>
       </c>
       <c r="L14" t="n">
-        <v>5.144304922520982</v>
+        <v>12.15492196086276</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7602551851848262</v>
+        <v>0.8366326218449328</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.46875</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1120043926003038</v>
+        <v>0.3548623859871657</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9724352765524036</v>
+        <v>0.837720082182128</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2091</v>
+        <v>1664</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2032</v>
+        <v>1966</v>
       </c>
       <c r="B15" t="n">
-        <v>2054</v>
+        <v>2001</v>
       </c>
       <c r="C15" t="n">
-        <v>2084</v>
+        <v>2152</v>
       </c>
       <c r="D15" t="n">
-        <v>1.929048736537899</v>
+        <v>2.255562507715894</v>
       </c>
       <c r="E15" t="n">
-        <v>1.351908867047927</v>
+        <v>1.498270451806605</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5771398694899718</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G15" t="n">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="H15" t="n">
-        <v>24.32919568730563</v>
+        <v>40.05709823089501</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="K15" t="n">
-        <v>67.55092611347214</v>
+        <v>197.8216066274847</v>
       </c>
       <c r="L15" t="n">
-        <v>4.574845028028141</v>
+        <v>9.833894319904823</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7903124932814268</v>
+        <v>0.8746154074477246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4060525772807403</v>
+        <v>0.4412245370653076</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9276218521020803</v>
+        <v>0.925249518389461</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2092</v>
+        <v>1665</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2183</v>
+        <v>2382</v>
       </c>
       <c r="B16" t="n">
-        <v>2213</v>
+        <v>2446</v>
       </c>
       <c r="C16" t="n">
-        <v>2305</v>
+        <v>2531</v>
       </c>
       <c r="D16" t="n">
-        <v>2.696429333398602</v>
+        <v>2.468023084760832</v>
       </c>
       <c r="E16" t="n">
-        <v>2.11928946390863</v>
+        <v>1.710731028851543</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5771398694899718</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G16" t="n">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="H16" t="n">
-        <v>45.72693454267392</v>
+        <v>47.54064808427393</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J16" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K16" t="n">
-        <v>175.4928315674627</v>
+        <v>241.6895250384773</v>
       </c>
       <c r="L16" t="n">
-        <v>6.394730260401318</v>
+        <v>10.76018869421666</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8336179448796028</v>
+        <v>0.5326484259952603</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1199345364305952</v>
+        <v>0.1281487412868254</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7890361927815872</v>
+        <v>0.9449351849824289</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>2093</v>
+        <v>1666</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2939</v>
+        <v>2605</v>
       </c>
       <c r="B17" t="n">
-        <v>2957</v>
+        <v>2636</v>
       </c>
       <c r="C17" t="n">
-        <v>2998</v>
+        <v>2704</v>
       </c>
       <c r="D17" t="n">
-        <v>1.948666413193111</v>
+        <v>2.863103376351341</v>
       </c>
       <c r="E17" t="n">
-        <v>1.371526543703139</v>
+        <v>2.105811320442053</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5771398694899718</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H17" t="n">
-        <v>27.0618370147954</v>
+        <v>84.90955283174389</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>87.79812604400766</v>
+        <v>231.8337677225668</v>
       </c>
       <c r="L17" t="n">
-        <v>4.621369425679511</v>
+        <v>12.48267602147437</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8400018008920704</v>
+        <v>0.7039406853090113</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="R17" t="n">
-        <v>0.163042356517351</v>
+        <v>0.1159819560879055</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9667116651053306</v>
+        <v>0.7639616117912946</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2094</v>
+        <v>1667</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>632</v>
+        <v>2279</v>
       </c>
       <c r="B18" t="n">
-        <v>668</v>
+        <v>2331</v>
       </c>
       <c r="C18" t="n">
-        <v>720</v>
+        <v>2413</v>
       </c>
       <c r="D18" t="n">
-        <v>2.098089978044614</v>
+        <v>2.011514134020154</v>
       </c>
       <c r="E18" t="n">
-        <v>1.341132185748316</v>
+        <v>1.455952250984818</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.555561883035336</v>
       </c>
       <c r="G18" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="H18" t="n">
-        <v>130.900180903916</v>
+        <v>77.01513574548517</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J18" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>127.4764154559825</v>
+        <v>155.3763453411681</v>
       </c>
       <c r="L18" t="n">
-        <v>9.154152963800641</v>
+        <v>3.764535391017747</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7534305654951464</v>
+        <v>0.7954958230647502</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4546188591216496</v>
+        <v>0.3895901789739379</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9595161461674604</v>
+        <v>0.9228977884107287</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>2095</v>
+        <v>1668</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>899</v>
+        <v>506</v>
       </c>
       <c r="B19" t="n">
-        <v>978</v>
+        <v>547</v>
       </c>
       <c r="C19" t="n">
-        <v>1134</v>
+        <v>631</v>
       </c>
       <c r="D19" t="n">
-        <v>2.39853968172102</v>
+        <v>2.439875408652699</v>
       </c>
       <c r="E19" t="n">
-        <v>1.641581889424722</v>
+        <v>1.802764166935991</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G19" t="n">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="H19" t="n">
-        <v>125.26310434914</v>
+        <v>61.41815860532472</v>
       </c>
       <c r="I19" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="K19" t="n">
-        <v>262.0901818073626</v>
+        <v>171.8924799995518</v>
       </c>
       <c r="L19" t="n">
-        <v>10.46504171221633</v>
+        <v>5.503878616476888</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7250711258479836</v>
+        <v>0.8452011944434168</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5064102564102564</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4994856965567393</v>
+        <v>0.2021965955796134</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9410245440459922</v>
+        <v>0.9486047252092447</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2096</v>
+        <v>1669</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1861</v>
+        <v>631</v>
       </c>
       <c r="B20" t="n">
-        <v>1889</v>
+        <v>687</v>
       </c>
       <c r="C20" t="n">
-        <v>1967</v>
+        <v>894</v>
       </c>
       <c r="D20" t="n">
-        <v>2.794841363520158</v>
+        <v>2.54624813483434</v>
       </c>
       <c r="E20" t="n">
-        <v>2.037883571223861</v>
+        <v>1.909136893117633</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G20" t="n">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="H20" t="n">
-        <v>20.46470459628608</v>
+        <v>138.9080654061148</v>
       </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="K20" t="n">
-        <v>193.9420731802978</v>
+        <v>388.0575189305479</v>
       </c>
       <c r="L20" t="n">
-        <v>12.19414115645552</v>
+        <v>5.743834546575294</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8255236638327896</v>
+        <v>0.8537090753985463</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.358974358974359</v>
+        <v>0.2705314009661836</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3648720993223452</v>
+        <v>0.2318151696174269</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8210999688048313</v>
+        <v>0.8107775027397026</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2097</v>
+        <v>1670</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1967</v>
+        <v>1031</v>
       </c>
       <c r="B21" t="n">
-        <v>2000</v>
+        <v>1096</v>
       </c>
       <c r="C21" t="n">
-        <v>2152</v>
+        <v>1225</v>
       </c>
       <c r="D21" t="n">
-        <v>2.274878674361918</v>
+        <v>2.767315699356893</v>
       </c>
       <c r="E21" t="n">
-        <v>1.517920882065621</v>
+        <v>2.130204457640185</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G21" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H21" t="n">
-        <v>38.74478758874534</v>
+        <v>247.7688399609642</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J21" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="K21" t="n">
-        <v>196.6453174642996</v>
+        <v>340.772819122228</v>
       </c>
       <c r="L21" t="n">
-        <v>9.925497751342967</v>
+        <v>6.242519453541171</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8642551013717951</v>
+        <v>0.7021887749027371</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2171052631578947</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4369992177108091</v>
+        <v>0.3645884858088337</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9251355534929132</v>
+        <v>0.8863570208657645</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>2098</v>
+        <v>1671</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2382</v>
+        <v>1800</v>
       </c>
       <c r="B22" t="n">
-        <v>2445</v>
+        <v>1831</v>
       </c>
       <c r="C22" t="n">
-        <v>2531</v>
+        <v>1933</v>
       </c>
       <c r="D22" t="n">
-        <v>2.482494465922434</v>
+        <v>2.842916495456862</v>
       </c>
       <c r="E22" t="n">
-        <v>1.725536673626136</v>
+        <v>2.205805253740154</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G22" t="n">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H22" t="n">
-        <v>47.64915697048082</v>
+        <v>135.7722493454737</v>
       </c>
       <c r="I22" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J22" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K22" t="n">
-        <v>241.7317694673341</v>
+        <v>225.2594908834185</v>
       </c>
       <c r="L22" t="n">
-        <v>10.83134389404119</v>
+        <v>6.413059967031169</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.5412456410447604</v>
+        <v>0.9052844383579619</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1326528113991169</v>
+        <v>0.2889123330118719</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9432193918002637</v>
+        <v>0.9570257248253653</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>2099</v>
+        <v>1672</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2605</v>
+        <v>674</v>
       </c>
       <c r="B23" t="n">
-        <v>2636</v>
+        <v>690</v>
       </c>
       <c r="C23" t="n">
-        <v>2704</v>
+        <v>764</v>
       </c>
       <c r="D23" t="n">
-        <v>2.88500785500515</v>
+        <v>1.853383450828162</v>
       </c>
       <c r="E23" t="n">
-        <v>2.128050062708852</v>
+        <v>1.348810707999719</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7569577922962974</v>
+        <v>-0.5045727428284431</v>
       </c>
       <c r="G23" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H23" t="n">
-        <v>84.46882275095686</v>
+        <v>22.29520382698252</v>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K23" t="n">
-        <v>231.7801548797624</v>
+        <v>105.83535520404</v>
       </c>
       <c r="L23" t="n">
-        <v>12.58754556899272</v>
+        <v>3.935572174596895</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(742), 'value': np.float64(0.9441126827284602), 'amplitude': np.float64(1.4486854255569033), 'start_idx': np.int64(738), 'end_idx': np.int64(763), 'duration': np.float64(25.0), 'fwhm': np.float64(22.552886260600417), 'rise_time': np.float64(4.0), 'decay_time': np.float64(21.0), 'auc': np.float64(24.18137427060929)}]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7087076653658857</v>
+        <v>0.7613290814138909</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1230379822150869</v>
+        <v>0.2584570542547799</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7555937389447872</v>
+        <v>0.3703756461733808</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>2100</v>
+        <v>1673</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2279</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>2330</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>2414</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>2.026985372501962</v>
+        <v>3.969265087309546</v>
       </c>
       <c r="E24" t="n">
-        <v>1.466879414039745</v>
+        <v>3.418259088692626</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5601059584622172</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G24" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>76.94710677331796</v>
+        <v>112.936191757686</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>156.2490688172153</v>
+        <v>157.1602338986017</v>
       </c>
       <c r="L24" t="n">
-        <v>3.802254985033382</v>
+        <v>14.82974756248723</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.802580992417238</v>
+        <v>0.7153584076456888</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3841594910945037</v>
+        <v>0.2078721792812474</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9175173711476341</v>
+        <v>0.9067244111730958</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>2101</v>
+        <v>1674</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>506</v>
+        <v>963</v>
       </c>
       <c r="B25" t="n">
-        <v>547</v>
+        <v>1076</v>
       </c>
       <c r="C25" t="n">
-        <v>632</v>
+        <v>1255</v>
       </c>
       <c r="D25" t="n">
-        <v>2.455280497510411</v>
+        <v>2.220543523685725</v>
       </c>
       <c r="E25" t="n">
-        <v>1.819941097823126</v>
+        <v>1.669537525068805</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6353393996872846</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G25" t="n">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="H25" t="n">
-        <v>61.25822078300803</v>
+        <v>82.36828848573941</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="J25" t="n">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="K25" t="n">
-        <v>172.2408542574376</v>
+        <v>295.2143080604648</v>
       </c>
       <c r="L25" t="n">
-        <v>5.542782588602684</v>
+        <v>8.296271270230509</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8470415814818621</v>
+        <v>0.7443830515973038</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4823529411764706</v>
+        <v>0.6312849162011173</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2009526887641656</v>
+        <v>0.2553242073507193</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9475676780001165</v>
+        <v>0.9217835026410355</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>2102</v>
+        <v>1675</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>632</v>
+        <v>1255</v>
       </c>
       <c r="B26" t="n">
-        <v>688</v>
+        <v>1340</v>
       </c>
       <c r="C26" t="n">
-        <v>894</v>
+        <v>1496</v>
       </c>
       <c r="D26" t="n">
-        <v>2.5779602733899</v>
+        <v>3.619792774170327</v>
       </c>
       <c r="E26" t="n">
-        <v>1.942620873702616</v>
+        <v>3.068786775553406</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6353393996872846</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G26" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H26" t="n">
-        <v>137.4849940240264</v>
+        <v>104.1161869428956</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J26" t="n">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="K26" t="n">
-        <v>387.14156159709</v>
+        <v>407.1303503503513</v>
       </c>
       <c r="L26" t="n">
-        <v>5.819731526374968</v>
+        <v>13.52406853376658</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8301933693364212</v>
+        <v>0.7338814590216104</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2718446601941747</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2403474571569359</v>
+        <v>0.2149800678981111</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8084278483890162</v>
+        <v>0.922157637536081</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>2103</v>
+        <v>1676</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>946</v>
+        <v>86</v>
       </c>
       <c r="B27" t="n">
-        <v>973</v>
+        <v>121</v>
       </c>
       <c r="C27" t="n">
-        <v>1031</v>
+        <v>165</v>
       </c>
       <c r="D27" t="n">
-        <v>2.519573765524781</v>
+        <v>3.764116510360032</v>
       </c>
       <c r="E27" t="n">
-        <v>1.884234365837496</v>
+        <v>3.261158120071443</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6353393996872846</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G27" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>22.39434665525039</v>
+        <v>31.10491085891734</v>
       </c>
       <c r="I27" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J27" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K27" t="n">
-        <v>159.5696810444513</v>
+        <v>229.0285705050167</v>
       </c>
       <c r="L27" t="n">
-        <v>5.687924297208181</v>
+        <v>18.59089134953652</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6893144961410941</v>
+        <v>0.6729081011415606</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1475832625681687</v>
+        <v>0.236356300536905</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5474528882655781</v>
+        <v>0.9676917881450167</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>2104</v>
+        <v>1677</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1031</v>
+        <v>2062</v>
       </c>
       <c r="B28" t="n">
-        <v>1096</v>
+        <v>2094</v>
       </c>
       <c r="C28" t="n">
-        <v>1225</v>
+        <v>2179</v>
       </c>
       <c r="D28" t="n">
-        <v>2.785942218518548</v>
+        <v>1.685505898569871</v>
       </c>
       <c r="E28" t="n">
-        <v>2.150602818831263</v>
+        <v>1.182547508281283</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6353393996872846</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G28" t="n">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="H28" t="n">
-        <v>247.4012565793761</v>
+        <v>67.49583323300976</v>
       </c>
       <c r="I28" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K28" t="n">
-        <v>340.5068393602528</v>
+        <v>95.56829069827987</v>
       </c>
       <c r="L28" t="n">
-        <v>6.289249654903131</v>
+        <v>8.32467776782984</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7020649998347233</v>
+        <v>0.8851723901160464</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5038759689922481</v>
+        <v>0.3764705882352941</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3645051827167962</v>
+        <v>0.262234032510669</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8856558057704152</v>
+        <v>0.9091571970697651</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>2105</v>
+        <v>1678</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1801</v>
+        <v>2911</v>
       </c>
       <c r="B29" t="n">
-        <v>1830</v>
+        <v>2925</v>
       </c>
       <c r="C29" t="n">
-        <v>1933</v>
+        <v>2998</v>
       </c>
       <c r="D29" t="n">
-        <v>2.848497889585401</v>
+        <v>0.9393580592214783</v>
       </c>
       <c r="E29" t="n">
-        <v>2.213158489898116</v>
+        <v>0.4363996689328901</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6353393996872846</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G29" t="n">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="H29" t="n">
-        <v>135.1831590431927</v>
+        <v>22.77216793255275</v>
       </c>
       <c r="I29" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="K29" t="n">
-        <v>223.5184374099692</v>
+        <v>50.11509621986745</v>
       </c>
       <c r="L29" t="n">
-        <v>6.430468747694886</v>
+        <v>4.639469466269959</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9172680153719294</v>
+        <v>0.8677262795093758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2815533980582524</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2839963628997513</v>
+        <v>0.284448839115896</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9563976971835266</v>
+        <v>0.8745297351341554</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>2106</v>
+        <v>1679</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2245</v>
+        <v>256</v>
       </c>
       <c r="B30" t="n">
-        <v>2273</v>
+        <v>296</v>
       </c>
       <c r="C30" t="n">
-        <v>2352</v>
+        <v>350</v>
       </c>
       <c r="D30" t="n">
-        <v>1.005659129151889</v>
+        <v>2.858395109363791</v>
       </c>
       <c r="E30" t="n">
-        <v>0.557866592309357</v>
+        <v>2.200751977246922</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4477925368425319</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G30" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H30" t="n">
-        <v>55.05238828136726</v>
+        <v>49.9872821942111</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K30" t="n">
-        <v>61.30540742083389</v>
+        <v>226.9029256275016</v>
       </c>
       <c r="L30" t="n">
-        <v>5.23111887605448</v>
+        <v>9.858786233646365</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8737084303122566</v>
+        <v>0.5868539478882827</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3544303797468354</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2776708242382556</v>
+        <v>0.1155654152507736</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7673039501662601</v>
+        <v>0.8847941876685436</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>2107</v>
+        <v>1680</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2762</v>
+        <v>350</v>
       </c>
       <c r="B31" t="n">
-        <v>2783</v>
+        <v>382</v>
       </c>
       <c r="C31" t="n">
-        <v>2818</v>
+        <v>478</v>
       </c>
       <c r="D31" t="n">
-        <v>1.026635320231178</v>
+        <v>2.663481309339887</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5788427833886466</v>
+        <v>2.005838177223018</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4477925368425319</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G31" t="n">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="H31" t="n">
-        <v>22.20039282671269</v>
+        <v>49.85852510900071</v>
       </c>
       <c r="I31" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="K31" t="n">
-        <v>29.69522858297278</v>
+        <v>244.3271965677432</v>
       </c>
       <c r="L31" t="n">
-        <v>5.340230349238377</v>
+        <v>9.186516160790317</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8440867741717728</v>
+        <v>0.8402641580437811</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2940199043121894</v>
+        <v>0.09547631616894366</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9153973868965573</v>
+        <v>0.9268498099884983</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>2108</v>
+        <v>1681</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B32" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C32" t="n">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32" t="n">
-        <v>3.559421791832682</v>
+        <v>1.491821954488696</v>
       </c>
       <c r="E32" t="n">
-        <v>3.053776737203287</v>
+        <v>0.8341788223718276</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5056450546293947</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G32" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="H32" t="n">
-        <v>56.11443489794641</v>
+        <v>20.16468317384778</v>
       </c>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="K32" t="n">
-        <v>187.0963432623263</v>
+        <v>54.53869666132923</v>
       </c>
       <c r="L32" t="n">
-        <v>7.545303704169836</v>
+        <v>5.145388648260778</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7812690557496502</v>
+        <v>0.7766880229701415</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1584263609612853</v>
+        <v>0.08848847656339963</v>
       </c>
       <c r="S32" t="n">
-        <v>0.979186618318089</v>
+        <v>0.7339005278284083</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>2109</v>
+        <v>1682</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>674</v>
+        <v>1022</v>
       </c>
       <c r="B33" t="n">
-        <v>691</v>
+        <v>1042</v>
       </c>
       <c r="C33" t="n">
-        <v>764</v>
+        <v>1217</v>
       </c>
       <c r="D33" t="n">
-        <v>1.895337250671151</v>
+        <v>1.827691581359484</v>
       </c>
       <c r="E33" t="n">
-        <v>1.389692196041756</v>
+        <v>1.170048449242616</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5056450546293947</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G33" t="n">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="H33" t="n">
-        <v>21.6641935614424</v>
+        <v>15.37909927289525</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="K33" t="n">
-        <v>105.968844944667</v>
+        <v>146.9145075949202</v>
       </c>
       <c r="L33" t="n">
-        <v>4.017757943426209</v>
+        <v>6.303824318279354</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3268,28 +3268,28 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(742), 'value': np.float64(0.9767585261710134), 'amplitude': np.float64(1.4824035808004081), 'start_idx': np.int64(735), 'end_idx': np.int64(763), 'duration': np.float64(28.0), 'fwhm': np.float64(22.568924717765753), 'rise_time': np.float64(7.0), 'decay_time': np.float64(21.0), 'auc': np.float64(28.61549034319704)}]</t>
+          <t>[{'index': np.int64(1110), 'value': np.float64(0.3249952152838888), 'amplitude': np.float64(0.9826383474007574), 'start_idx': np.int64(1099), 'end_idx': np.int64(1113), 'duration': np.float64(14.0), 'fwhm': np.float64(85.38785607844216), 'rise_time': np.float64(11.0), 'decay_time': np.float64(3.0), 'auc': np.float64(12.553976627928408)}]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7616334503998954</v>
+        <v>0.6268829317201016</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2328767123287671</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2728563823350691</v>
+        <v>0.5473409104318145</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3502493674265965</v>
+        <v>0.2501357831423251</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>2110</v>
+        <v>1683</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1249</v>
+        <v>1421</v>
       </c>
       <c r="B34" t="n">
-        <v>1275</v>
+        <v>1459</v>
       </c>
       <c r="C34" t="n">
-        <v>1350</v>
+        <v>1535</v>
       </c>
       <c r="D34" t="n">
-        <v>2.060579427696906</v>
+        <v>2.886982616799114</v>
       </c>
       <c r="E34" t="n">
-        <v>1.554934373067511</v>
+        <v>2.229339484682245</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5056450546293947</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G34" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H34" t="n">
-        <v>126.8962467731933</v>
+        <v>148.1245041777454</v>
       </c>
       <c r="I34" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J34" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K34" t="n">
-        <v>106.4455347485582</v>
+        <v>211.9688930290862</v>
       </c>
       <c r="L34" t="n">
-        <v>4.368040231762586</v>
+        <v>9.957386362031119</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8854619817689999</v>
+        <v>0.8007425862917832</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4480050433252984</v>
+        <v>0.3799122875327303</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9893952518011175</v>
+        <v>0.9016138416985215</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>2111</v>
+        <v>1684</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>1.302767816969651</v>
+        <v>1.219563910145253</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7482080549701539</v>
+        <v>0.6880959135164362</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.554559761999497</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G35" t="n">
         <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>22.38348125390729</v>
+        <v>20.36115035808934</v>
       </c>
       <c r="I35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>42.74953690556334</v>
+        <v>38.6911498636556</v>
       </c>
       <c r="L35" t="n">
-        <v>4.861908986428413</v>
+        <v>4.717874964158657</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8106099684341825</v>
+        <v>0.8003727812940333</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2813056057458972</v>
+        <v>0.2421884171818693</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9871792602499564</v>
+        <v>0.9435853759883135</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>2112</v>
+        <v>1685</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>962</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>1075</v>
+        <v>90</v>
       </c>
       <c r="C36" t="n">
-        <v>1256</v>
+        <v>147</v>
       </c>
       <c r="D36" t="n">
-        <v>2.215951009720291</v>
+        <v>3.591629800911818</v>
       </c>
       <c r="E36" t="n">
-        <v>1.661391247720794</v>
+        <v>3.060161804283002</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.554559761999497</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G36" t="n">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="H36" t="n">
-        <v>83.13646705146516</v>
+        <v>38.72342380788592</v>
       </c>
       <c r="I36" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="J36" t="n">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="K36" t="n">
-        <v>296.6264750284794</v>
+        <v>181.9120529298611</v>
       </c>
       <c r="L36" t="n">
-        <v>8.269894287613635</v>
+        <v>13.89419625924306</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7704269074589415</v>
+        <v>0.775351898777315</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6243093922651933</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="R36" t="n">
-        <v>0.257381508582856</v>
+        <v>0.14392531656706</v>
       </c>
       <c r="S36" t="n">
-        <v>0.920289783950194</v>
+        <v>0.976091201812836</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>2113</v>
+        <v>1686</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1256</v>
+        <v>257</v>
       </c>
       <c r="B37" t="n">
-        <v>1340</v>
+        <v>285</v>
       </c>
       <c r="C37" t="n">
-        <v>1496</v>
+        <v>337</v>
       </c>
       <c r="D37" t="n">
-        <v>3.662281527705293</v>
+        <v>4.34425960930284</v>
       </c>
       <c r="E37" t="n">
-        <v>3.107721765705796</v>
+        <v>3.812791612674023</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.554559761999497</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G37" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
-        <v>102.9733866356253</v>
+        <v>58.07508092777937</v>
       </c>
       <c r="I37" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="K37" t="n">
-        <v>407.7327398661413</v>
+        <v>213.2121900439572</v>
       </c>
       <c r="L37" t="n">
-        <v>13.66757701445118</v>
+        <v>16.80573972223765</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.755161132717134</v>
+        <v>0.71843310395011</v>
       </c>
       <c r="Q37" t="n">
         <v>0.5384615384615384</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2193823487040818</v>
+        <v>0.1099115777656333</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9193816217067703</v>
+        <v>0.9590291470943585</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>2114</v>
+        <v>1687</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="B38" t="n">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="C38" t="n">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="D38" t="n">
-        <v>3.834716274159117</v>
+        <v>1.39282582101496</v>
       </c>
       <c r="E38" t="n">
-        <v>3.328501478001922</v>
+        <v>0.8613578243861438</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5062147961571947</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G38" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H38" t="n">
-        <v>26.27224505784341</v>
+        <v>19.48929319233537</v>
       </c>
       <c r="I38" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K38" t="n">
-        <v>229.5545143416699</v>
+        <v>63.82087688411286</v>
       </c>
       <c r="L38" t="n">
-        <v>18.71965592612904</v>
+        <v>5.388137526648822</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.699651802118884</v>
+        <v>0.792163363819586</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2326574868610956</v>
+        <v>0.2932230100607816</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9791824906014784</v>
+        <v>0.9811442680272917</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>2115</v>
+        <v>1688</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2062</v>
+        <v>406</v>
       </c>
       <c r="B39" t="n">
-        <v>2094</v>
+        <v>457</v>
       </c>
       <c r="C39" t="n">
-        <v>2180</v>
+        <v>541</v>
       </c>
       <c r="D39" t="n">
-        <v>1.697580117886737</v>
+        <v>2.249201644367131</v>
       </c>
       <c r="E39" t="n">
-        <v>1.191365321729542</v>
+        <v>1.717733647738314</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5062147961571947</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G39" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="H39" t="n">
-        <v>66.68180883660625</v>
+        <v>81.26424488109319</v>
       </c>
       <c r="I39" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J39" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" t="n">
-        <v>96.24837518335696</v>
+        <v>183.4111537313464</v>
       </c>
       <c r="L39" t="n">
-        <v>8.286953568904037</v>
+        <v>8.701021766083848</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8879946595507311</v>
+        <v>0.6405673363560775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2684789101819674</v>
+        <v>0.4910289252496242</v>
       </c>
       <c r="S39" t="n">
-        <v>0.905768100471214</v>
+        <v>0.562357520815872</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>2116</v>
+        <v>1689</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2912</v>
+        <v>1287</v>
       </c>
       <c r="B40" t="n">
-        <v>2925</v>
+        <v>1314</v>
       </c>
       <c r="C40" t="n">
-        <v>2998</v>
+        <v>1361</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9663678262565223</v>
+        <v>3.706985010459216</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4601530300993276</v>
+        <v>3.175517013830399</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5062147961571947</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G40" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H40" t="n">
-        <v>21.92351801323503</v>
+        <v>47.2927060913994</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J40" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="K40" t="n">
-        <v>49.62800055821879</v>
+        <v>146.0210553843788</v>
       </c>
       <c r="L40" t="n">
-        <v>4.71744763165566</v>
+        <v>14.34044712857562</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8481222617869363</v>
+        <v>0.8161208917450975</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2819570994118069</v>
+        <v>0.225133007614346</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8302553472090765</v>
+        <v>0.9694255969258897</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>2117</v>
+        <v>1690</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B41" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C41" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D41" t="n">
-        <v>2.848933108718284</v>
+        <v>3.932039702465244</v>
       </c>
       <c r="E41" t="n">
-        <v>2.189957536405276</v>
+        <v>3.304110835515995</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6589755723130074</v>
+        <v>-0.6279288669492494</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81280632505036</v>
+        <v>249.545996685854</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J41" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K41" t="n">
-        <v>227.0474776868992</v>
+        <v>248.5559108165131</v>
       </c>
       <c r="L41" t="n">
-        <v>9.753114409675076</v>
+        <v>17.51090017981524</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7376548377081407</v>
+        <v>0.7069099133850633</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3623188405797101</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06704273959249231</v>
+        <v>0.1746987258942367</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8018876007160288</v>
+        <v>0.9317477466854359</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>2118</v>
+        <v>1691</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B42" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C42" t="n">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="D42" t="n">
-        <v>2.621448567793693</v>
+        <v>1.971370295141194</v>
       </c>
       <c r="E42" t="n">
-        <v>1.962472995480685</v>
+        <v>1.343441428191944</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6589755723130074</v>
+        <v>-0.6279288669492494</v>
       </c>
       <c r="G42" t="n">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H42" t="n">
-        <v>49.34211776708435</v>
+        <v>21.70444162642082</v>
       </c>
       <c r="I42" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K42" t="n">
-        <v>244.3820517683113</v>
+        <v>97.93297408640865</v>
       </c>
       <c r="L42" t="n">
-        <v>8.97433769944613</v>
+        <v>8.779277694990538</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8401595606530436</v>
+        <v>0.8550588127987516</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09595597575091504</v>
+        <v>0.3943175014013402</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9165300354943794</v>
+        <v>0.7607251604198526</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>2119</v>
+        <v>1692</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="B43" t="n">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="C43" t="n">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="D43" t="n">
-        <v>1.502770226124577</v>
+        <v>1.425086589464224</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8437946538115694</v>
+        <v>0.7971577225149751</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6589755723130074</v>
+        <v>-0.6279288669492494</v>
       </c>
       <c r="G43" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="H43" t="n">
-        <v>19.18241504860094</v>
+        <v>42.46004675143786</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J43" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K43" t="n">
-        <v>54.72955640692236</v>
+        <v>120.2622302492802</v>
       </c>
       <c r="L43" t="n">
-        <v>5.144624105772786</v>
+        <v>6.346464151940224</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7668152614248027</v>
+        <v>0.8690808446352113</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09091254554280742</v>
+        <v>0.1318675402428822</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7400301853924258</v>
+        <v>0.8697663365678432</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>2120</v>
+        <v>1693</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1069</v>
+        <v>1317</v>
       </c>
       <c r="B44" t="n">
-        <v>1115</v>
+        <v>1345</v>
       </c>
       <c r="C44" t="n">
-        <v>1217</v>
+        <v>1380</v>
       </c>
       <c r="D44" t="n">
-        <v>1.010515477825106</v>
+        <v>1.296415185987347</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3515399055120986</v>
+        <v>0.6684863190380972</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6589755723130074</v>
+        <v>-0.6279288669492494</v>
       </c>
       <c r="G44" t="n">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="H44" t="n">
-        <v>85.54365789925282</v>
+        <v>99.21146957840438</v>
       </c>
       <c r="I44" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J44" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="K44" t="n">
-        <v>90.365857307639</v>
+        <v>57.86279106839006</v>
       </c>
       <c r="L44" t="n">
-        <v>3.459425929592899</v>
+        <v>5.773440410377366</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7293543630752914</v>
+        <v>0.7141140438980346</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4509803921568628</v>
+        <v>0.8</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1576830851792297</v>
+        <v>0.262392776089849</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8059071237951774</v>
+        <v>0.8930815365614578</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>2121</v>
+        <v>1694</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1422</v>
+        <v>123</v>
       </c>
       <c r="B45" t="n">
-        <v>1459</v>
+        <v>139</v>
       </c>
       <c r="C45" t="n">
-        <v>1535</v>
+        <v>225</v>
       </c>
       <c r="D45" t="n">
-        <v>2.891890470828515</v>
+        <v>3.001398499234824</v>
       </c>
       <c r="E45" t="n">
-        <v>2.232914898515507</v>
+        <v>2.486021728198069</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6589755723130074</v>
+        <v>-0.5153767710367556</v>
       </c>
       <c r="G45" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H45" t="n">
-        <v>147.0404578593746</v>
+        <v>14.35417580950514</v>
       </c>
       <c r="I45" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J45" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K45" t="n">
-        <v>210.0181427322414</v>
+        <v>210.433918309078</v>
       </c>
       <c r="L45" t="n">
-        <v>9.900175801224355</v>
+        <v>6.940164012467961</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7664216542226066</v>
+        <v>0.8000333010702954</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3811687141209493</v>
+        <v>0.257326628217917</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8909621274816096</v>
+        <v>0.8379017111171488</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>2122</v>
+        <v>1695</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="D46" t="n">
-        <v>1.261409522002095</v>
+        <v>2.965331610896524</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7295824124142121</v>
+        <v>2.386243101243013</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.5790885096535117</v>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H46" t="n">
-        <v>17.45325810018073</v>
+        <v>61.5886276759604</v>
       </c>
       <c r="I46" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>38.74922065301207</v>
+        <v>147.0094155243438</v>
       </c>
       <c r="L46" t="n">
-        <v>4.829801208104028</v>
+        <v>8.832720945234033</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.803682828584019</v>
+        <v>0.6823808083457809</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2786476014061957</v>
+        <v>0.2549446043908235</v>
       </c>
       <c r="S46" t="n">
-        <v>0.866325094420799</v>
+        <v>0.9710639641154015</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>2123</v>
+        <v>1696</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="B47" t="n">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="C47" t="n">
-        <v>147</v>
+        <v>347</v>
       </c>
       <c r="D47" t="n">
-        <v>3.610066138789554</v>
+        <v>3.410944804516715</v>
       </c>
       <c r="E47" t="n">
-        <v>3.078239029201671</v>
+        <v>2.831856294863204</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.5790885096535117</v>
       </c>
       <c r="G47" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H47" t="n">
-        <v>38.44882463462771</v>
+        <v>232.4831754380059</v>
       </c>
       <c r="I47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K47" t="n">
-        <v>181.2492925718583</v>
+        <v>224.4527867617888</v>
       </c>
       <c r="L47" t="n">
-        <v>13.82255444749392</v>
+        <v>10.16005208563614</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7884290232134705</v>
+        <v>0.7524017353518875</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1548289620243899</v>
+        <v>0.3144665987524214</v>
       </c>
       <c r="S47" t="n">
-        <v>0.969556785690343</v>
+        <v>0.9842346579641246</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>2124</v>
+        <v>1697</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>258</v>
+        <v>480</v>
       </c>
       <c r="B48" t="n">
-        <v>285</v>
+        <v>517</v>
       </c>
       <c r="C48" t="n">
-        <v>339</v>
+        <v>575</v>
       </c>
       <c r="D48" t="n">
-        <v>4.387315820708689</v>
+        <v>3.024895629948827</v>
       </c>
       <c r="E48" t="n">
-        <v>3.855488711120806</v>
+        <v>2.445807120295315</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.5790885096535117</v>
       </c>
       <c r="G48" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H48" t="n">
-        <v>54.40822006150825</v>
+        <v>30.92388817619343</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J48" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K48" t="n">
-        <v>213.3302836983872</v>
+        <v>145.9800405758852</v>
       </c>
       <c r="L48" t="n">
-        <v>16.79855977110465</v>
+        <v>9.010142032552674</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7686824033281692</v>
+        <v>0.7750802245586228</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1447708566548825</v>
+        <v>0.2067787458583066</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9643624247430478</v>
+        <v>0.8071605064082965</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>2125</v>
+        <v>1698</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>339</v>
+        <v>2049</v>
       </c>
       <c r="B49" t="n">
-        <v>365</v>
+        <v>2097</v>
       </c>
       <c r="C49" t="n">
-        <v>406</v>
+        <v>2199</v>
       </c>
       <c r="D49" t="n">
-        <v>1.386809054225844</v>
+        <v>2.259606020517939</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8549819446379608</v>
+        <v>1.818679831068857</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.440926189449082</v>
       </c>
       <c r="G49" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H49" t="n">
-        <v>19.94695117989039</v>
+        <v>33.50334248845729</v>
       </c>
       <c r="I49" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J49" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="K49" t="n">
-        <v>61.95409390439924</v>
+        <v>225.7469681954086</v>
       </c>
       <c r="L49" t="n">
-        <v>5.309942511674222</v>
+        <v>4.242728536859191</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.812930031010385</v>
+        <v>0.668350709676283</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3011692895796028</v>
+        <v>0.4916341866903411</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9821997560767423</v>
+        <v>0.2556409447061795</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>2126</v>
+        <v>1699</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>475</v>
+        <v>842</v>
       </c>
       <c r="B50" t="n">
-        <v>493</v>
+        <v>894</v>
       </c>
       <c r="C50" t="n">
-        <v>540</v>
+        <v>992</v>
       </c>
       <c r="D50" t="n">
-        <v>1.894596659068988</v>
+        <v>5.501279038225475</v>
       </c>
       <c r="E50" t="n">
-        <v>1.362769549481105</v>
+        <v>5.045416530711924</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.4558625075135505</v>
       </c>
       <c r="G50" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="H50" t="n">
-        <v>10.32270030147851</v>
+        <v>85.51351865036338</v>
       </c>
       <c r="I50" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J50" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K50" t="n">
-        <v>92.95867842788581</v>
+        <v>444.1889537308926</v>
       </c>
       <c r="L50" t="n">
-        <v>7.25420656276452</v>
+        <v>23.08327741116186</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.6581666610740655</v>
+        <v>0.7323079484266649</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2546006111535585</v>
+        <v>1.009587888884577</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6961067888488665</v>
+        <v>0.9048218361889462</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>2127</v>
+        <v>1700</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,73 +4771,73 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>769</v>
+        <v>432</v>
       </c>
       <c r="B51" t="n">
-        <v>790</v>
+        <v>464</v>
       </c>
       <c r="C51" t="n">
-        <v>852</v>
+        <v>658</v>
       </c>
       <c r="D51" t="n">
-        <v>1.305810357759394</v>
+        <v>3.220707141899324</v>
       </c>
       <c r="E51" t="n">
-        <v>0.773983248171511</v>
+        <v>2.662212989383068</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.5584941525162563</v>
       </c>
       <c r="G51" t="n">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="H51" t="n">
-        <v>31.48300464820056</v>
+        <v>223.7471612776192</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J51" t="n">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="K51" t="n">
-        <v>50.87499676348022</v>
+        <v>359.6517443611033</v>
       </c>
       <c r="L51" t="n">
-        <v>4.999807226324869</v>
+        <v>7.323109052108926</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(831), 'value': np.float64(0.17507035909744814), 'amplitude': np.float64(0.706897468685331), 'start_idx': np.int64(811), 'end_idx': np.int64(851), 'duration': np.float64(40.0), 'fwhm': np.float64(18.936894480712112), 'rise_time': np.float64(20.0), 'decay_time': np.float64(20.0), 'auc': np.float64(18.187843128132222)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8550067351165511</v>
+        <v>0.8512184737350422</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3118062523641053</v>
+        <v>0.4006442850465007</v>
       </c>
       <c r="S51" t="n">
-        <v>0.492583077412009</v>
+        <v>0.9093837377215581</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>2128</v>
+        <v>1701</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1287</v>
+        <v>1902</v>
       </c>
       <c r="B52" t="n">
-        <v>1313</v>
+        <v>1920</v>
       </c>
       <c r="C52" t="n">
-        <v>1367</v>
+        <v>2004</v>
       </c>
       <c r="D52" t="n">
-        <v>3.772765470614062</v>
+        <v>3.651482497539912</v>
       </c>
       <c r="E52" t="n">
-        <v>3.240938361026179</v>
+        <v>3.15549275009162</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5318271095878828</v>
+        <v>-0.4959897474482922</v>
       </c>
       <c r="G52" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H52" t="n">
-        <v>45.86122377179549</v>
+        <v>18.50106351493582</v>
       </c>
       <c r="I52" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J52" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="K52" t="n">
-        <v>152.0385002434087</v>
+        <v>267.9153222608537</v>
       </c>
       <c r="L52" t="n">
-        <v>14.44551266661098</v>
+        <v>15.66594597576139</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.8521947024322751</v>
+        <v>0.8302990985491534</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2534988321767354</v>
+        <v>0.2293922421974759</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9559465711781341</v>
+        <v>0.8385898844039764</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>2129</v>
+        <v>1702</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>258</v>
+        <v>1030</v>
       </c>
       <c r="B53" t="n">
-        <v>294</v>
+        <v>1050</v>
       </c>
       <c r="C53" t="n">
-        <v>346</v>
+        <v>1094</v>
       </c>
       <c r="D53" t="n">
-        <v>3.925754370842171</v>
+        <v>1.804293478397057</v>
       </c>
       <c r="E53" t="n">
-        <v>3.298343523986523</v>
+        <v>1.345306794268373</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.627410846855648</v>
+        <v>-0.458986684128683</v>
       </c>
       <c r="G53" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H53" t="n">
-        <v>248.9331427226068</v>
+        <v>24.71552355753147</v>
       </c>
       <c r="I53" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K53" t="n">
-        <v>248.4999284951892</v>
+        <v>71.32705824855952</v>
       </c>
       <c r="L53" t="n">
-        <v>17.30864229833651</v>
+        <v>4.406099335286376</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.7056549846147038</v>
+        <v>0.8576925541817394</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1873325678125524</v>
+        <v>0.3094618168634281</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9105487438844654</v>
+        <v>0.7312880139115162</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>2130</v>
+        <v>1703</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>543</v>
+        <v>1201</v>
       </c>
       <c r="B54" t="n">
-        <v>578</v>
+        <v>1215</v>
       </c>
       <c r="C54" t="n">
-        <v>650</v>
+        <v>1264</v>
       </c>
       <c r="D54" t="n">
-        <v>1.411220767541759</v>
+        <v>2.027554109520533</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7838099206861114</v>
+        <v>1.56856742539185</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.627410846855648</v>
+        <v>-0.458986684128683</v>
       </c>
       <c r="G54" t="n">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="H54" t="n">
-        <v>44.28488253977889</v>
+        <v>15.21693764645374</v>
       </c>
       <c r="I54" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J54" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="K54" t="n">
-        <v>121.3889296428163</v>
+        <v>95.75617270858058</v>
       </c>
       <c r="L54" t="n">
-        <v>6.222069228473959</v>
+        <v>4.951303610625606</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.6599482870866593</v>
+        <v>0.8299956098825397</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1818624863352601</v>
+        <v>0.1692067886149167</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8002442032389669</v>
+        <v>0.768932072340253</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>2131</v>
+        <v>1704</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2796</v>
+        <v>1284</v>
       </c>
       <c r="B55" t="n">
-        <v>2816</v>
+        <v>1314</v>
       </c>
       <c r="C55" t="n">
-        <v>2870</v>
+        <v>1390</v>
       </c>
       <c r="D55" t="n">
-        <v>1.503969333576392</v>
+        <v>1.885138528560688</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8765584867207437</v>
+        <v>1.215210457166823</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.627410846855648</v>
+        <v>-0.6699280713938645</v>
       </c>
       <c r="G55" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H55" t="n">
-        <v>58.63751013598903</v>
+        <v>120.2185007917396</v>
       </c>
       <c r="I55" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J55" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K55" t="n">
-        <v>71.65601736708203</v>
+        <v>155.9953305698722</v>
       </c>
       <c r="L55" t="n">
-        <v>6.630997450040889</v>
+        <v>7.040282915722337</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8092322272246115</v>
+        <v>0.6958255587030332</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="R55" t="n">
-        <v>0.165998010292026</v>
+        <v>0.1544796560012855</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8547004449305755</v>
+        <v>0.7988380113125815</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>2132</v>
+        <v>1705</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>122</v>
+        <v>2010</v>
       </c>
       <c r="B56" t="n">
-        <v>139</v>
+        <v>2038</v>
       </c>
       <c r="C56" t="n">
-        <v>225</v>
+        <v>2076</v>
       </c>
       <c r="D56" t="n">
-        <v>3.047712191912499</v>
+        <v>1.442741776100566</v>
       </c>
       <c r="E56" t="n">
-        <v>2.532192251563041</v>
+        <v>0.7728137047067012</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5155199403494579</v>
+        <v>-0.6699280713938645</v>
       </c>
       <c r="G56" t="n">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H56" t="n">
-        <v>14.91705123397404</v>
+        <v>184.0226892407802</v>
       </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J56" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K56" t="n">
-        <v>212.9985990952861</v>
+        <v>60.84312953223104</v>
       </c>
       <c r="L56" t="n">
-        <v>7.011513513726291</v>
+        <v>5.388097545189354</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8013534722262186</v>
+        <v>0.7344657064677632</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2546095418544996</v>
+        <v>0.306939732683749</v>
       </c>
       <c r="S56" t="n">
-        <v>0.8125188142156821</v>
+        <v>0.9535709688284538</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>2133</v>
+        <v>1706</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>394</v>
+        <v>2384</v>
       </c>
       <c r="B57" t="n">
-        <v>429</v>
+        <v>2429</v>
       </c>
       <c r="C57" t="n">
-        <v>475</v>
+        <v>2510</v>
       </c>
       <c r="D57" t="n">
-        <v>3.956615213000288</v>
+        <v>1.765028694253318</v>
       </c>
       <c r="E57" t="n">
-        <v>3.44109527265083</v>
+        <v>1.095100622859454</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5155199403494579</v>
+        <v>-0.6699280713938645</v>
       </c>
       <c r="G57" t="n">
+        <v>126</v>
+      </c>
+      <c r="H57" t="n">
+        <v>29.94439715444423</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="n">
         <v>81</v>
       </c>
-      <c r="H57" t="n">
-        <v>46.51910029561117</v>
-      </c>
-      <c r="I57" t="n">
-        <v>35</v>
-      </c>
-      <c r="J57" t="n">
-        <v>46</v>
-      </c>
       <c r="K57" t="n">
-        <v>195.911105352956</v>
+        <v>141.6627091764057</v>
       </c>
       <c r="L57" t="n">
-        <v>9.102519951911201</v>
+        <v>6.591717888975979</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.610696753751651</v>
+        <v>0.6574120537839802</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03980856361559318</v>
+        <v>0.1952415183525331</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9675710819939586</v>
+        <v>0.6855101143277618</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>2134</v>
+        <v>1707</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>694</v>
+        <v>2510</v>
       </c>
       <c r="B58" t="n">
-        <v>712</v>
+        <v>2559</v>
       </c>
       <c r="C58" t="n">
-        <v>783</v>
+        <v>2709</v>
       </c>
       <c r="D58" t="n">
-        <v>1.626858883914172</v>
+        <v>2.814236959755846</v>
       </c>
       <c r="E58" t="n">
-        <v>1.104005828252221</v>
+        <v>2.144308888361981</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5228530556619507</v>
+        <v>-0.6699280713938645</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="H58" t="n">
-        <v>14.37020584394293</v>
+        <v>90.79178583498697</v>
       </c>
       <c r="I58" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J58" t="n">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="K58" t="n">
-        <v>79.14022910437357</v>
+        <v>336.5690553768495</v>
       </c>
       <c r="L58" t="n">
-        <v>3.83007276188217</v>
+        <v>10.51011588187675</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7944124663675417</v>
+        <v>0.8310550203079857</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2535211267605634</v>
+        <v>0.3266666666666667</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4180246308655341</v>
+        <v>0.1775477881540104</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6240665082300076</v>
+        <v>0.9453888242430905</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>2135</v>
+        <v>1708</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1316</v>
+        <v>1140</v>
       </c>
       <c r="B59" t="n">
-        <v>1344</v>
+        <v>1160</v>
       </c>
       <c r="C59" t="n">
-        <v>1389</v>
+        <v>1185</v>
       </c>
       <c r="D59" t="n">
-        <v>1.877871550223992</v>
+        <v>1.324306236864975</v>
       </c>
       <c r="E59" t="n">
-        <v>1.355018494562041</v>
+        <v>0.726975884305169</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5228530556619507</v>
+        <v>-0.5973303525598063</v>
       </c>
       <c r="G59" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H59" t="n">
-        <v>149.3824879217739</v>
+        <v>65.18592814552471</v>
       </c>
       <c r="I59" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J59" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K59" t="n">
-        <v>95.05198451080037</v>
+        <v>46.9339823855038</v>
       </c>
       <c r="L59" t="n">
-        <v>4.42102553942583</v>
+        <v>6.047163367404425</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7685440543682832</v>
+        <v>0.6611588293791275</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3752161392458498</v>
+        <v>0.1355501040923752</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9640238146772349</v>
+        <v>0.9951374604854162</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>2136</v>
+        <v>1709</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>132</v>
+        <v>1185</v>
       </c>
       <c r="B60" t="n">
-        <v>150</v>
+        <v>1209</v>
       </c>
       <c r="C60" t="n">
-        <v>198</v>
+        <v>1248</v>
       </c>
       <c r="D60" t="n">
-        <v>2.978169957379079</v>
+        <v>1.091188376155217</v>
       </c>
       <c r="E60" t="n">
-        <v>2.395401476606093</v>
+        <v>0.4938580235954113</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.5973303525598063</v>
       </c>
       <c r="G60" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H60" t="n">
-        <v>17.88789233553607</v>
+        <v>19.94334485270588</v>
       </c>
       <c r="I60" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J60" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K60" t="n">
-        <v>143.9329379755022</v>
+        <v>48.88984643531861</v>
       </c>
       <c r="L60" t="n">
-        <v>8.80858761275017</v>
+        <v>4.98268013208499</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.7707505489668234</v>
+        <v>0.82588045895818</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2889139916062898</v>
+        <v>0.2268870328666394</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9415571356515916</v>
+        <v>0.9745848852767864</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>2137</v>
+        <v>1710</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>198</v>
+        <v>1331</v>
       </c>
       <c r="B61" t="n">
-        <v>220</v>
+        <v>1361</v>
       </c>
       <c r="C61" t="n">
-        <v>250</v>
+        <v>1415</v>
       </c>
       <c r="D61" t="n">
-        <v>2.676275310282024</v>
+        <v>2.116722893827091</v>
       </c>
       <c r="E61" t="n">
-        <v>2.093506829509038</v>
+        <v>1.519392541267284</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.5973303525598063</v>
       </c>
       <c r="G61" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H61" t="n">
-        <v>17.41806672871095</v>
+        <v>53.34892008306178</v>
       </c>
       <c r="I61" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K61" t="n">
-        <v>114.674566465959</v>
+        <v>139.4418885745445</v>
       </c>
       <c r="L61" t="n">
-        <v>7.915668307662904</v>
+        <v>9.665565853408088</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.711876365787809</v>
+        <v>0.6915137442833832</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1483666026396317</v>
+        <v>0.09315893197697692</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8486365446270792</v>
+        <v>0.8982075514613264</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>2138</v>
+        <v>1711</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>250</v>
+        <v>1528</v>
       </c>
       <c r="B62" t="n">
-        <v>281</v>
+        <v>1556</v>
       </c>
       <c r="C62" t="n">
-        <v>347</v>
+        <v>1601</v>
       </c>
       <c r="D62" t="n">
-        <v>3.425253461473507</v>
+        <v>3.571488175683697</v>
       </c>
       <c r="E62" t="n">
-        <v>2.842484980700521</v>
+        <v>2.974157823123891</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.5973303525598063</v>
       </c>
       <c r="G62" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="H62" t="n">
-        <v>232.4636886889053</v>
+        <v>30.38918768001372</v>
       </c>
       <c r="I62" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J62" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>222.5489192671281</v>
+        <v>197.5047616988038</v>
       </c>
       <c r="L62" t="n">
-        <v>10.13093464881284</v>
+        <v>16.30844276187952</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7103544606804887</v>
+        <v>0.767096175670044</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3203675748824993</v>
+        <v>0.1314166731815259</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9763004063229184</v>
+        <v>0.9938463727416397</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>2139</v>
+        <v>1712</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>347</v>
+        <v>2176</v>
       </c>
       <c r="B63" t="n">
-        <v>368</v>
+        <v>2198</v>
       </c>
       <c r="C63" t="n">
-        <v>395</v>
+        <v>2230</v>
       </c>
       <c r="D63" t="n">
-        <v>1.881025727163728</v>
+        <v>2.381094578027278</v>
       </c>
       <c r="E63" t="n">
-        <v>1.298257246390741</v>
+        <v>1.783764225467471</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.5973303525598063</v>
       </c>
       <c r="G63" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H63" t="n">
-        <v>25.62874719889635</v>
+        <v>22.02820687130315</v>
       </c>
       <c r="I63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J63" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K63" t="n">
-        <v>66.86430707347841</v>
+        <v>92.89529852482821</v>
       </c>
       <c r="L63" t="n">
-        <v>5.56354410818797</v>
+        <v>10.87276304056245</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.6070042115328046</v>
+        <v>0.6869384720115495</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6875</v>
       </c>
       <c r="R63" t="n">
-        <v>0.03262819145920545</v>
+        <v>0.06732754625600168</v>
       </c>
       <c r="S63" t="n">
-        <v>0.970458081600284</v>
+        <v>0.9595515710875694</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>2140</v>
+        <v>1713</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>483</v>
+        <v>1480</v>
       </c>
       <c r="B64" t="n">
-        <v>517</v>
+        <v>1515</v>
       </c>
       <c r="C64" t="n">
-        <v>575</v>
+        <v>1614</v>
       </c>
       <c r="D64" t="n">
-        <v>3.005964591119798</v>
+        <v>4.771606568506519</v>
       </c>
       <c r="E64" t="n">
-        <v>2.423196110346812</v>
+        <v>4.228562982318006</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.5430435861885128</v>
       </c>
       <c r="G64" t="n">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="H64" t="n">
-        <v>31.69825305296325</v>
+        <v>115.3699730326739</v>
       </c>
       <c r="I64" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J64" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K64" t="n">
-        <v>143.8161385163309</v>
+        <v>412.1523206408957</v>
       </c>
       <c r="L64" t="n">
-        <v>8.890796308013782</v>
+        <v>25.45720810889554</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8113396908348207</v>
+        <v>0.8319870526575149</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2352758250277332</v>
+        <v>0.1600208130005496</v>
       </c>
       <c r="S64" t="n">
-        <v>0.80822094535891</v>
+        <v>0.9612895651861143</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>2141</v>
+        <v>1714</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2927</v>
+        <v>1650</v>
       </c>
       <c r="B65" t="n">
-        <v>2946</v>
+        <v>1727</v>
       </c>
       <c r="C65" t="n">
-        <v>2998</v>
+        <v>1834</v>
       </c>
       <c r="D65" t="n">
-        <v>1.202782577629416</v>
+        <v>3.029173927198526</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6200140968564303</v>
+        <v>2.428504937236308</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5827684807729862</v>
+        <v>-0.6006689899622177</v>
       </c>
       <c r="G65" t="n">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="H65" t="n">
-        <v>54.37618248596891</v>
+        <v>182.1240768873083</v>
       </c>
       <c r="I65" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J65" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K65" t="n">
-        <v>59.49029559041517</v>
+        <v>279.950484175862</v>
       </c>
       <c r="L65" t="n">
-        <v>3.557491971835651</v>
+        <v>8.515269425241884</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8042618194147183</v>
+        <v>0.551883653964409</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3264915175060185</v>
+        <v>0.9365896617764102</v>
       </c>
       <c r="S65" t="n">
-        <v>0.5916228685271886</v>
+        <v>0.794251848413305</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>2142</v>
+        <v>1715</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1166</v>
+        <v>2445</v>
       </c>
       <c r="B66" t="n">
-        <v>1197</v>
+        <v>2476</v>
       </c>
       <c r="C66" t="n">
-        <v>1236</v>
+        <v>2609</v>
       </c>
       <c r="D66" t="n">
-        <v>2.220007261564917</v>
+        <v>3.218599268853435</v>
       </c>
       <c r="E66" t="n">
-        <v>1.772105486171482</v>
+        <v>2.617930278891218</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4479017753934351</v>
+        <v>-0.6006689899622177</v>
       </c>
       <c r="G66" t="n">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H66" t="n">
-        <v>54.07822288105672</v>
+        <v>82.81370690405038</v>
       </c>
       <c r="I66" t="n">
         <v>31</v>
       </c>
       <c r="J66" t="n">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="K66" t="n">
-        <v>89.66503083674928</v>
+        <v>249.345527864993</v>
       </c>
       <c r="L66" t="n">
-        <v>4.167533591283415</v>
+        <v>9.04776041418018</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7445344417315484</v>
+        <v>0.9024284828193114</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7948717948717948</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="R66" t="n">
-        <v>0.273201750979612</v>
+        <v>0.2580225942107277</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9403179435851299</v>
+        <v>0.827920115537133</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>2143</v>
+        <v>1716</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>842</v>
+        <v>1890</v>
       </c>
       <c r="B67" t="n">
-        <v>894</v>
+        <v>1924</v>
       </c>
       <c r="C67" t="n">
-        <v>993</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="n">
-        <v>5.525238761864322</v>
+        <v>4.130747581209208</v>
       </c>
       <c r="E67" t="n">
-        <v>5.074191832453078</v>
+        <v>3.613987402476519</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4510469294112439</v>
+        <v>-0.5167601787326893</v>
       </c>
       <c r="G67" t="n">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H67" t="n">
-        <v>85.79901546845622</v>
+        <v>79.17266266522734</v>
       </c>
       <c r="I67" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J67" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K67" t="n">
-        <v>444.5339367523681</v>
+        <v>297.2863283905966</v>
       </c>
       <c r="L67" t="n">
-        <v>22.97282644755497</v>
+        <v>21.20555660489666</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.721245097777913</v>
+        <v>0.9054875845953013</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="R67" t="n">
-        <v>0.9950270709260093</v>
+        <v>0.2373551887073947</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9045397144423633</v>
+        <v>0.9603928012884784</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>2144</v>
+        <v>1717</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1170</v>
+        <v>2761</v>
       </c>
       <c r="B68" t="n">
-        <v>1190</v>
+        <v>2779</v>
       </c>
       <c r="C68" t="n">
-        <v>1233</v>
+        <v>2803</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9073411791370728</v>
+        <v>0.9650604896193876</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4562942497258289</v>
+        <v>0.4483003108866983</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4510469294112439</v>
+        <v>-0.5167601787326893</v>
       </c>
       <c r="G68" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H68" t="n">
-        <v>22.43967564640297</v>
+        <v>22.41031476905846</v>
       </c>
       <c r="I68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K68" t="n">
-        <v>30.99981217043545</v>
+        <v>22.10057339849218</v>
       </c>
       <c r="L68" t="n">
-        <v>3.772541302812882</v>
+        <v>4.954223040126436</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8692946629128478</v>
+        <v>0.7201140673944955</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.75</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3035003979334899</v>
+        <v>0.1615241364800977</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8579410702173129</v>
+        <v>0.9248441765424416</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>2145</v>
+        <v>1718</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>431</v>
+        <v>1149</v>
       </c>
       <c r="B69" t="n">
-        <v>464</v>
+        <v>1168</v>
       </c>
       <c r="C69" t="n">
-        <v>658</v>
+        <v>1234</v>
       </c>
       <c r="D69" t="n">
-        <v>3.203830579270591</v>
+        <v>1.479221145148162</v>
       </c>
       <c r="E69" t="n">
-        <v>2.64000218013095</v>
+        <v>1.065523500384404</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5638283991396416</v>
+        <v>-0.4136976447637583</v>
       </c>
       <c r="G69" t="n">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="H69" t="n">
-        <v>227.3724468742691</v>
+        <v>23.18304167929819</v>
       </c>
       <c r="I69" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J69" t="n">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="K69" t="n">
-        <v>362.3011095554353</v>
+        <v>76.18855740241951</v>
       </c>
       <c r="L69" t="n">
-        <v>7.276948119914496</v>
+        <v>4.975702946587203</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8528032071282372</v>
+        <v>0.8771768989793763</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1701030927835052</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="R69" t="n">
-        <v>0.3925655208885053</v>
+        <v>0.2822648987151745</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9076666566420003</v>
+        <v>0.7058320548522758</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>2146</v>
+        <v>1719</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2125</v>
+        <v>2165</v>
       </c>
       <c r="B70" t="n">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="C70" t="n">
-        <v>2280</v>
+        <v>2213</v>
       </c>
       <c r="D70" t="n">
-        <v>3.946516483911092</v>
+        <v>6.631068956453403</v>
       </c>
       <c r="E70" t="n">
-        <v>3.382688084771451</v>
+        <v>6.217371311689645</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5638283991396416</v>
+        <v>-0.4136976447637583</v>
       </c>
       <c r="G70" t="n">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="H70" t="n">
-        <v>76.35590122649774</v>
+        <v>83.67788472317989</v>
       </c>
       <c r="I70" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="J70" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="K70" t="n">
-        <v>269.1263555423245</v>
+        <v>227.8707933945307</v>
       </c>
       <c r="L70" t="n">
-        <v>8.963830950869658</v>
+        <v>22.30513635764945</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6545492936451675</v>
+        <v>0.5852074720494669</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2032850674235237</v>
+        <v>0.06610044198539208</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8680709972758544</v>
+        <v>0.9293328716525227</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>2147</v>
+        <v>1720</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1901</v>
+        <v>2213</v>
       </c>
       <c r="B71" t="n">
-        <v>1919</v>
+        <v>2224</v>
       </c>
       <c r="C71" t="n">
-        <v>2005</v>
+        <v>2252</v>
       </c>
       <c r="D71" t="n">
-        <v>3.64516994446435</v>
+        <v>2.966547276821624</v>
       </c>
       <c r="E71" t="n">
-        <v>3.153276348687282</v>
+        <v>2.552849632057866</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4918935957770684</v>
+        <v>-0.4136976447637583</v>
       </c>
       <c r="G71" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>20.00487532608076</v>
+        <v>12.33582484229146</v>
       </c>
       <c r="I71" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J71" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K71" t="n">
-        <v>271.8325685248614</v>
+        <v>92.58018509008386</v>
       </c>
       <c r="L71" t="n">
-        <v>15.54933257026773</v>
+        <v>9.97866889267131</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8337870155051851</v>
+        <v>0.8794850658598854</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2228952966218557</v>
+        <v>0.1926275822113243</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8420660887462621</v>
+        <v>0.9671232498421244</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>2148</v>
+        <v>1721</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="B72" t="n">
-        <v>1049</v>
+        <v>1087</v>
       </c>
       <c r="C72" t="n">
-        <v>1074</v>
+        <v>1144</v>
       </c>
       <c r="D72" t="n">
-        <v>1.845510065189353</v>
+        <v>0.9994882515022709</v>
       </c>
       <c r="E72" t="n">
-        <v>1.382243217597062</v>
+        <v>0.509099458115494</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4632668475922906</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G72" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="H72" t="n">
-        <v>24.10809834462862</v>
+        <v>45.04970117327116</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J72" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="K72" t="n">
-        <v>53.29400690543383</v>
+        <v>51.39967150013261</v>
       </c>
       <c r="L72" t="n">
-        <v>4.42986487991594</v>
+        <v>5.553701683818852</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7506654121259766</v>
+        <v>0.8095476888584652</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.8</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R72" t="n">
-        <v>0.5738594510215148</v>
+        <v>0.2739111855316982</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8709370601831637</v>
+        <v>0.7973333271711703</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>2149</v>
+        <v>1722</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1201</v>
+        <v>1144</v>
       </c>
       <c r="B73" t="n">
-        <v>1215</v>
+        <v>1168</v>
       </c>
       <c r="C73" t="n">
-        <v>1265</v>
+        <v>1202</v>
       </c>
       <c r="D73" t="n">
-        <v>2.145032778725418</v>
+        <v>1.237573032599237</v>
       </c>
       <c r="E73" t="n">
-        <v>1.681765931133128</v>
+        <v>0.7471842392124597</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4632668475922906</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G73" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H73" t="n">
-        <v>16.65915431559529</v>
+        <v>29.46148699042487</v>
       </c>
       <c r="I73" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K73" t="n">
-        <v>96.6715888771827</v>
+        <v>38.13545611362203</v>
       </c>
       <c r="L73" t="n">
-        <v>5.148823380580852</v>
+        <v>6.876630540343642</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.841025921644898</v>
+        <v>0.785750492787582</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.28</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R73" t="n">
-        <v>0.164856160842473</v>
+        <v>0.2230587349664162</v>
       </c>
       <c r="S73" t="n">
-        <v>0.7785655915368714</v>
+        <v>0.9157988497405417</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>2150</v>
+        <v>1723</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1265</v>
+        <v>1202</v>
       </c>
       <c r="B74" t="n">
-        <v>1302</v>
+        <v>1238</v>
       </c>
       <c r="C74" t="n">
-        <v>1349</v>
+        <v>1283</v>
       </c>
       <c r="D74" t="n">
-        <v>1.784077728645471</v>
+        <v>3.950413490887396</v>
       </c>
       <c r="E74" t="n">
-        <v>1.32081088105318</v>
+        <v>3.460024697500619</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4632668475922906</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H74" t="n">
-        <v>15.90091098107382</v>
+        <v>46.44328663341821</v>
       </c>
       <c r="I74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J74" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74" t="n">
-        <v>81.69247995710452</v>
+        <v>186.8249481615344</v>
       </c>
       <c r="L74" t="n">
-        <v>4.282405944156086</v>
+        <v>21.95065126893309</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.5785645830373719</v>
+        <v>0.7697588168389985</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.8</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2928524688420946</v>
+        <v>0.4054558558435518</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9167855611517948</v>
+        <v>0.9820607682262906</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>2151</v>
+        <v>1724</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2270</v>
+        <v>1283</v>
       </c>
       <c r="B75" t="n">
-        <v>2297</v>
+        <v>1302</v>
       </c>
       <c r="C75" t="n">
-        <v>2432</v>
+        <v>1418</v>
       </c>
       <c r="D75" t="n">
-        <v>1.554012194596705</v>
+        <v>1.749516686730495</v>
       </c>
       <c r="E75" t="n">
-        <v>1.090745347004414</v>
+        <v>1.259127893343718</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4632668475922906</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G75" t="n">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H75" t="n">
-        <v>68.32427028259508</v>
+        <v>26.1022755977408</v>
       </c>
       <c r="I75" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J75" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="K75" t="n">
-        <v>160.841383019387</v>
+        <v>144.1026730892733</v>
       </c>
       <c r="L75" t="n">
-        <v>3.730168788377061</v>
+        <v>9.721268613573343</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7092540529359367</v>
+        <v>0.8278846682317136</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.2</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2759247854655035</v>
+        <v>0.3798259482489776</v>
       </c>
       <c r="S75" t="n">
-        <v>0.7032525595216543</v>
+        <v>0.9091923210806228</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>2152</v>
+        <v>1725</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1284</v>
+        <v>1418</v>
       </c>
       <c r="B76" t="n">
-        <v>1314</v>
+        <v>1448</v>
       </c>
       <c r="C76" t="n">
-        <v>1391</v>
+        <v>1544</v>
       </c>
       <c r="D76" t="n">
-        <v>1.903816547313553</v>
+        <v>3.827634770201197</v>
       </c>
       <c r="E76" t="n">
-        <v>1.232035402161266</v>
+        <v>3.33724597681442</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6717811451522874</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G76" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H76" t="n">
-        <v>119.4029159731633</v>
+        <v>31.24423241417549</v>
       </c>
       <c r="I76" t="n">
         <v>30</v>
       </c>
       <c r="J76" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="K76" t="n">
-        <v>156.7727293788914</v>
+        <v>224.037881763288</v>
       </c>
       <c r="L76" t="n">
-        <v>7.079116514352052</v>
+        <v>21.26842575323825</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.7119742566557202</v>
+        <v>0.8954001799225936</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.3125</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1680987976324622</v>
+        <v>0.3026245488218579</v>
       </c>
       <c r="S76" t="n">
-        <v>0.8037288027334426</v>
+        <v>0.9068796248540566</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>2153</v>
+        <v>1726</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2010</v>
+        <v>2446</v>
       </c>
       <c r="B77" t="n">
-        <v>2038</v>
+        <v>2497</v>
       </c>
       <c r="C77" t="n">
-        <v>2076</v>
+        <v>2572</v>
       </c>
       <c r="D77" t="n">
-        <v>1.450473897723793</v>
+        <v>2.748571041333682</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7786927525715052</v>
+        <v>2.306460962957268</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6717811451522874</v>
+        <v>-0.442110078376414</v>
       </c>
       <c r="G77" t="n">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H77" t="n">
-        <v>55.49586176520711</v>
+        <v>191.4064969184078</v>
       </c>
       <c r="I77" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="J77" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K77" t="n">
-        <v>60.98083034567693</v>
+        <v>203.1797430763545</v>
       </c>
       <c r="L77" t="n">
-        <v>5.393415524989638</v>
+        <v>6.20881702916776</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.7540920697047714</v>
+        <v>0.7417674669711664</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.68</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3430582477178189</v>
+        <v>0.2588585873137254</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9435856024131708</v>
+        <v>0.8941672979775732</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>2154</v>
+        <v>1727</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2385</v>
+        <v>650</v>
       </c>
       <c r="B78" t="n">
-        <v>2428</v>
+        <v>676</v>
       </c>
       <c r="C78" t="n">
-        <v>2511</v>
+        <v>740</v>
       </c>
       <c r="D78" t="n">
-        <v>1.800275828918337</v>
+        <v>2.181316072860801</v>
       </c>
       <c r="E78" t="n">
-        <v>1.128494683766049</v>
+        <v>1.614877846370183</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6717811451522874</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G78" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H78" t="n">
-        <v>28.72439627604535</v>
+        <v>32.42853476916684</v>
       </c>
       <c r="I78" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J78" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K78" t="n">
-        <v>142.0584874243254</v>
+        <v>90.79829088821212</v>
       </c>
       <c r="L78" t="n">
-        <v>6.694112607051348</v>
+        <v>6.051060769780182</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7124380955050753</v>
+        <v>0.9095259069939894</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.5180722891566265</v>
+        <v>0.40625</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1834684911374021</v>
+        <v>0.2840106331705308</v>
       </c>
       <c r="S78" t="n">
-        <v>0.6750377607472198</v>
+        <v>0.9223526171884505</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>2155</v>
+        <v>1728</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2511</v>
+        <v>1038</v>
       </c>
       <c r="B79" t="n">
-        <v>2558</v>
+        <v>1113</v>
       </c>
       <c r="C79" t="n">
-        <v>2709</v>
+        <v>1287</v>
       </c>
       <c r="D79" t="n">
-        <v>2.822997624315558</v>
+        <v>4.021366502961399</v>
       </c>
       <c r="E79" t="n">
-        <v>2.151216479163271</v>
+        <v>3.454928276470781</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6717811451522874</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G79" t="n">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="H79" t="n">
-        <v>90.98972319878339</v>
+        <v>206.2408280526645</v>
       </c>
       <c r="I79" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="J79" t="n">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="K79" t="n">
-        <v>336.0387093435495</v>
+        <v>577.4515858275171</v>
       </c>
       <c r="L79" t="n">
-        <v>10.49698256403353</v>
+        <v>11.15543656865113</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.847151128804482</v>
+        <v>0.8298913497625925</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3112582781456953</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1757268888229219</v>
+        <v>0.2714974172992408</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9412334630681272</v>
+        <v>0.8549907381344468</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>2156</v>
+        <v>1729</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1184</v>
+        <v>1287</v>
       </c>
       <c r="B80" t="n">
-        <v>1210</v>
+        <v>1313</v>
       </c>
       <c r="C80" t="n">
-        <v>1257</v>
+        <v>1404</v>
       </c>
       <c r="D80" t="n">
-        <v>1.081771824611193</v>
+        <v>2.119861797799547</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4862877495834366</v>
+        <v>1.553423571308929</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G80" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="H80" t="n">
-        <v>21.61929071268742</v>
+        <v>48.40131834931071</v>
       </c>
       <c r="I80" t="n">
         <v>26</v>
       </c>
       <c r="J80" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K80" t="n">
-        <v>52.81316966033042</v>
+        <v>166.9605595646503</v>
       </c>
       <c r="L80" t="n">
-        <v>4.892201858279988</v>
+        <v>5.880584075648124</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.8367445463657767</v>
+        <v>0.8642097543907802</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R80" t="n">
-        <v>0.3001298667572286</v>
+        <v>0.1544289957766591</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9838486072928816</v>
+        <v>0.7197790719779673</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>2157</v>
+        <v>1730</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1331</v>
+        <v>1533</v>
       </c>
       <c r="B81" t="n">
-        <v>1357</v>
+        <v>1549</v>
       </c>
       <c r="C81" t="n">
-        <v>1419</v>
+        <v>1606</v>
       </c>
       <c r="D81" t="n">
-        <v>2.155459145819135</v>
+        <v>1.557464946158713</v>
       </c>
       <c r="E81" t="n">
-        <v>1.559975070791379</v>
+        <v>0.9910267196680952</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G81" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H81" t="n">
-        <v>51.14067561737443</v>
+        <v>34.96501492911102</v>
       </c>
       <c r="I81" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J81" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K81" t="n">
-        <v>143.3870718865295</v>
+        <v>89.27928118381493</v>
       </c>
       <c r="L81" t="n">
-        <v>9.747842381098252</v>
+        <v>4.320472009197998</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7295669102834328</v>
+        <v>0.7861387034389514</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="R81" t="n">
-        <v>0.07082187240655469</v>
+        <v>0.08138629435541755</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9069765061763996</v>
+        <v>0.735979168767923</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>2158</v>
+        <v>1731</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1419</v>
+        <v>2507</v>
       </c>
       <c r="B82" t="n">
-        <v>1466</v>
+        <v>2532</v>
       </c>
       <c r="C82" t="n">
-        <v>1527</v>
+        <v>2580</v>
       </c>
       <c r="D82" t="n">
-        <v>3.997760518244444</v>
+        <v>1.507470859171457</v>
       </c>
       <c r="E82" t="n">
-        <v>3.402276443216688</v>
+        <v>0.9410326326808389</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G82" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H82" t="n">
-        <v>170.9986942471924</v>
+        <v>49.36730234028119</v>
       </c>
       <c r="I82" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J82" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K82" t="n">
-        <v>345.8710557066287</v>
+        <v>57.82477019564994</v>
       </c>
       <c r="L82" t="n">
-        <v>18.07946092822603</v>
+        <v>4.181786349538959</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.5882553999728544</v>
+        <v>0.7656756351794181</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2407953884775926</v>
+        <v>0.1934597787825248</v>
       </c>
       <c r="S82" t="n">
-        <v>0.6228476042089642</v>
+        <v>0.7846496778774239</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>2159</v>
+        <v>1732</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1527</v>
+        <v>1266</v>
       </c>
       <c r="B83" t="n">
-        <v>1556</v>
+        <v>1286</v>
       </c>
       <c r="C83" t="n">
-        <v>1601</v>
+        <v>1336</v>
       </c>
       <c r="D83" t="n">
-        <v>3.585509068434825</v>
+        <v>1.524519077484653</v>
       </c>
       <c r="E83" t="n">
-        <v>2.990024993407069</v>
+        <v>1.090171652800971</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.4343474246836825</v>
       </c>
       <c r="G83" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H83" t="n">
-        <v>31.4079592093824</v>
+        <v>61.39888818937197</v>
       </c>
       <c r="I83" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>199.6917945564815</v>
+        <v>63.21339554086849</v>
       </c>
       <c r="L83" t="n">
-        <v>16.21509613062916</v>
+        <v>3.915716946962626</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.749784551707123</v>
+        <v>0.7061984020732089</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.4</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1226346278374044</v>
+        <v>0.08624040693439561</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9915431513265023</v>
+        <v>0.7949607952016357</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>2160</v>
+        <v>1733</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2177</v>
+        <v>1850</v>
       </c>
       <c r="B84" t="n">
-        <v>2199</v>
+        <v>1865</v>
       </c>
       <c r="C84" t="n">
-        <v>2230</v>
+        <v>1924</v>
       </c>
       <c r="D84" t="n">
-        <v>2.397401327816503</v>
+        <v>1.786970080157547</v>
       </c>
       <c r="E84" t="n">
-        <v>1.801917252788746</v>
+        <v>1.352622655473864</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.4343474246836825</v>
       </c>
       <c r="G84" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H84" t="n">
-        <v>21.94167428795572</v>
+        <v>28.307887997232</v>
       </c>
       <c r="I84" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J84" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K84" t="n">
-        <v>91.53398513090256</v>
+        <v>83.43394963652429</v>
       </c>
       <c r="L84" t="n">
-        <v>10.84200102475608</v>
+        <v>4.58982057353658</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.6526379947741701</v>
+        <v>0.9158065101938436</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="R84" t="n">
-        <v>0.03507687278786632</v>
+        <v>0.2626838270101983</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9711107163053492</v>
+        <v>0.6853742015110151</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>2161</v>
+        <v>1734</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2341</v>
+        <v>1105</v>
       </c>
       <c r="B85" t="n">
-        <v>2362</v>
+        <v>1172</v>
       </c>
       <c r="C85" t="n">
-        <v>2389</v>
+        <v>1301</v>
       </c>
       <c r="D85" t="n">
-        <v>1.138213191760868</v>
+        <v>3.353129779008167</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5427291167331113</v>
+        <v>2.895312737673103</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5954840750277564</v>
+        <v>-0.4578170413350643</v>
       </c>
       <c r="G85" t="n">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="H85" t="n">
-        <v>19.64144848645674</v>
+        <v>38.40869436427579</v>
       </c>
       <c r="I85" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J85" t="n">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="K85" t="n">
-        <v>42.06196557570411</v>
+        <v>238.4317713687722</v>
       </c>
       <c r="L85" t="n">
-        <v>5.147452138395894</v>
+        <v>8.278096602641764</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.7468925586229788</v>
+        <v>0.5835037233012353</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="R85" t="n">
-        <v>0.174694514272009</v>
+        <v>0.3709180739315896</v>
       </c>
       <c r="S85" t="n">
-        <v>0.8835465726640025</v>
+        <v>0.7049025606891258</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>2162</v>
+        <v>1735</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7774,2758 +7774,6 @@
         </is>
       </c>
       <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1481</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1514</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1614</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4.775550790182437</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.236372305272184</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.5391784849102533</v>
-      </c>
-      <c r="G86" t="n">
-        <v>133</v>
-      </c>
-      <c r="H86" t="n">
-        <v>114.1047034673431</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>100</v>
-      </c>
-      <c r="K86" t="n">
-        <v>410.2194340008823</v>
-      </c>
-      <c r="L86" t="n">
-        <v>25.3045653077841</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.8372859223730598</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.153311768830793</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.9595546074876148</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>2163</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2074</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2170</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.67066420234218</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.131485717431927</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.5391784849102533</v>
-      </c>
-      <c r="G87" t="n">
-        <v>128</v>
-      </c>
-      <c r="H87" t="n">
-        <v>40.62778570278078</v>
-      </c>
-      <c r="I87" t="n">
-        <v>32</v>
-      </c>
-      <c r="J87" t="n">
-        <v>96</v>
-      </c>
-      <c r="K87" t="n">
-        <v>148.2220789796875</v>
-      </c>
-      <c r="L87" t="n">
-        <v>14.15124656662842</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.931650124371233</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.3615346266927591</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.960281782489901</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>2164</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2226</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2273</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2378</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.247537867496834</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.708359382586581</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.5391784849102533</v>
-      </c>
-      <c r="G88" t="n">
-        <v>152</v>
-      </c>
-      <c r="H88" t="n">
-        <v>169.4177145414419</v>
-      </c>
-      <c r="I88" t="n">
-        <v>47</v>
-      </c>
-      <c r="J88" t="n">
-        <v>105</v>
-      </c>
-      <c r="K88" t="n">
-        <v>318.9680861716958</v>
-      </c>
-      <c r="L88" t="n">
-        <v>17.20796985899844</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.7853173095056774</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.4476190476190476</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.1685064648754695</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.9381667505374532</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>2165</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>391</v>
-      </c>
-      <c r="B89" t="n">
-        <v>441</v>
-      </c>
-      <c r="C89" t="n">
-        <v>551</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.561781709842439</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.951428976422359</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.6103527334200799</v>
-      </c>
-      <c r="G89" t="n">
-        <v>160</v>
-      </c>
-      <c r="H89" t="n">
-        <v>107.761453218713</v>
-      </c>
-      <c r="I89" t="n">
-        <v>50</v>
-      </c>
-      <c r="J89" t="n">
-        <v>110</v>
-      </c>
-      <c r="K89" t="n">
-        <v>274.2778276835</v>
-      </c>
-      <c r="L89" t="n">
-        <v>7.169217967335584</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.6490712361274071</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.148074821913326</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.8860521945517807</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>2166</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1773</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1785</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1834</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.748497606024197</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.138144872604117</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.6103527334200799</v>
-      </c>
-      <c r="G90" t="n">
-        <v>61</v>
-      </c>
-      <c r="H90" t="n">
-        <v>23.32811164977238</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>49</v>
-      </c>
-      <c r="K90" t="n">
-        <v>91.71418649646543</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.893219591970193</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>0.7239375130202444</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.2448979591836735</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.1044589315807568</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.3132767070265222</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>2167</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2275</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2290</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2313</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.388152848281893</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.777800114861813</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.6103527334200799</v>
-      </c>
-      <c r="G91" t="n">
-        <v>38</v>
-      </c>
-      <c r="H91" t="n">
-        <v>21.41650715461537</v>
-      </c>
-      <c r="I91" t="n">
-        <v>15</v>
-      </c>
-      <c r="J91" t="n">
-        <v>23</v>
-      </c>
-      <c r="K91" t="n">
-        <v>44.07897906578688</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.884784680550594</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>0.6425248080291769</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.0580004136552493</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.9125202165980036</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>2168</v>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2446</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2476</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3.242446628727367</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.632093895307287</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-0.6103527334200799</v>
-      </c>
-      <c r="G92" t="n">
-        <v>164</v>
-      </c>
-      <c r="H92" t="n">
-        <v>82.11567243962099</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>134</v>
-      </c>
-      <c r="K92" t="n">
-        <v>251.0607045801635</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9.074077833988694</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>0.8968739508093629</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.2238805970149254</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.2648276823502572</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.8201387747518393</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
-        <v>2169</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1924</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.136399680971116</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3.621381612340346</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.5150180686307698</v>
-      </c>
-      <c r="G93" t="n">
-        <v>131</v>
-      </c>
-      <c r="H93" t="n">
-        <v>78.29283666601282</v>
-      </c>
-      <c r="I93" t="n">
-        <v>33</v>
-      </c>
-      <c r="J93" t="n">
-        <v>98</v>
-      </c>
-      <c r="K93" t="n">
-        <v>298.0149727475351</v>
-      </c>
-      <c r="L93" t="n">
-        <v>21.00720837704197</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>0.9082813375622322</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.336734693877551</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.2152099511669086</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.95855708111703</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>2170</v>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>2762</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2779</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.001183464174518</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.4861653955437481</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.5150180686307698</v>
-      </c>
-      <c r="G94" t="n">
-        <v>40</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21.74736932970109</v>
-      </c>
-      <c r="I94" t="n">
-        <v>17</v>
-      </c>
-      <c r="J94" t="n">
-        <v>23</v>
-      </c>
-      <c r="K94" t="n">
-        <v>22.03559317591739</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.084631872572107</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>0.7274290412657632</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.1779839464102694</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.8862494951849461</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
-        <v>2171</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1169</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.497810819291134</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.085427444983541</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-0.4123833743075934</v>
-      </c>
-      <c r="G95" t="n">
-        <v>84</v>
-      </c>
-      <c r="H95" t="n">
-        <v>22.72661180575778</v>
-      </c>
-      <c r="I95" t="n">
-        <v>19</v>
-      </c>
-      <c r="J95" t="n">
-        <v>65</v>
-      </c>
-      <c r="K95" t="n">
-        <v>75.06015602480007</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5.022345096073022</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>0.8645667141775469</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.3056018668005003</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.6646604166137142</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
-        <v>2172</v>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2222</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2252</v>
-      </c>
-      <c r="D96" t="n">
-        <v>3.023393053606285</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.611009679298692</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.4123833743075934</v>
-      </c>
-      <c r="G96" t="n">
-        <v>39</v>
-      </c>
-      <c r="H96" t="n">
-        <v>13.61816476448348</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>30</v>
-      </c>
-      <c r="K96" t="n">
-        <v>92.61684209338756</v>
-      </c>
-      <c r="L96" t="n">
-        <v>10.13781118463753</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>0.9185880464385863</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.1669949006349426</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.9719044953899981</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
-        <v>2173</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1194</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1217</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1273</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.606482469826822</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.252767889626699</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.3537145802001231</v>
-      </c>
-      <c r="G97" t="n">
-        <v>79</v>
-      </c>
-      <c r="H97" t="n">
-        <v>109.2033619558267</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23</v>
-      </c>
-      <c r="J97" t="n">
-        <v>56</v>
-      </c>
-      <c r="K97" t="n">
-        <v>133.5490088139713</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.349322686223678</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>0.7719765259443482</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.4107142857142857</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.2020615997129256</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.6901334787864803</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
-        <v>2174</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1085</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1144</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9987403823371568</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.5048974747442357</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G98" t="n">
-        <v>86</v>
-      </c>
-      <c r="H98" t="n">
-        <v>45.96886661098529</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>59</v>
-      </c>
-      <c r="K98" t="n">
-        <v>51.66519547897918</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5.494418654569482</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>0.8271751246230151</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.4576271186440678</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.2718116441995995</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0.7755153628307349</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
-        <v>2175</v>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1168</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.258650856383565</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.7648079487906441</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G99" t="n">
-        <v>58</v>
-      </c>
-      <c r="H99" t="n">
-        <v>28.48330069277858</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24</v>
-      </c>
-      <c r="J99" t="n">
-        <v>34</v>
-      </c>
-      <c r="K99" t="n">
-        <v>38.36387765445086</v>
-      </c>
-      <c r="L99" t="n">
-        <v>6.924276686119964</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>0.790686308216573</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.2168122813584886</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0.9365895931035682</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
-        <v>2176</v>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1202</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1283</v>
-      </c>
-      <c r="D100" t="n">
-        <v>4.012398786544987</v>
-      </c>
-      <c r="E100" t="n">
-        <v>3.518555878952067</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G100" t="n">
-        <v>81</v>
-      </c>
-      <c r="H100" t="n">
-        <v>45.8904425233427</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35</v>
-      </c>
-      <c r="J100" t="n">
-        <v>46</v>
-      </c>
-      <c r="K100" t="n">
-        <v>187.0086208815642</v>
-      </c>
-      <c r="L100" t="n">
-        <v>22.07360304263983</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>0.7773863799864122</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.4474548144182345</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.9760437495430953</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
-        <v>2177</v>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1283</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1302</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1418</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.77568490890386</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.281842001310939</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G101" t="n">
-        <v>135</v>
-      </c>
-      <c r="H101" t="n">
-        <v>25.17465964337771</v>
-      </c>
-      <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>116</v>
-      </c>
-      <c r="K101" t="n">
-        <v>144.7087610981158</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9.768661066140119</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>0.8232651093871325</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.1637931034482759</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.3779585360547333</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0.9030375826412256</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
-        <v>2178</v>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1418</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1447</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1516</v>
-      </c>
-      <c r="D102" t="n">
-        <v>3.892655804329111</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3.39881289673619</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G102" t="n">
-        <v>98</v>
-      </c>
-      <c r="H102" t="n">
-        <v>30.39782136784856</v>
-      </c>
-      <c r="I102" t="n">
-        <v>29</v>
-      </c>
-      <c r="J102" t="n">
-        <v>69</v>
-      </c>
-      <c r="K102" t="n">
-        <v>197.2086103416658</v>
-      </c>
-      <c r="L102" t="n">
-        <v>21.41485519697738</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>0.8849752901220427</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.4202898550724637</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.2428733270350615</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.9468947910958198</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
-        <v>2179</v>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1516</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1527</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1545</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.102290721806395</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.6084478142134736</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-0.493842907592921</v>
-      </c>
-      <c r="G103" t="n">
-        <v>29</v>
-      </c>
-      <c r="H103" t="n">
-        <v>15.85187600913605</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11</v>
-      </c>
-      <c r="J103" t="n">
-        <v>18</v>
-      </c>
-      <c r="K103" t="n">
-        <v>28.05733261373269</v>
-      </c>
-      <c r="L103" t="n">
-        <v>6.064085133394923</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>0.6419768610953098</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.04382257830013532</v>
-      </c>
-      <c r="S103" t="n">
-        <v>0.9059425353472174</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
-        <v>2180</v>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>843</v>
-      </c>
-      <c r="B104" t="n">
-        <v>859</v>
-      </c>
-      <c r="C104" t="n">
-        <v>905</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.791999305013371</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.353000301504183</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-0.4389990035091879</v>
-      </c>
-      <c r="G104" t="n">
-        <v>62</v>
-      </c>
-      <c r="H104" t="n">
-        <v>41.00990175751826</v>
-      </c>
-      <c r="I104" t="n">
-        <v>16</v>
-      </c>
-      <c r="J104" t="n">
-        <v>46</v>
-      </c>
-      <c r="K104" t="n">
-        <v>94.56862269210659</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.041083800841633</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>0.7129680929219561</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.0592181898944128</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0.769108999475864</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
-        <v>2181</v>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2446</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2497</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2572</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.754087154245101</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.315088150735913</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.4389990035091879</v>
-      </c>
-      <c r="G105" t="n">
-        <v>126</v>
-      </c>
-      <c r="H105" t="n">
-        <v>108.5573220159472</v>
-      </c>
-      <c r="I105" t="n">
-        <v>51</v>
-      </c>
-      <c r="J105" t="n">
-        <v>75</v>
-      </c>
-      <c r="K105" t="n">
-        <v>202.8459906891047</v>
-      </c>
-      <c r="L105" t="n">
-        <v>6.210659208399006</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0.7533122644807133</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.2654385602855561</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.8827315193602115</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>2182</v>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1377</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1405</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1480</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.646614109486533</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2.172317325906204</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.4742967835803288</v>
-      </c>
-      <c r="G106" t="n">
-        <v>103</v>
-      </c>
-      <c r="H106" t="n">
-        <v>38.36425936846103</v>
-      </c>
-      <c r="I106" t="n">
-        <v>28</v>
-      </c>
-      <c r="J106" t="n">
-        <v>75</v>
-      </c>
-      <c r="K106" t="n">
-        <v>159.5405428244421</v>
-      </c>
-      <c r="L106" t="n">
-        <v>8.980994385972936</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.8861720974430728</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.3733333333333334</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.1638396146258363</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.9559159490380307</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>2183</v>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>650</v>
-      </c>
-      <c r="B107" t="n">
-        <v>676</v>
-      </c>
-      <c r="C107" t="n">
-        <v>740</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.179507752369648</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.608599853363113</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.5709078990065356</v>
-      </c>
-      <c r="G107" t="n">
-        <v>90</v>
-      </c>
-      <c r="H107" t="n">
-        <v>32.41927472017892</v>
-      </c>
-      <c r="I107" t="n">
-        <v>26</v>
-      </c>
-      <c r="J107" t="n">
-        <v>64</v>
-      </c>
-      <c r="K107" t="n">
-        <v>91.33438202786721</v>
-      </c>
-      <c r="L107" t="n">
-        <v>6.024572296139829</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>0.9121162778413687</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.3017507406004127</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.9343415445991486</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>2184</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1201</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1288</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2.047791863235349</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.476883964228813</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.5709078990065356</v>
-      </c>
-      <c r="G108" t="n">
-        <v>87</v>
-      </c>
-      <c r="H108" t="n">
-        <v>42.15964137722244</v>
-      </c>
-      <c r="I108" t="n">
-        <v>18</v>
-      </c>
-      <c r="J108" t="n">
-        <v>69</v>
-      </c>
-      <c r="K108" t="n">
-        <v>143.5541954660806</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.660484627363626</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>0.8321964053916161</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.1314709592563155</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.7898666486086026</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
-        <v>2185</v>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1288</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1313</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1405</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.157259922973076</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.586352023966541</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.5709078990065356</v>
-      </c>
-      <c r="G109" t="n">
-        <v>117</v>
-      </c>
-      <c r="H109" t="n">
-        <v>48.84752357304524</v>
-      </c>
-      <c r="I109" t="n">
-        <v>25</v>
-      </c>
-      <c r="J109" t="n">
-        <v>92</v>
-      </c>
-      <c r="K109" t="n">
-        <v>167.5751534546801</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.963075081236094</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>0.878426849296184</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.2717391304347826</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.1775101031968613</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.7013396425779604</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
-        <v>2186</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1533</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1549</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1606</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.575163977112521</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.004256078105985</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-0.5709078990065356</v>
-      </c>
-      <c r="G110" t="n">
-        <v>73</v>
-      </c>
-      <c r="H110" t="n">
-        <v>34.21458204833857</v>
-      </c>
-      <c r="I110" t="n">
-        <v>16</v>
-      </c>
-      <c r="J110" t="n">
-        <v>57</v>
-      </c>
-      <c r="K110" t="n">
-        <v>89.72312601171109</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4.354051619257584</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>0.7888644117308423</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.08437665645859559</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.7254183911194123</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
-        <v>2187</v>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.573739009380225</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.140967818284349</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.4327711910958759</v>
-      </c>
-      <c r="G111" t="n">
-        <v>71</v>
-      </c>
-      <c r="H111" t="n">
-        <v>60.27956914506399</v>
-      </c>
-      <c r="I111" t="n">
-        <v>22</v>
-      </c>
-      <c r="J111" t="n">
-        <v>49</v>
-      </c>
-      <c r="K111" t="n">
-        <v>63.02363186896456</v>
-      </c>
-      <c r="L111" t="n">
-        <v>3.998261890021412</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>0.7234966883760667</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.1183720759066943</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.8288088965373159</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>n38</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
-        <v>2188</v>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1850</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1866</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1924</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.813207933487565</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.380436742391689</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.4327711910958759</v>
-      </c>
-      <c r="G112" t="n">
-        <v>74</v>
-      </c>
-      <c r="H112" t="n">
-        <v>27.2667248275211</v>
-      </c>
-      <c r="I112" t="n">
-        <v>16</v>
-      </c>
-      <c r="J112" t="n">
-        <v>58</v>
-      </c>
-      <c r="K112" t="n">
-        <v>83.36183269592291</v>
-      </c>
-      <c r="L112" t="n">
-        <v>4.606659767557583</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0.9119129800468437</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.2752075465422369</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.6428144164739237</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>n38</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
-        <v>2189</v>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1967</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2058</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.644587495856111</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.211816304760235</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.4327711910958759</v>
-      </c>
-      <c r="G113" t="n">
-        <v>91</v>
-      </c>
-      <c r="H113" t="n">
-        <v>61.71728530619657</v>
-      </c>
-      <c r="I113" t="n">
-        <v>33</v>
-      </c>
-      <c r="J113" t="n">
-        <v>58</v>
-      </c>
-      <c r="K113" t="n">
-        <v>166.3744462823781</v>
-      </c>
-      <c r="L113" t="n">
-        <v>6.718873546683472</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0.5780174367698991</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.5689655172413793</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.1429561951891651</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.7752064555372051</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>n38</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
-        <v>2190</v>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2117</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3.916153500795987</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.427902320597461</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.4882511801985254</v>
-      </c>
-      <c r="G114" t="n">
-        <v>157</v>
-      </c>
-      <c r="H114" t="n">
-        <v>173.619205170625</v>
-      </c>
-      <c r="I114" t="n">
-        <v>59</v>
-      </c>
-      <c r="J114" t="n">
-        <v>98</v>
-      </c>
-      <c r="K114" t="n">
-        <v>421.309066723157</v>
-      </c>
-      <c r="L114" t="n">
-        <v>15.26480182734137</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>0.6325433206724888</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.6020408163265306</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.3382919465566205</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.9005681965311223</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
-        <v>2191</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1201</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1210</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1226</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.696063740452019</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.231312326201845</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.4647514142501731</v>
-      </c>
-      <c r="G115" t="n">
-        <v>25</v>
-      </c>
-      <c r="H115" t="n">
-        <v>9.784494520000862</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9</v>
-      </c>
-      <c r="J115" t="n">
-        <v>16</v>
-      </c>
-      <c r="K115" t="n">
-        <v>32.89076819460016</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.144201511834704</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>0.7710407657152119</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.1074534865169525</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.9868330526485073</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>2192</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1226</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.496399341256598</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.031647927006424</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-0.4647514142501731</v>
-      </c>
-      <c r="G116" t="n">
-        <v>74</v>
-      </c>
-      <c r="H116" t="n">
-        <v>17.23819168247678</v>
-      </c>
-      <c r="I116" t="n">
-        <v>21</v>
-      </c>
-      <c r="J116" t="n">
-        <v>53</v>
-      </c>
-      <c r="K116" t="n">
-        <v>67.87364192742471</v>
-      </c>
-      <c r="L116" t="n">
-        <v>3.656336884303248</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(1272), 'value': np.float64(0.47969858377882846), 'amplitude': np.float64(0.9444499980290015), 'start_idx': np.int64(1262), 'end_idx': np.int64(1280), 'duration': np.float64(18.0), 'fwhm': np.float64(23.115594249477226), 'rise_time': np.float64(10.0), 'decay_time': np.float64(8.0), 'auc': np.float64(13.72809020759952)}]</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>0.7270212393905072</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.3962264150943396</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.3322230219069842</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.3606015142928043</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
-        <v>2193</v>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1332</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1534</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.484758547608922</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.020007133358749</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.4647514142501731</v>
-      </c>
-      <c r="G117" t="n">
-        <v>234</v>
-      </c>
-      <c r="H117" t="n">
-        <v>55.88417227354603</v>
-      </c>
-      <c r="I117" t="n">
-        <v>32</v>
-      </c>
-      <c r="J117" t="n">
-        <v>202</v>
-      </c>
-      <c r="K117" t="n">
-        <v>259.9787116830986</v>
-      </c>
-      <c r="L117" t="n">
-        <v>6.07131671053869</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>0.8089873749414648</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.1584158415841584</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0.2655818363377885</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0.7301883969187918</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
-        <v>2194</v>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253</v>
+        <v>1185</v>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>1237</v>
       </c>
       <c r="C2" t="n">
-        <v>360</v>
+        <v>1371</v>
       </c>
       <c r="D2" t="n">
-        <v>2.459294470810782</v>
+        <v>2.031599939829392</v>
       </c>
       <c r="E2" t="n">
-        <v>1.756880388062575</v>
+        <v>1.469032089891952</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.702414082748207</v>
+        <v>-0.5625678499374394</v>
       </c>
       <c r="G2" t="n">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H2" t="n">
-        <v>55.98936545025435</v>
+        <v>31.76984203180655</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="K2" t="n">
-        <v>195.546105318717</v>
+        <v>143.9893578910138</v>
       </c>
       <c r="L2" t="n">
-        <v>5.519723677572498</v>
+        <v>3.853265856121773</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8271302135783611</v>
+        <v>0.656286245609932</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="R2" t="n">
-        <v>0.480045499670614</v>
+        <v>0.2663654354909692</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8849884673204519</v>
+        <v>0.8136993462943665</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>808</v>
+        <v>1652</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="B3" t="n">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="C3" t="n">
-        <v>607</v>
+        <v>351</v>
       </c>
       <c r="D3" t="n">
-        <v>2.589065931219666</v>
+        <v>2.565124391155705</v>
       </c>
       <c r="E3" t="n">
-        <v>1.886651848471458</v>
+        <v>1.867294621183443</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.702414082748207</v>
+        <v>-0.6978297699722614</v>
       </c>
       <c r="G3" t="n">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>214.3279957844587</v>
+        <v>29.47094207829821</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>407.0980209338504</v>
+        <v>179.9448338976696</v>
       </c>
       <c r="L3" t="n">
-        <v>5.810987131865521</v>
+        <v>5.776352449691352</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7097532374707418</v>
+        <v>0.7576997384999432</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.436046511627907</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3525235086665022</v>
+        <v>0.6273113008894908</v>
       </c>
       <c r="S3" t="n">
-        <v>0.779598980568065</v>
+        <v>0.5116751382540868</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>809</v>
+        <v>1653</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2363</v>
+        <v>351</v>
       </c>
       <c r="B4" t="n">
-        <v>2398</v>
+        <v>436</v>
       </c>
       <c r="C4" t="n">
-        <v>2476</v>
+        <v>609</v>
       </c>
       <c r="D4" t="n">
-        <v>1.624099104435345</v>
+        <v>2.742994173910291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7757217179681407</v>
+        <v>2.04516440393803</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8483773864672045</v>
+        <v>-0.6978297699722614</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="H4" t="n">
-        <v>57.28740261267967</v>
+        <v>123.3844939336258</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="K4" t="n">
-        <v>139.1813876722795</v>
+        <v>421.6092327014584</v>
       </c>
       <c r="L4" t="n">
-        <v>5.758359115343232</v>
+        <v>6.176893865492875</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8762737613948979</v>
+        <v>0.6784669945411302</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.4913294797687861</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5195915301907487</v>
+        <v>0.3453225401574184</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9612485734105655</v>
+        <v>0.7281438662866688</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>810</v>
+        <v>1654</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2740</v>
+        <v>221</v>
       </c>
       <c r="B5" t="n">
-        <v>2841</v>
+        <v>347</v>
       </c>
       <c r="C5" t="n">
-        <v>2998</v>
+        <v>642</v>
       </c>
       <c r="D5" t="n">
-        <v>2.579318060532312</v>
+        <v>3.31877911100015</v>
       </c>
       <c r="E5" t="n">
-        <v>1.996492569523964</v>
+        <v>2.471104922570607</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5828254910083478</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G5" t="n">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="H5" t="n">
-        <v>76.58518865806536</v>
+        <v>283.72996977641</v>
       </c>
       <c r="I5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="J5" t="n">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>399.4491201394183</v>
+        <v>618.7292565384205</v>
       </c>
       <c r="L5" t="n">
-        <v>6.19178020963976</v>
+        <v>11.4407613094189</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6131124488000715</v>
+        <v>0.6932660532075624</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.643312101910828</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4187096277012475</v>
+        <v>0.5825801195124948</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2709359553577437</v>
+        <v>0.9556343295755277</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>811</v>
+        <v>1655</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>629</v>
+        <v>2366</v>
       </c>
       <c r="B6" t="n">
-        <v>669</v>
+        <v>2394</v>
       </c>
       <c r="C6" t="n">
-        <v>888</v>
+        <v>2484</v>
       </c>
       <c r="D6" t="n">
-        <v>2.029742373857871</v>
+        <v>1.626983951508795</v>
       </c>
       <c r="E6" t="n">
-        <v>1.272885766331366</v>
+        <v>0.7793097630792533</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7568566075265053</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G6" t="n">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="H6" t="n">
-        <v>128.3912605852327</v>
+        <v>60.67908796253232</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>263.8956870826396</v>
+        <v>148.7387648511213</v>
       </c>
       <c r="L6" t="n">
-        <v>8.77904228183278</v>
+        <v>5.608669459733282</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7685180362433559</v>
+        <v>0.9212969620668013</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.182648401826484</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1062308436414044</v>
+        <v>0.4861901160726786</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7924582260742836</v>
+        <v>0.8841376286825817</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>812</v>
+        <v>1656</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1736</v>
+        <v>2708</v>
       </c>
       <c r="B7" t="n">
-        <v>1819</v>
+        <v>2737</v>
       </c>
       <c r="C7" t="n">
-        <v>1963</v>
+        <v>2865</v>
       </c>
       <c r="D7" t="n">
-        <v>2.941421839653492</v>
+        <v>2.805728319275008</v>
       </c>
       <c r="E7" t="n">
-        <v>2.184565232126987</v>
+        <v>1.958054130845466</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7568566075265053</v>
+        <v>-0.8476741884295422</v>
       </c>
       <c r="G7" t="n">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="H7" t="n">
-        <v>116.0001884629767</v>
+        <v>42.61190448209663</v>
       </c>
       <c r="I7" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K7" t="n">
-        <v>377.1926858403425</v>
+        <v>295.7010421898184</v>
       </c>
       <c r="L7" t="n">
-        <v>12.72223856170653</v>
+        <v>9.672131505681579</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7164481491330837</v>
+        <v>0.8302120259382448</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.2265625</v>
       </c>
       <c r="R7" t="n">
-        <v>1.345771074090015</v>
+        <v>0.1649501466807419</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8524303624137712</v>
+        <v>0.8320388110428787</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>813</v>
+        <v>1657</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2003</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>2150</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
-        <v>2.110267032577015</v>
+        <v>2.878230857501778</v>
       </c>
       <c r="E8" t="n">
-        <v>1.35341042505051</v>
+        <v>2.272282247754756</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7568566075265053</v>
+        <v>-0.6059486097470221</v>
       </c>
       <c r="G8" t="n">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="H8" t="n">
-        <v>44.89422042283604</v>
+        <v>27.38149817685481</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="K8" t="n">
-        <v>200.4077722952154</v>
+        <v>149.5011481458317</v>
       </c>
       <c r="L8" t="n">
-        <v>9.127327558196143</v>
+        <v>6.769194586688646</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9090304657326743</v>
+        <v>0.7517547435239045</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.272108843537415</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4353614132075559</v>
+        <v>0.5125367428058236</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9271870342089522</v>
+        <v>0.559424296971562</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>814</v>
+        <v>1658</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2391</v>
+        <v>2541</v>
       </c>
       <c r="B9" t="n">
-        <v>2449</v>
+        <v>2585</v>
       </c>
       <c r="C9" t="n">
-        <v>2528</v>
+        <v>2641</v>
       </c>
       <c r="D9" t="n">
-        <v>2.370461686704217</v>
+        <v>1.951452480676061</v>
       </c>
       <c r="E9" t="n">
-        <v>1.613605079177712</v>
+        <v>1.345503870929039</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7568566075265053</v>
+        <v>-0.6059486097470221</v>
       </c>
       <c r="G9" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1108406501744</v>
+        <v>65.5557289623971</v>
       </c>
       <c r="I9" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>226.7298019637497</v>
+        <v>129.9114777447005</v>
       </c>
       <c r="L9" t="n">
-        <v>10.2527215488374</v>
+        <v>4.589542056344366</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.6546662175017764</v>
+        <v>0.660666723200413</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7341772151898734</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07554838059188433</v>
+        <v>0.1450156183706548</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9621767386660635</v>
+        <v>0.8228898651755951</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>815</v>
+        <v>1659</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>552</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>625</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>2.277423166765685</v>
+        <v>2.162493531841156</v>
       </c>
       <c r="E10" t="n">
-        <v>1.657134595740083</v>
+        <v>1.584914505015944</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6202885710256021</v>
+        <v>-0.5775790268252122</v>
       </c>
       <c r="G10" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
-        <v>61.54082694379974</v>
+        <v>27.36973017803567</v>
       </c>
       <c r="I10" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K10" t="n">
-        <v>165.7443497139086</v>
+        <v>75.1263711891999</v>
       </c>
       <c r="L10" t="n">
-        <v>5.098936642174264</v>
+        <v>5.133925332971557</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7966871660202246</v>
+        <v>0.7587513072493917</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6301369863013698</v>
+        <v>0.46875</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2050908720377831</v>
+        <v>0.1090976927937362</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9457732116657643</v>
+        <v>0.9727382718294949</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>816</v>
+        <v>1660</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>625</v>
+        <v>2183</v>
       </c>
       <c r="B11" t="n">
-        <v>702</v>
+        <v>2215</v>
       </c>
       <c r="C11" t="n">
-        <v>889</v>
+        <v>2305</v>
       </c>
       <c r="D11" t="n">
-        <v>2.520524912265306</v>
+        <v>2.702815582024888</v>
       </c>
       <c r="E11" t="n">
-        <v>1.900236341239704</v>
+        <v>2.125236555199676</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6202885710256021</v>
+        <v>-0.5775790268252122</v>
       </c>
       <c r="G11" t="n">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="H11" t="n">
-        <v>132.7449151738725</v>
+        <v>45.51204888138955</v>
       </c>
       <c r="I11" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>385.6928413359955</v>
+        <v>175.6846835702573</v>
       </c>
       <c r="L11" t="n">
-        <v>5.643218625423306</v>
+        <v>6.416691279115044</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.792489845204191</v>
+        <v>0.8454300802886403</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R11" t="n">
-        <v>0.276767304654908</v>
+        <v>0.1494980911784519</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8684959605579503</v>
+        <v>0.7905795799733666</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>817</v>
+        <v>1661</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>962</v>
+        <v>632</v>
       </c>
       <c r="B12" t="n">
-        <v>1067</v>
+        <v>668</v>
       </c>
       <c r="C12" t="n">
-        <v>1248</v>
+        <v>719</v>
       </c>
       <c r="D12" t="n">
-        <v>2.125492435590927</v>
+        <v>2.094754125966929</v>
       </c>
       <c r="E12" t="n">
-        <v>1.596078295215818</v>
+        <v>1.337462070057641</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.529414140375109</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G12" t="n">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="H12" t="n">
-        <v>84.58210707692979</v>
+        <v>130.6782340386588</v>
       </c>
       <c r="I12" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="K12" t="n">
-        <v>286.4129204864748</v>
+        <v>126.3590883753763</v>
       </c>
       <c r="L12" t="n">
-        <v>8.080964960539241</v>
+        <v>9.132795314018434</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7823426400103447</v>
+        <v>0.7513675072739343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.580110497237569</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2403074675001129</v>
+        <v>0.4564602305370219</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9527617757527458</v>
+        <v>0.9658157710731531</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>818</v>
+        <v>1662</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>87</v>
+        <v>898</v>
       </c>
       <c r="B13" t="n">
-        <v>103</v>
+        <v>978</v>
       </c>
       <c r="C13" t="n">
-        <v>166</v>
+        <v>1133</v>
       </c>
       <c r="D13" t="n">
-        <v>3.605151386137911</v>
+        <v>2.386217123951576</v>
       </c>
       <c r="E13" t="n">
-        <v>3.100501704002949</v>
+        <v>1.628925068042288</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5046496821349614</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G13" t="n">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="H13" t="n">
-        <v>38.01763765266503</v>
+        <v>124.9624959986095</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="K13" t="n">
-        <v>226.9843225732055</v>
+        <v>262.1277087003609</v>
       </c>
       <c r="L13" t="n">
-        <v>19.02869758188437</v>
+        <v>10.40352769697781</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8355536067706846</v>
+        <v>0.7223348737814447</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.253968253968254</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1083479502445146</v>
+        <v>0.4910930793042526</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9142027351955595</v>
+        <v>0.9363883743265052</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>819</v>
+        <v>1663</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2063</v>
+        <v>1861</v>
       </c>
       <c r="B14" t="n">
-        <v>2098</v>
+        <v>1888</v>
       </c>
       <c r="C14" t="n">
-        <v>2170</v>
+        <v>1966</v>
       </c>
       <c r="D14" t="n">
-        <v>1.564137728218281</v>
+        <v>2.78792768838703</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05948804608332</v>
+        <v>2.030635632477741</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5046496821349614</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G14" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
-        <v>70.78965637588044</v>
+        <v>20.54237929693545</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K14" t="n">
-        <v>92.99951901094953</v>
+        <v>192.8941918912656</v>
       </c>
       <c r="L14" t="n">
-        <v>8.255826349241342</v>
+        <v>12.15492196086276</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.840576905761466</v>
+        <v>0.8366326218449328</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2479399133445885</v>
+        <v>0.3548623859871657</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9533207422331497</v>
+        <v>0.837720082182128</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>820</v>
+        <v>1664</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251</v>
+        <v>1966</v>
       </c>
       <c r="B15" t="n">
-        <v>291</v>
+        <v>2001</v>
       </c>
       <c r="C15" t="n">
-        <v>342</v>
+        <v>2152</v>
       </c>
       <c r="D15" t="n">
-        <v>2.950338868602142</v>
+        <v>2.255562507715894</v>
       </c>
       <c r="E15" t="n">
-        <v>2.297997078013474</v>
+        <v>1.498270451806605</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6523417905886686</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="H15" t="n">
-        <v>310.0716036894541</v>
+        <v>40.05709823089501</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="K15" t="n">
-        <v>222.8524085070034</v>
+        <v>197.8216066274847</v>
       </c>
       <c r="L15" t="n">
-        <v>10.92632809041122</v>
+        <v>9.833894319904823</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.542553725527894</v>
+        <v>0.8746154074477246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03960153843667665</v>
+        <v>0.4412245370653076</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8791005548746886</v>
+        <v>0.925249518389461</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>821</v>
+        <v>1665</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>342</v>
+        <v>2382</v>
       </c>
       <c r="B16" t="n">
-        <v>385</v>
+        <v>2446</v>
       </c>
       <c r="C16" t="n">
-        <v>571</v>
+        <v>2531</v>
       </c>
       <c r="D16" t="n">
-        <v>2.65862411604907</v>
+        <v>2.468023084760832</v>
       </c>
       <c r="E16" t="n">
-        <v>2.006282325460401</v>
+        <v>1.710731028851543</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6523417905886686</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G16" t="n">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="H16" t="n">
-        <v>42.20297424082992</v>
+        <v>47.54064808427393</v>
       </c>
       <c r="I16" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J16" t="n">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="K16" t="n">
-        <v>357.2162752128463</v>
+        <v>241.6895250384773</v>
       </c>
       <c r="L16" t="n">
-        <v>9.845987411878193</v>
+        <v>10.76018869421666</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7903881286496997</v>
+        <v>0.5326484259952603</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2311827956989247</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2819663696142712</v>
+        <v>0.1281487412868254</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9002198486502253</v>
+        <v>0.9449351849824289</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>822</v>
+        <v>1666</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,73 +1847,73 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>970</v>
+        <v>2605</v>
       </c>
       <c r="B17" t="n">
-        <v>999</v>
+        <v>2636</v>
       </c>
       <c r="C17" t="n">
-        <v>1200</v>
+        <v>2704</v>
       </c>
       <c r="D17" t="n">
-        <v>2.087255980134941</v>
+        <v>2.863103376351341</v>
       </c>
       <c r="E17" t="n">
-        <v>1.434914189546272</v>
+        <v>2.105811320442053</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6523417905886686</v>
+        <v>-0.7572920559092886</v>
       </c>
       <c r="G17" t="n">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="H17" t="n">
-        <v>29.14045790221508</v>
+        <v>84.90955283174389</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>229.1624243785368</v>
+        <v>231.8337677225668</v>
       </c>
       <c r="L17" t="n">
-        <v>7.729974305776138</v>
+        <v>12.48267602147437</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1128), 'value': np.float64(0.3225937945839919), 'amplitude': np.float64(0.9749355851726604), 'start_idx': np.int64(1121), 'end_idx': np.int64(1141), 'duration': np.float64(20.0), 'fwhm': np.float64(75.83390183881284), 'rise_time': np.float64(7.0), 'decay_time': np.float64(13.0), 'auc': np.float64(17.13450091660545)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7010634258034846</v>
+        <v>0.7039406853090113</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1442786069651741</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4474892952621169</v>
+        <v>0.1159819560879055</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4927617443575081</v>
+        <v>0.7639616117912946</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>823</v>
+        <v>1667</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>256</v>
+        <v>2279</v>
       </c>
       <c r="B18" t="n">
-        <v>291</v>
+        <v>2331</v>
       </c>
       <c r="C18" t="n">
-        <v>404</v>
+        <v>2413</v>
       </c>
       <c r="D18" t="n">
-        <v>4.073860552202423</v>
+        <v>2.011514134020154</v>
       </c>
       <c r="E18" t="n">
-        <v>3.537319068319165</v>
+        <v>1.455952250984818</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5365414838832582</v>
+        <v>-0.555561883035336</v>
       </c>
       <c r="G18" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H18" t="n">
-        <v>151.6034840913912</v>
+        <v>77.01513574548517</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J18" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>280.3307179715833</v>
+        <v>155.3763453411681</v>
       </c>
       <c r="L18" t="n">
-        <v>17.6985606633908</v>
+        <v>3.764535391017747</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8835642597416546</v>
+        <v>0.7954958230647502</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3097345132743363</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4865515575700828</v>
+        <v>0.3895901789739379</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8727612495594429</v>
+        <v>0.9228977884107287</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>824</v>
+        <v>1668</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="B19" t="n">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="C19" t="n">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="D19" t="n">
-        <v>2.074245757510298</v>
+        <v>2.439875408652699</v>
       </c>
       <c r="E19" t="n">
-        <v>1.53770427362704</v>
+        <v>1.802764166935991</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5365414838832582</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G19" t="n">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H19" t="n">
-        <v>83.17741965228919</v>
+        <v>61.41815860532472</v>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
         <v>84</v>
       </c>
       <c r="K19" t="n">
-        <v>188.7733967279843</v>
+        <v>171.8924799995518</v>
       </c>
       <c r="L19" t="n">
-        <v>9.011394449972055</v>
+        <v>5.503878616476888</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6732680396986331</v>
+        <v>0.8452011944434168</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2791953682191074</v>
+        <v>0.2021965955796134</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7708970525860708</v>
+        <v>0.9486047252092447</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>825</v>
+        <v>1669</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251</v>
+        <v>631</v>
       </c>
       <c r="B20" t="n">
-        <v>289</v>
+        <v>687</v>
       </c>
       <c r="C20" t="n">
-        <v>467</v>
+        <v>894</v>
       </c>
       <c r="D20" t="n">
-        <v>3.860733705752895</v>
+        <v>2.54624813483434</v>
       </c>
       <c r="E20" t="n">
-        <v>3.22789399582051</v>
+        <v>1.909136893117633</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6328397099323856</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G20" t="n">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="H20" t="n">
-        <v>243.8310865473008</v>
+        <v>138.9080654061148</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="K20" t="n">
-        <v>371.0297588527038</v>
+        <v>388.0575189305479</v>
       </c>
       <c r="L20" t="n">
-        <v>18.72376602683173</v>
+        <v>5.743834546575294</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8641981205763383</v>
+        <v>0.8537090753985463</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2134831460674157</v>
+        <v>0.2705314009661836</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5066754709928531</v>
+        <v>0.2318151696174269</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8813804150229646</v>
+        <v>0.8107775027397026</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>826</v>
+        <v>1670</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>467</v>
+        <v>1031</v>
       </c>
       <c r="B21" t="n">
-        <v>510</v>
+        <v>1096</v>
       </c>
       <c r="C21" t="n">
-        <v>638</v>
+        <v>1225</v>
       </c>
       <c r="D21" t="n">
-        <v>2.941725812557611</v>
+        <v>2.767315699356893</v>
       </c>
       <c r="E21" t="n">
-        <v>2.308886102625226</v>
+        <v>2.130204457640185</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6328397099323856</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G21" t="n">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H21" t="n">
-        <v>46.68974579025655</v>
+        <v>247.7688399609642</v>
       </c>
       <c r="I21" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J21" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" t="n">
-        <v>241.2405412339314</v>
+        <v>340.772819122228</v>
       </c>
       <c r="L21" t="n">
-        <v>14.26676637845935</v>
+        <v>6.242519453541171</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8546078933050208</v>
+        <v>0.7021887749027371</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3359375</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3811999074790879</v>
+        <v>0.3645884858088337</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7173644228968601</v>
+        <v>0.8863570208657645</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>827</v>
+        <v>1671</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="B22" t="n">
-        <v>91</v>
+        <v>1831</v>
       </c>
       <c r="C22" t="n">
-        <v>211</v>
+        <v>1933</v>
       </c>
       <c r="D22" t="n">
-        <v>2.920455477296396</v>
+        <v>2.842916495456862</v>
       </c>
       <c r="E22" t="n">
-        <v>2.39131688747766</v>
+        <v>2.205805253740154</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5291385898187356</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G22" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3552044910317</v>
+        <v>135.7722493454737</v>
       </c>
       <c r="I22" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K22" t="n">
-        <v>388.6965382308419</v>
+        <v>225.2594908834185</v>
       </c>
       <c r="L22" t="n">
-        <v>7.061826725114492</v>
+        <v>6.413059967031169</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6099791971778965</v>
+        <v>0.9052844383579619</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8708469882554242</v>
+        <v>0.2889123330118719</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9259538693624736</v>
+        <v>0.9570257248253653</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>828</v>
+        <v>1672</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>187</v>
+        <v>674</v>
       </c>
       <c r="B23" t="n">
-        <v>275</v>
+        <v>690</v>
       </c>
       <c r="C23" t="n">
-        <v>475</v>
+        <v>764</v>
       </c>
       <c r="D23" t="n">
-        <v>3.295054002533996</v>
+        <v>1.853383450828162</v>
       </c>
       <c r="E23" t="n">
-        <v>2.737149247073991</v>
+        <v>1.348810707999719</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5579047554600054</v>
+        <v>-0.5045727428284431</v>
       </c>
       <c r="G23" t="n">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="H23" t="n">
-        <v>246.0957058790225</v>
+        <v>22.29520382698252</v>
       </c>
       <c r="I23" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="K23" t="n">
-        <v>507.2860760270568</v>
+        <v>105.83535520404</v>
       </c>
       <c r="L23" t="n">
-        <v>10.11542140211616</v>
+        <v>3.935572174596895</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(742), 'value': np.float64(0.9441126827284602), 'amplitude': np.float64(1.4486854255569033), 'start_idx': np.int64(738), 'end_idx': np.int64(763), 'duration': np.float64(25.0), 'fwhm': np.float64(22.552886260600417), 'rise_time': np.float64(4.0), 'decay_time': np.float64(21.0), 'auc': np.float64(24.18137427060929)}]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6359925907510576</v>
+        <v>0.7613290814138909</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.44</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3280167655949295</v>
+        <v>0.2584570542547799</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5226190313218614</v>
+        <v>0.3703756461733808</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>829</v>
+        <v>1673</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>902</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>986</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>5.519545500299047</v>
+        <v>3.969265087309546</v>
       </c>
       <c r="E24" t="n">
-        <v>5.067418404173026</v>
+        <v>3.418259088692626</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4521270961260211</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G24" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>85.39534727715693</v>
+        <v>112.936191757686</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>435.3960553118958</v>
+        <v>157.1602338986017</v>
       </c>
       <c r="L24" t="n">
-        <v>25.33293652662893</v>
+        <v>14.82974756248723</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7976968792743362</v>
+        <v>0.7153584076456888</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3793511829958881</v>
+        <v>0.2078721792812474</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9275013730291721</v>
+        <v>0.9067244111730958</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>830</v>
+        <v>1674</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1840</v>
+        <v>963</v>
       </c>
       <c r="B25" t="n">
-        <v>1878</v>
+        <v>1076</v>
       </c>
       <c r="C25" t="n">
-        <v>2002</v>
+        <v>1255</v>
       </c>
       <c r="D25" t="n">
-        <v>4.0377498447386</v>
+        <v>2.220543523685725</v>
       </c>
       <c r="E25" t="n">
-        <v>3.544156581518952</v>
+        <v>1.669537525068805</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4935932632196477</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G25" t="n">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="H25" t="n">
-        <v>132.8158717789486</v>
+        <v>82.36828848573941</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="J25" t="n">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="K25" t="n">
-        <v>432.8960889275203</v>
+        <v>295.2143080604648</v>
       </c>
       <c r="L25" t="n">
-        <v>17.88233314636733</v>
+        <v>8.296271270230509</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8832370348933101</v>
+        <v>0.7443830515973038</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.6312849162011173</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4005345850411746</v>
+        <v>0.2553242073507193</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8294032876827296</v>
+        <v>0.9217835026410355</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>831</v>
+        <v>1675</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2501</v>
+        <v>1255</v>
       </c>
       <c r="B26" t="n">
-        <v>2554</v>
+        <v>1340</v>
       </c>
       <c r="C26" t="n">
-        <v>2713</v>
+        <v>1496</v>
       </c>
       <c r="D26" t="n">
-        <v>2.804289658793109</v>
+        <v>3.619792774170327</v>
       </c>
       <c r="E26" t="n">
-        <v>2.123888295299654</v>
+        <v>3.068786775553406</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6804013634934553</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G26" t="n">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="H26" t="n">
-        <v>91.50854842597937</v>
+        <v>104.1161869428956</v>
       </c>
       <c r="I26" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="J26" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K26" t="n">
-        <v>349.9301697333111</v>
+        <v>407.1303503503513</v>
       </c>
       <c r="L26" t="n">
-        <v>10.72443057668999</v>
+        <v>13.52406853376658</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7988099386474883</v>
+        <v>0.7338814590216104</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05894530156765841</v>
+        <v>0.2149800678981111</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9578212095148284</v>
+        <v>0.922157637536081</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>832</v>
+        <v>1676</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1410</v>
+        <v>86</v>
       </c>
       <c r="B27" t="n">
-        <v>1457</v>
+        <v>121</v>
       </c>
       <c r="C27" t="n">
-        <v>1526</v>
+        <v>165</v>
       </c>
       <c r="D27" t="n">
-        <v>3.95254712428047</v>
+        <v>3.764116510360032</v>
       </c>
       <c r="E27" t="n">
-        <v>3.356544551482983</v>
+        <v>3.261158120071443</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5960025727974863</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G27" t="n">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>240.7860392702712</v>
+        <v>31.10491085891734</v>
       </c>
       <c r="I27" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J27" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="K27" t="n">
-        <v>354.3050467432154</v>
+        <v>229.0285705050167</v>
       </c>
       <c r="L27" t="n">
-        <v>19.40524604416395</v>
+        <v>18.59089134953652</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6864585325902953</v>
+        <v>0.6729081011415606</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6811594202898551</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="R27" t="n">
-        <v>0.529321764578421</v>
+        <v>0.236356300536905</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6629955311601843</v>
+        <v>0.9676917881450167</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>833</v>
+        <v>1677</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1526</v>
+        <v>2062</v>
       </c>
       <c r="B28" t="n">
-        <v>1556</v>
+        <v>2094</v>
       </c>
       <c r="C28" t="n">
-        <v>1597</v>
+        <v>2179</v>
       </c>
       <c r="D28" t="n">
-        <v>3.479749387272026</v>
+        <v>1.685505898569871</v>
       </c>
       <c r="E28" t="n">
-        <v>2.883746814474539</v>
+        <v>1.182547508281283</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5960025727974863</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G28" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="H28" t="n">
-        <v>25.07750489086743</v>
+        <v>67.49583323300976</v>
       </c>
       <c r="I28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="K28" t="n">
-        <v>194.8699083142431</v>
+        <v>95.56829069827987</v>
       </c>
       <c r="L28" t="n">
-        <v>17.08401972420123</v>
+        <v>8.32467776782984</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6602400532227923</v>
+        <v>0.8851723901160464</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.3764705882352941</v>
       </c>
       <c r="R28" t="n">
-        <v>0.09911468118112125</v>
+        <v>0.262234032510669</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9827768291497007</v>
+        <v>0.9091571970697651</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>834</v>
+        <v>1678</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2178</v>
+        <v>2911</v>
       </c>
       <c r="B29" t="n">
-        <v>2199</v>
+        <v>2925</v>
       </c>
       <c r="C29" t="n">
-        <v>2281</v>
+        <v>2998</v>
       </c>
       <c r="D29" t="n">
-        <v>2.083325053441089</v>
+        <v>0.9393580592214783</v>
       </c>
       <c r="E29" t="n">
-        <v>1.487322480643603</v>
+        <v>0.4363996689328901</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5960025727974863</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G29" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H29" t="n">
-        <v>28.97721444106264</v>
+        <v>22.77216793255275</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K29" t="n">
-        <v>147.9490082022828</v>
+        <v>50.11509621986745</v>
       </c>
       <c r="L29" t="n">
-        <v>10.22819816711353</v>
+        <v>4.639469466269959</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8851151869348152</v>
+        <v>0.8677262795093758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2560975609756098</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2382369209829609</v>
+        <v>0.284448839115896</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7614680506381299</v>
+        <v>0.8745297351341554</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>835</v>
+        <v>1679</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1475</v>
+        <v>256</v>
       </c>
       <c r="B30" t="n">
-        <v>1521</v>
+        <v>296</v>
       </c>
       <c r="C30" t="n">
-        <v>1616</v>
+        <v>350</v>
       </c>
       <c r="D30" t="n">
-        <v>4.619082713643827</v>
+        <v>2.858395109363791</v>
       </c>
       <c r="E30" t="n">
-        <v>4.080968513649609</v>
+        <v>2.200751977246922</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5381141999942186</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G30" t="n">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H30" t="n">
-        <v>233.7332683954342</v>
+        <v>49.9872821942111</v>
       </c>
       <c r="I30" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K30" t="n">
-        <v>423.6522870630894</v>
+        <v>226.9029256275016</v>
       </c>
       <c r="L30" t="n">
-        <v>25.90191596814122</v>
+        <v>9.858786233646365</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7689581768966005</v>
+        <v>0.5868539478882827</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1660993470367098</v>
+        <v>0.1155654152507736</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9724587217641836</v>
+        <v>0.8847941876685436</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>836</v>
+        <v>1680</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2440</v>
+        <v>350</v>
       </c>
       <c r="B31" t="n">
-        <v>2482</v>
+        <v>382</v>
       </c>
       <c r="C31" t="n">
-        <v>2606</v>
+        <v>478</v>
       </c>
       <c r="D31" t="n">
-        <v>3.115551065297181</v>
+        <v>2.663481309339887</v>
       </c>
       <c r="E31" t="n">
-        <v>2.539830972570536</v>
+        <v>2.005838177223018</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5757200927266453</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G31" t="n">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H31" t="n">
-        <v>85.20532737971826</v>
+        <v>49.85852510900071</v>
       </c>
       <c r="I31" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K31" t="n">
-        <v>244.2228110248792</v>
+        <v>244.3271965677432</v>
       </c>
       <c r="L31" t="n">
-        <v>8.936163466702052</v>
+        <v>9.186516160790317</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9119677969853753</v>
+        <v>0.8402641580437811</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R31" t="n">
-        <v>0.290334178775069</v>
+        <v>0.09547631616894366</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9051939794369641</v>
+        <v>0.9268498099884983</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>837</v>
+        <v>1681</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1884</v>
+        <v>478</v>
       </c>
       <c r="B32" t="n">
-        <v>1931</v>
+        <v>489</v>
       </c>
       <c r="C32" t="n">
-        <v>2011</v>
+        <v>523</v>
       </c>
       <c r="D32" t="n">
-        <v>4.211233875983806</v>
+        <v>1.491821954488696</v>
       </c>
       <c r="E32" t="n">
-        <v>3.684637373937897</v>
+        <v>0.8341788223718276</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5265965020459098</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G32" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="H32" t="n">
-        <v>75.41715622479728</v>
+        <v>20.16468317384778</v>
       </c>
       <c r="I32" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K32" t="n">
-        <v>289.5530255218513</v>
+        <v>54.53869666132923</v>
       </c>
       <c r="L32" t="n">
-        <v>23.55393578678493</v>
+        <v>5.145388648260778</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8179931529222934</v>
+        <v>0.7766880229701415</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5875</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2700389006193051</v>
+        <v>0.08848847656339963</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9744722199758891</v>
+        <v>0.7339005278284083</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>838</v>
+        <v>1682</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,73 +3223,73 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1411</v>
+        <v>1022</v>
       </c>
       <c r="B33" t="n">
-        <v>1451</v>
+        <v>1042</v>
       </c>
       <c r="C33" t="n">
-        <v>1537</v>
+        <v>1217</v>
       </c>
       <c r="D33" t="n">
-        <v>3.429530493779157</v>
+        <v>1.827691581359484</v>
       </c>
       <c r="E33" t="n">
-        <v>2.951917707171885</v>
+        <v>1.170048449242616</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4776127866072721</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G33" t="n">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="H33" t="n">
-        <v>39.02685539348249</v>
+        <v>15.37909927289525</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="K33" t="n">
-        <v>218.6781309733561</v>
+        <v>146.9145075949202</v>
       </c>
       <c r="L33" t="n">
-        <v>20.0873187890953</v>
+        <v>6.303824318279354</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1110), 'value': np.float64(0.3249952152838888), 'amplitude': np.float64(0.9826383474007574), 'start_idx': np.int64(1099), 'end_idx': np.int64(1113), 'duration': np.float64(14.0), 'fwhm': np.float64(85.38785607844216), 'rise_time': np.float64(11.0), 'decay_time': np.float64(3.0), 'auc': np.float64(12.553976627928408)}]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8724852698340019</v>
+        <v>0.6268829317201016</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2612499018297942</v>
+        <v>0.5473409104318145</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9735594617423654</v>
+        <v>0.2501357831423251</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>839</v>
+        <v>1683</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,73 +3309,73 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>568</v>
+        <v>1421</v>
       </c>
       <c r="B34" t="n">
-        <v>814</v>
+        <v>1459</v>
       </c>
       <c r="C34" t="n">
-        <v>1192</v>
+        <v>1535</v>
       </c>
       <c r="D34" t="n">
-        <v>2.734372283032605</v>
+        <v>2.886982616799114</v>
       </c>
       <c r="E34" t="n">
-        <v>2.259933344437554</v>
+        <v>2.229339484682245</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4744389385950512</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G34" t="n">
-        <v>624</v>
+        <v>114</v>
       </c>
       <c r="H34" t="n">
-        <v>208.1207857545377</v>
+        <v>148.1245041777454</v>
       </c>
       <c r="I34" t="n">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="J34" t="n">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="K34" t="n">
-        <v>665.008874969304</v>
+        <v>211.9688930290862</v>
       </c>
       <c r="L34" t="n">
-        <v>6.292591390228469</v>
+        <v>9.957386362031119</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(589), 'value': np.float64(0.62725234532408), 'amplitude': np.float64(1.101691283919131), 'start_idx': np.int64(569), 'end_idx': np.int64(619), 'duration': np.float64(50.0), 'fwhm': np.float64(24.719768677670913), 'rise_time': np.float64(20.0), 'decay_time': np.float64(30.0), 'auc': np.float64(31.823126388302704)}, {'index': np.int64(699), 'value': np.float64(1.5603248715567024), 'amplitude': np.float64(2.0347638101517536), 'start_idx': np.int64(689), 'end_idx': np.int64(737), 'duration': np.float64(48.0), 'fwhm': np.float64(64.38927276391689), 'rise_time': np.float64(10.0), 'decay_time': np.float64(38.0), 'auc': np.float64(74.28927704832496)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.615300250031769</v>
+        <v>0.8007425862917832</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6507936507936508</v>
+        <v>0.5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4713837756345884</v>
+        <v>0.3799122875327303</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7972388243151129</v>
+        <v>0.9016138416985215</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>840</v>
+        <v>1684</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1318</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>1412</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>1546</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>2.382011177290442</v>
+        <v>1.219563910145253</v>
       </c>
       <c r="E35" t="n">
-        <v>1.882935484422899</v>
+        <v>0.6880959135164362</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4990756928675431</v>
+        <v>-0.5314679966288166</v>
       </c>
       <c r="G35" t="n">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>54.95190651083203</v>
+        <v>20.36115035808934</v>
       </c>
       <c r="I35" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>284.630563359562</v>
+        <v>38.6911498636556</v>
       </c>
       <c r="L35" t="n">
-        <v>8.903507666074425</v>
+        <v>4.717874964158657</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.5283844197293144</v>
+        <v>0.8003727812940333</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3432192145177742</v>
+        <v>0.2421884171818693</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4258703594790707</v>
+        <v>0.9435853759883135</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>841</v>
+        <v>1685</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,85 +3481,4299 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1032</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>1112</v>
+        <v>90</v>
       </c>
       <c r="C36" t="n">
+        <v>147</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.591629800911818</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.060161804283002</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5314679966288166</v>
+      </c>
+      <c r="G36" t="n">
+        <v>92</v>
+      </c>
+      <c r="H36" t="n">
+        <v>38.72342380788592</v>
+      </c>
+      <c r="I36" t="n">
+        <v>35</v>
+      </c>
+      <c r="J36" t="n">
+        <v>57</v>
+      </c>
+      <c r="K36" t="n">
+        <v>181.9120529298611</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13.89419625924306</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.775351898777315</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.14392531656706</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.976091201812836</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1686</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>257</v>
+      </c>
+      <c r="B37" t="n">
+        <v>285</v>
+      </c>
+      <c r="C37" t="n">
+        <v>337</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.34425960930284</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.812791612674023</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5314679966288166</v>
+      </c>
+      <c r="G37" t="n">
+        <v>80</v>
+      </c>
+      <c r="H37" t="n">
+        <v>58.07508092777937</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28</v>
+      </c>
+      <c r="J37" t="n">
+        <v>52</v>
+      </c>
+      <c r="K37" t="n">
+        <v>213.2121900439572</v>
+      </c>
+      <c r="L37" t="n">
+        <v>16.80573972223765</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.71843310395011</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1099115777656333</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.9590291470943585</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1687</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>337</v>
+      </c>
+      <c r="B38" t="n">
+        <v>365</v>
+      </c>
+      <c r="C38" t="n">
+        <v>406</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.39282582101496</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8613578243861438</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5314679966288166</v>
+      </c>
+      <c r="G38" t="n">
+        <v>69</v>
+      </c>
+      <c r="H38" t="n">
+        <v>19.48929319233537</v>
+      </c>
+      <c r="I38" t="n">
+        <v>28</v>
+      </c>
+      <c r="J38" t="n">
+        <v>41</v>
+      </c>
+      <c r="K38" t="n">
+        <v>63.82087688411286</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.388137526648822</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.792163363819586</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6829268292682927</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2932230100607816</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9811442680272917</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1688</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>406</v>
+      </c>
+      <c r="B39" t="n">
+        <v>457</v>
+      </c>
+      <c r="C39" t="n">
+        <v>541</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.249201644367131</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.717733647738314</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5314679966288166</v>
+      </c>
+      <c r="G39" t="n">
+        <v>135</v>
+      </c>
+      <c r="H39" t="n">
+        <v>81.26424488109319</v>
+      </c>
+      <c r="I39" t="n">
+        <v>51</v>
+      </c>
+      <c r="J39" t="n">
+        <v>84</v>
+      </c>
+      <c r="K39" t="n">
+        <v>183.4111537313464</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.701021766083848</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6405673363560775</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.4910289252496242</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.562357520815872</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1689</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1361</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.706985010459216</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.175517013830399</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5314679966288166</v>
+      </c>
+      <c r="G40" t="n">
+        <v>74</v>
+      </c>
+      <c r="H40" t="n">
+        <v>47.2927060913994</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>47</v>
+      </c>
+      <c r="K40" t="n">
+        <v>146.0210553843788</v>
+      </c>
+      <c r="L40" t="n">
+        <v>14.34044712857562</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8161208917450975</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.225133007614346</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9694255969258897</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1690</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>258</v>
+      </c>
+      <c r="B41" t="n">
+        <v>293</v>
+      </c>
+      <c r="C41" t="n">
+        <v>346</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.932039702465244</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.304110835515995</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.6279288669492494</v>
+      </c>
+      <c r="G41" t="n">
+        <v>88</v>
+      </c>
+      <c r="H41" t="n">
+        <v>249.545996685854</v>
+      </c>
+      <c r="I41" t="n">
+        <v>35</v>
+      </c>
+      <c r="J41" t="n">
+        <v>53</v>
+      </c>
+      <c r="K41" t="n">
+        <v>248.5559108165131</v>
+      </c>
+      <c r="L41" t="n">
+        <v>17.51090017981524</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7069099133850633</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1746987258942367</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9317477466854359</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1691</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>346</v>
+      </c>
+      <c r="B42" t="n">
+        <v>368</v>
+      </c>
+      <c r="C42" t="n">
+        <v>437</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.971370295141194</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.343441428191944</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6279288669492494</v>
+      </c>
+      <c r="G42" t="n">
+        <v>91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21.70444162642082</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" t="n">
+        <v>69</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97.93297408640865</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.779277694990538</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8550588127987516</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.3943175014013402</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.7607251604198526</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1692</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>544</v>
+      </c>
+      <c r="B43" t="n">
+        <v>569</v>
+      </c>
+      <c r="C43" t="n">
+        <v>650</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.425086589464224</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7971577225149751</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6279288669492494</v>
+      </c>
+      <c r="G43" t="n">
+        <v>106</v>
+      </c>
+      <c r="H43" t="n">
+        <v>42.46004675143786</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>81</v>
+      </c>
+      <c r="K43" t="n">
+        <v>120.2622302492802</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.346464151940224</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8690808446352113</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.308641975308642</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1318675402428822</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8697663365678432</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1693</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.296415185987347</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6684863190380972</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6279288669492494</v>
+      </c>
+      <c r="G44" t="n">
+        <v>63</v>
+      </c>
+      <c r="H44" t="n">
+        <v>99.21146957840438</v>
+      </c>
+      <c r="I44" t="n">
+        <v>28</v>
+      </c>
+      <c r="J44" t="n">
+        <v>35</v>
+      </c>
+      <c r="K44" t="n">
+        <v>57.86279106839006</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.773440410377366</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7141140438980346</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.262392776089849</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8930815365614578</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1694</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>123</v>
+      </c>
+      <c r="B45" t="n">
+        <v>139</v>
+      </c>
+      <c r="C45" t="n">
+        <v>225</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.001398499234824</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.486021728198069</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5153767710367556</v>
+      </c>
+      <c r="G45" t="n">
+        <v>102</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.35417580950514</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16</v>
+      </c>
+      <c r="J45" t="n">
+        <v>86</v>
+      </c>
+      <c r="K45" t="n">
+        <v>210.433918309078</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.940164012467961</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8000333010702954</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.257326628217917</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8379017111171488</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1695</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>127</v>
+      </c>
+      <c r="B46" t="n">
+        <v>151</v>
+      </c>
+      <c r="C46" t="n">
+        <v>192</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.965331610896524</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.386243101243013</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5790885096535117</v>
+      </c>
+      <c r="G46" t="n">
+        <v>65</v>
+      </c>
+      <c r="H46" t="n">
+        <v>61.5886276759604</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>41</v>
+      </c>
+      <c r="K46" t="n">
+        <v>147.0094155243438</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8.832720945234033</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6823808083457809</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.5853658536585366</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2549446043908235</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9710639641154015</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1696</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>249</v>
+      </c>
+      <c r="B47" t="n">
+        <v>281</v>
+      </c>
+      <c r="C47" t="n">
+        <v>347</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.410944804516715</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.831856294863204</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5790885096535117</v>
+      </c>
+      <c r="G47" t="n">
+        <v>98</v>
+      </c>
+      <c r="H47" t="n">
+        <v>232.4831754380059</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>66</v>
+      </c>
+      <c r="K47" t="n">
+        <v>224.4527867617888</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.16005208563614</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7524017353518875</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3144665987524214</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9842346579641246</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1697</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>480</v>
+      </c>
+      <c r="B48" t="n">
+        <v>517</v>
+      </c>
+      <c r="C48" t="n">
+        <v>575</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.024895629948827</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.445807120295315</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5790885096535117</v>
+      </c>
+      <c r="G48" t="n">
+        <v>95</v>
+      </c>
+      <c r="H48" t="n">
+        <v>30.92388817619343</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>58</v>
+      </c>
+      <c r="K48" t="n">
+        <v>145.9800405758852</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.010142032552674</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7750802245586228</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.6379310344827587</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2067787458583066</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8071605064082965</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1698</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2097</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2199</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.259606020517939</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.818679831068857</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.440926189449082</v>
+      </c>
+      <c r="G49" t="n">
+        <v>150</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.50334248845729</v>
+      </c>
+      <c r="I49" t="n">
+        <v>48</v>
+      </c>
+      <c r="J49" t="n">
+        <v>102</v>
+      </c>
+      <c r="K49" t="n">
+        <v>225.7469681954086</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.242728536859191</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.668350709676283</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4916341866903411</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.2556409447061795</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1699</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>842</v>
+      </c>
+      <c r="B50" t="n">
+        <v>894</v>
+      </c>
+      <c r="C50" t="n">
+        <v>992</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.501279038225475</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.045416530711924</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4558625075135505</v>
+      </c>
+      <c r="G50" t="n">
+        <v>150</v>
+      </c>
+      <c r="H50" t="n">
+        <v>85.51351865036338</v>
+      </c>
+      <c r="I50" t="n">
+        <v>52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>98</v>
+      </c>
+      <c r="K50" t="n">
+        <v>444.1889537308926</v>
+      </c>
+      <c r="L50" t="n">
+        <v>23.08327741116186</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7323079484266649</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.009587888884577</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9048218361889462</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1700</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>432</v>
+      </c>
+      <c r="B51" t="n">
+        <v>464</v>
+      </c>
+      <c r="C51" t="n">
+        <v>658</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.220707141899324</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.662212989383068</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5584941525162563</v>
+      </c>
+      <c r="G51" t="n">
+        <v>226</v>
+      </c>
+      <c r="H51" t="n">
+        <v>223.7471612776192</v>
+      </c>
+      <c r="I51" t="n">
+        <v>32</v>
+      </c>
+      <c r="J51" t="n">
+        <v>194</v>
+      </c>
+      <c r="K51" t="n">
+        <v>359.6517443611033</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.323109052108926</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8512184737350422</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.1649484536082474</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4006442850465007</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9093837377215581</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1701</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.651482497539912</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.15549275009162</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4959897474482922</v>
+      </c>
+      <c r="G52" t="n">
+        <v>102</v>
+      </c>
+      <c r="H52" t="n">
+        <v>18.50106351493582</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>84</v>
+      </c>
+      <c r="K52" t="n">
+        <v>267.9153222608537</v>
+      </c>
+      <c r="L52" t="n">
+        <v>15.66594597576139</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8302990985491534</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2293922421974759</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8385898844039764</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1702</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.804293478397057</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.345306794268373</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.458986684128683</v>
+      </c>
+      <c r="G53" t="n">
+        <v>64</v>
+      </c>
+      <c r="H53" t="n">
+        <v>24.71552355753147</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>44</v>
+      </c>
+      <c r="K53" t="n">
+        <v>71.32705824855952</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.406099335286376</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8576925541817394</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.3094618168634281</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.7312880139115162</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1703</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.027554109520533</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.56856742539185</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.458986684128683</v>
+      </c>
+      <c r="G54" t="n">
+        <v>63</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15.21693764645374</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>49</v>
+      </c>
+      <c r="K54" t="n">
+        <v>95.75617270858058</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.951303610625606</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8299956098825397</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1692067886149167</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.768932072340253</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1704</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>1284</v>
       </c>
-      <c r="D36" t="n">
-        <v>3.930816365771802</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.354572897579536</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.5762434681922658</v>
-      </c>
-      <c r="G36" t="n">
-        <v>252</v>
-      </c>
-      <c r="H36" t="n">
-        <v>207.2554784588999</v>
-      </c>
-      <c r="I36" t="n">
-        <v>80</v>
-      </c>
-      <c r="J36" t="n">
-        <v>172</v>
-      </c>
-      <c r="K36" t="n">
-        <v>576.8961086064669</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11.11050311532816</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>0.8216084252657385</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.4651162790697674</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2965352399891326</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.8780760617840794</v>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="B55" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.885138528560688</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.215210457166823</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6699280713938645</v>
+      </c>
+      <c r="G55" t="n">
+        <v>106</v>
+      </c>
+      <c r="H55" t="n">
+        <v>120.2185007917396</v>
+      </c>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="n">
+        <v>76</v>
+      </c>
+      <c r="K55" t="n">
+        <v>155.9953305698722</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.040282915722337</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6958255587030332</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.1544796560012855</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.7988380113125815</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1705</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2076</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.442741776100566</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7728137047067012</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.6699280713938645</v>
+      </c>
+      <c r="G56" t="n">
+        <v>66</v>
+      </c>
+      <c r="H56" t="n">
+        <v>184.0226892407802</v>
+      </c>
+      <c r="I56" t="n">
+        <v>28</v>
+      </c>
+      <c r="J56" t="n">
+        <v>38</v>
+      </c>
+      <c r="K56" t="n">
+        <v>60.84312953223104</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.388097545189354</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7344657064677632</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.306939732683749</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9535709688284538</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1706</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.765028694253318</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.095100622859454</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.6699280713938645</v>
+      </c>
+      <c r="G57" t="n">
+        <v>126</v>
+      </c>
+      <c r="H57" t="n">
+        <v>29.94439715444423</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>81</v>
+      </c>
+      <c r="K57" t="n">
+        <v>141.6627091764057</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.591717888975979</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.6574120537839802</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1952415183525331</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.6855101143277618</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1707</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2709</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.814236959755846</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.144308888361981</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.6699280713938645</v>
+      </c>
+      <c r="G58" t="n">
+        <v>199</v>
+      </c>
+      <c r="H58" t="n">
+        <v>90.79178583498697</v>
+      </c>
+      <c r="I58" t="n">
+        <v>49</v>
+      </c>
+      <c r="J58" t="n">
+        <v>150</v>
+      </c>
+      <c r="K58" t="n">
+        <v>336.5690553768495</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10.51011588187675</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8310550203079857</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.1775477881540104</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9453888242430905</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1708</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.324306236864975</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.726975884305169</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5973303525598063</v>
+      </c>
+      <c r="G59" t="n">
+        <v>45</v>
+      </c>
+      <c r="H59" t="n">
+        <v>65.18592814552471</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>25</v>
+      </c>
+      <c r="K59" t="n">
+        <v>46.9339823855038</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.047163367404425</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.6611588293791275</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1355501040923752</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9951374604854162</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1709</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.091188376155217</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4938580235954113</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5973303525598063</v>
+      </c>
+      <c r="G60" t="n">
+        <v>63</v>
+      </c>
+      <c r="H60" t="n">
+        <v>19.94334485270588</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>39</v>
+      </c>
+      <c r="K60" t="n">
+        <v>48.88984643531861</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.98268013208499</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.82588045895818</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2268870328666394</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9745848852767864</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1710</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.116722893827091</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.519392541267284</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5973303525598063</v>
+      </c>
+      <c r="G61" t="n">
+        <v>84</v>
+      </c>
+      <c r="H61" t="n">
+        <v>53.34892008306178</v>
+      </c>
+      <c r="I61" t="n">
+        <v>30</v>
+      </c>
+      <c r="J61" t="n">
+        <v>54</v>
+      </c>
+      <c r="K61" t="n">
+        <v>139.4418885745445</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.665565853408088</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.6915137442833832</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.09315893197697692</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8982075514613264</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1711</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1601</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.571488175683697</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.974157823123891</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5973303525598063</v>
+      </c>
+      <c r="G62" t="n">
+        <v>73</v>
+      </c>
+      <c r="H62" t="n">
+        <v>30.38918768001372</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28</v>
+      </c>
+      <c r="J62" t="n">
+        <v>45</v>
+      </c>
+      <c r="K62" t="n">
+        <v>197.5047616988038</v>
+      </c>
+      <c r="L62" t="n">
+        <v>16.30844276187952</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.767096175670044</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.1314166731815259</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9938463727416397</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1712</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2198</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2230</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.381094578027278</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.783764225467471</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5973303525598063</v>
+      </c>
+      <c r="G63" t="n">
+        <v>54</v>
+      </c>
+      <c r="H63" t="n">
+        <v>22.02820687130315</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>32</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.89529852482821</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10.87276304056245</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6869384720115495</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.06732754625600168</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9595515710875694</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1713</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.771606568506519</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.228562982318006</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5430435861885128</v>
+      </c>
+      <c r="G64" t="n">
+        <v>134</v>
+      </c>
+      <c r="H64" t="n">
+        <v>115.3699730326739</v>
+      </c>
+      <c r="I64" t="n">
+        <v>35</v>
+      </c>
+      <c r="J64" t="n">
+        <v>99</v>
+      </c>
+      <c r="K64" t="n">
+        <v>412.1523206408957</v>
+      </c>
+      <c r="L64" t="n">
+        <v>25.45720810889554</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8319870526575149</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3535353535353535</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1600208130005496</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9612895651861143</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1714</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.029173927198526</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.428504937236308</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.6006689899622177</v>
+      </c>
+      <c r="G65" t="n">
+        <v>184</v>
+      </c>
+      <c r="H65" t="n">
+        <v>182.1240768873083</v>
+      </c>
+      <c r="I65" t="n">
+        <v>77</v>
+      </c>
+      <c r="J65" t="n">
+        <v>107</v>
+      </c>
+      <c r="K65" t="n">
+        <v>279.950484175862</v>
+      </c>
+      <c r="L65" t="n">
+        <v>8.515269425241884</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.551883653964409</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.719626168224299</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9365896617764102</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.794251848413305</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1715</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.218599268853435</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.617930278891218</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.6006689899622177</v>
+      </c>
+      <c r="G66" t="n">
+        <v>164</v>
+      </c>
+      <c r="H66" t="n">
+        <v>82.81370690405038</v>
+      </c>
+      <c r="I66" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>133</v>
+      </c>
+      <c r="K66" t="n">
+        <v>249.345527864993</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.04776041418018</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.9024284828193114</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.2330827067669173</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2580225942107277</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.827920115537133</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1716</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.130747581209208</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.613987402476519</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5167601787326893</v>
+      </c>
+      <c r="G67" t="n">
+        <v>131</v>
+      </c>
+      <c r="H67" t="n">
+        <v>79.17266266522734</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34</v>
+      </c>
+      <c r="J67" t="n">
+        <v>97</v>
+      </c>
+      <c r="K67" t="n">
+        <v>297.2863283905966</v>
+      </c>
+      <c r="L67" t="n">
+        <v>21.20555660489666</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.9054875845953013</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3505154639175257</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2373551887073947</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9603928012884784</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1717</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2761</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2803</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9650604896193876</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4483003108866983</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5167601787326893</v>
+      </c>
+      <c r="G68" t="n">
+        <v>42</v>
+      </c>
+      <c r="H68" t="n">
+        <v>22.41031476905846</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>24</v>
+      </c>
+      <c r="K68" t="n">
+        <v>22.10057339849218</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.954223040126436</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7201140673944955</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1615241364800977</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9248441765424416</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1718</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.479221145148162</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.065523500384404</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4136976447637583</v>
+      </c>
+      <c r="G69" t="n">
+        <v>85</v>
+      </c>
+      <c r="H69" t="n">
+        <v>23.18304167929819</v>
+      </c>
+      <c r="I69" t="n">
+        <v>19</v>
+      </c>
+      <c r="J69" t="n">
+        <v>66</v>
+      </c>
+      <c r="K69" t="n">
+        <v>76.18855740241951</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.975702946587203</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8771768989793763</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2822648987151745</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.7058320548522758</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1719</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2213</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.631068956453403</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.217371311689645</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4136976447637583</v>
+      </c>
+      <c r="G70" t="n">
+        <v>48</v>
+      </c>
+      <c r="H70" t="n">
+        <v>83.67788472317989</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="n">
+        <v>227.8707933945307</v>
+      </c>
+      <c r="L70" t="n">
+        <v>22.30513635764945</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.5852074720494669</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.06610044198539208</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9293328716525227</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1720</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.966547276821624</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.552849632057866</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4136976447637583</v>
+      </c>
+      <c r="G71" t="n">
+        <v>39</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12.33582484229146</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>28</v>
+      </c>
+      <c r="K71" t="n">
+        <v>92.58018509008386</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.97866889267131</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8794850658598854</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1926275822113243</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9671232498421244</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1721</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9994882515022709</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.509099458115494</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.490388793386777</v>
+      </c>
+      <c r="G72" t="n">
+        <v>87</v>
+      </c>
+      <c r="H72" t="n">
+        <v>45.04970117327116</v>
+      </c>
+      <c r="I72" t="n">
+        <v>30</v>
+      </c>
+      <c r="J72" t="n">
+        <v>57</v>
+      </c>
+      <c r="K72" t="n">
+        <v>51.39967150013261</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.553701683818852</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8095476888584652</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2739111855316982</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.7973333271711703</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1722</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.237573032599237</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7471842392124597</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.490388793386777</v>
+      </c>
+      <c r="G73" t="n">
+        <v>58</v>
+      </c>
+      <c r="H73" t="n">
+        <v>29.46148699042487</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>34</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.13545611362203</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.876630540343642</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.785750492787582</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2230587349664162</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9157988497405417</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1723</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.950413490887396</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.460024697500619</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.490388793386777</v>
+      </c>
+      <c r="G74" t="n">
+        <v>81</v>
+      </c>
+      <c r="H74" t="n">
+        <v>46.44328663341821</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36</v>
+      </c>
+      <c r="J74" t="n">
+        <v>45</v>
+      </c>
+      <c r="K74" t="n">
+        <v>186.8249481615344</v>
+      </c>
+      <c r="L74" t="n">
+        <v>21.95065126893309</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.7697588168389985</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.4054558558435518</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9820607682262906</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1724</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.749516686730495</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.259127893343718</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.490388793386777</v>
+      </c>
+      <c r="G75" t="n">
+        <v>135</v>
+      </c>
+      <c r="H75" t="n">
+        <v>26.1022755977408</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19</v>
+      </c>
+      <c r="J75" t="n">
+        <v>116</v>
+      </c>
+      <c r="K75" t="n">
+        <v>144.1026730892733</v>
+      </c>
+      <c r="L75" t="n">
+        <v>9.721268613573343</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8278846682317136</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.1637931034482759</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.3798259482489776</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9091923210806228</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1725</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1544</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.827634770201197</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.33724597681442</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.490388793386777</v>
+      </c>
+      <c r="G76" t="n">
+        <v>126</v>
+      </c>
+      <c r="H76" t="n">
+        <v>31.24423241417549</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30</v>
+      </c>
+      <c r="J76" t="n">
+        <v>96</v>
+      </c>
+      <c r="K76" t="n">
+        <v>224.037881763288</v>
+      </c>
+      <c r="L76" t="n">
+        <v>21.26842575323825</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8954001799225936</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3026245488218579</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.9068796248540566</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1726</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.748571041333682</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.306460962957268</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.442110078376414</v>
+      </c>
+      <c r="G77" t="n">
+        <v>126</v>
+      </c>
+      <c r="H77" t="n">
+        <v>191.4064969184078</v>
+      </c>
+      <c r="I77" t="n">
+        <v>51</v>
+      </c>
+      <c r="J77" t="n">
+        <v>75</v>
+      </c>
+      <c r="K77" t="n">
+        <v>203.1797430763545</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.20881702916776</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7417674669711664</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2588585873137254</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8941672979775732</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1727</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>650</v>
+      </c>
+      <c r="B78" t="n">
+        <v>676</v>
+      </c>
+      <c r="C78" t="n">
+        <v>740</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.181316072860801</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.614877846370183</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G78" t="n">
+        <v>90</v>
+      </c>
+      <c r="H78" t="n">
+        <v>32.42853476916684</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>64</v>
+      </c>
+      <c r="K78" t="n">
+        <v>90.79829088821212</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.051060769780182</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.9095259069939894</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.2840106331705308</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9223526171884505</v>
+      </c>
+      <c r="T78" t="inlineStr">
         <is>
           <t>n37</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>842</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+      <c r="U78" t="n">
+        <v>1728</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.021366502961399</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.454928276470781</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G79" t="n">
+        <v>249</v>
+      </c>
+      <c r="H79" t="n">
+        <v>206.2408280526645</v>
+      </c>
+      <c r="I79" t="n">
+        <v>75</v>
+      </c>
+      <c r="J79" t="n">
+        <v>174</v>
+      </c>
+      <c r="K79" t="n">
+        <v>577.4515858275171</v>
+      </c>
+      <c r="L79" t="n">
+        <v>11.15543656865113</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8298913497625925</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4310344827586207</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.2714974172992408</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.8549907381344468</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1729</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1404</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.119861797799547</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.553423571308929</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G80" t="n">
+        <v>117</v>
+      </c>
+      <c r="H80" t="n">
+        <v>48.40131834931071</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26</v>
+      </c>
+      <c r="J80" t="n">
+        <v>91</v>
+      </c>
+      <c r="K80" t="n">
+        <v>166.9605595646503</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.880584075648124</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8642097543907802</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1544289957766591</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.7197790719779673</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1730</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1606</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.557464946158713</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9910267196680952</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G81" t="n">
+        <v>73</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34.96501492911102</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>57</v>
+      </c>
+      <c r="K81" t="n">
+        <v>89.27928118381493</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.320472009197998</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7861387034389514</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.08138629435541755</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.735979168767923</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1731</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.507470859171457</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9410326326808389</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G82" t="n">
+        <v>73</v>
+      </c>
+      <c r="H82" t="n">
+        <v>49.36730234028119</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+      <c r="J82" t="n">
+        <v>48</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57.82477019564994</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.181786349538959</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.7656756351794181</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1934597787825248</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.7846496778774239</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1732</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.524519077484653</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.090171652800971</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.4343474246836825</v>
+      </c>
+      <c r="G83" t="n">
+        <v>70</v>
+      </c>
+      <c r="H83" t="n">
+        <v>61.39888818937197</v>
+      </c>
+      <c r="I83" t="n">
+        <v>20</v>
+      </c>
+      <c r="J83" t="n">
+        <v>50</v>
+      </c>
+      <c r="K83" t="n">
+        <v>63.21339554086849</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.915716946962626</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7061984020732089</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.08624040693439561</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.7949607952016357</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1733</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.786970080157547</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.352622655473864</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.4343474246836825</v>
+      </c>
+      <c r="G84" t="n">
+        <v>74</v>
+      </c>
+      <c r="H84" t="n">
+        <v>28.307887997232</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15</v>
+      </c>
+      <c r="J84" t="n">
+        <v>59</v>
+      </c>
+      <c r="K84" t="n">
+        <v>83.43394963652429</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.58982057353658</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.9158065101938436</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.2626838270101983</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.6853742015110151</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1734</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.353129779008167</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.895312737673103</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4578170413350643</v>
+      </c>
+      <c r="G85" t="n">
+        <v>196</v>
+      </c>
+      <c r="H85" t="n">
+        <v>38.40869436427579</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67</v>
+      </c>
+      <c r="J85" t="n">
+        <v>129</v>
+      </c>
+      <c r="K85" t="n">
+        <v>238.4317713687722</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.278096602641764</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.5835037233012353</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.5193798449612403</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.3709180739315896</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.7049025606891258</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1735</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926ymaze2024-12-06180137trace/processed_No.2979240926ymaze2024-12-06180137trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1652</v>
+        <v>1724</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1653</v>
+        <v>1725</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1654</v>
+        <v>1726</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1655</v>
+        <v>1727</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1656</v>
+        <v>1728</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1657</v>
+        <v>1729</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1658</v>
+        <v>1730</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1659</v>
+        <v>1731</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1660</v>
+        <v>1732</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1661</v>
+        <v>1733</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1662</v>
+        <v>1734</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1663</v>
+        <v>1735</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1664</v>
+        <v>1736</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1665</v>
+        <v>1737</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1666</v>
+        <v>1738</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1667</v>
+        <v>1739</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1668</v>
+        <v>1740</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1669</v>
+        <v>1741</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1670</v>
+        <v>1742</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>945</v>
+      </c>
+      <c r="B21" t="n">
+        <v>973</v>
+      </c>
+      <c r="C21" t="n">
         <v>1031</v>
       </c>
-      <c r="B21" t="n">
-        <v>1096</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1225</v>
-      </c>
       <c r="D21" t="n">
-        <v>2.767315699356893</v>
+        <v>2.490295351133388</v>
       </c>
       <c r="E21" t="n">
-        <v>2.130204457640185</v>
+        <v>1.85318410941668</v>
       </c>
       <c r="F21" t="n">
         <v>-0.637111241716708</v>
       </c>
       <c r="G21" t="n">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="H21" t="n">
-        <v>247.7688399609642</v>
+        <v>22.98142501563848</v>
       </c>
       <c r="I21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="K21" t="n">
-        <v>340.772819122228</v>
+        <v>161.1534586468687</v>
       </c>
       <c r="L21" t="n">
-        <v>6.242519453541171</v>
+        <v>5.617616081217638</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7021887749027371</v>
+        <v>0.6834226734330968</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5038759689922481</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3645884858088337</v>
+        <v>0.1379804925272956</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8863570208657645</v>
+        <v>0.5813168446550436</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1671</v>
+        <v>1743</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1800</v>
+        <v>1031</v>
       </c>
       <c r="B22" t="n">
-        <v>1831</v>
+        <v>1096</v>
       </c>
       <c r="C22" t="n">
-        <v>1933</v>
+        <v>1225</v>
       </c>
       <c r="D22" t="n">
-        <v>2.842916495456862</v>
+        <v>2.767315699356893</v>
       </c>
       <c r="E22" t="n">
-        <v>2.205805253740154</v>
+        <v>2.130204457640185</v>
       </c>
       <c r="F22" t="n">
         <v>-0.637111241716708</v>
       </c>
       <c r="G22" t="n">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="H22" t="n">
-        <v>135.7722493454737</v>
+        <v>247.7688399609642</v>
       </c>
       <c r="I22" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J22" t="n">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K22" t="n">
-        <v>225.2594908834185</v>
+        <v>340.772819122228</v>
       </c>
       <c r="L22" t="n">
-        <v>6.413059967031169</v>
+        <v>6.242519453541171</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.9052844383579619</v>
+        <v>0.7021887749027371</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.303921568627451</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2889123330118719</v>
+        <v>0.3645884858088337</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9570257248253653</v>
+        <v>0.8863570208657645</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1672</v>
+        <v>1744</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>674</v>
+        <v>1800</v>
       </c>
       <c r="B23" t="n">
-        <v>690</v>
+        <v>1831</v>
       </c>
       <c r="C23" t="n">
-        <v>764</v>
+        <v>1933</v>
       </c>
       <c r="D23" t="n">
-        <v>1.853383450828162</v>
+        <v>2.842916495456862</v>
       </c>
       <c r="E23" t="n">
-        <v>1.348810707999719</v>
+        <v>2.205805253740154</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5045727428284431</v>
+        <v>-0.637111241716708</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H23" t="n">
-        <v>22.29520382698252</v>
+        <v>135.7722493454737</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K23" t="n">
-        <v>105.83535520404</v>
+        <v>225.2594908834185</v>
       </c>
       <c r="L23" t="n">
-        <v>3.935572174596895</v>
+        <v>6.413059967031169</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(742), 'value': np.float64(0.9441126827284602), 'amplitude': np.float64(1.4486854255569033), 'start_idx': np.int64(738), 'end_idx': np.int64(763), 'duration': np.float64(25.0), 'fwhm': np.float64(22.552886260600417), 'rise_time': np.float64(4.0), 'decay_time': np.float64(21.0), 'auc': np.float64(24.18137427060929)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7613290814138909</v>
+        <v>0.9052844383579619</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2584570542547799</v>
+        <v>0.2889123330118719</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3703756461733808</v>
+        <v>0.9570257248253653</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1673</v>
+        <v>1745</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,73 +2449,73 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>690</v>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>764</v>
       </c>
       <c r="D24" t="n">
-        <v>3.969265087309546</v>
+        <v>1.853383450828162</v>
       </c>
       <c r="E24" t="n">
-        <v>3.418259088692626</v>
+        <v>1.348810707999719</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5510059986169207</v>
+        <v>-0.5045727428284431</v>
       </c>
       <c r="G24" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H24" t="n">
-        <v>112.936191757686</v>
+        <v>22.29520382698252</v>
       </c>
       <c r="I24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="K24" t="n">
-        <v>157.1602338986017</v>
+        <v>105.83535520404</v>
       </c>
       <c r="L24" t="n">
-        <v>14.82974756248723</v>
+        <v>3.935572174596895</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(742), 'value': np.float64(0.9441126827284602), 'amplitude': np.float64(1.4486854255569033), 'start_idx': np.int64(738), 'end_idx': np.int64(763), 'duration': np.float64(25.0), 'fwhm': np.float64(22.552886260600417), 'rise_time': np.float64(4.0), 'decay_time': np.float64(21.0), 'auc': np.float64(24.18137427060929)}]</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7153584076456888</v>
+        <v>0.7613290814138909</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2078721792812474</v>
+        <v>0.2584570542547799</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9067244111730958</v>
+        <v>0.3703756461733808</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1674</v>
+        <v>1746</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1076</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>1255</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220543523685725</v>
+        <v>3.969265087309546</v>
       </c>
       <c r="E25" t="n">
-        <v>1.669537525068805</v>
+        <v>3.418259088692626</v>
       </c>
       <c r="F25" t="n">
         <v>-0.5510059986169207</v>
       </c>
       <c r="G25" t="n">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="H25" t="n">
-        <v>82.36828848573941</v>
+        <v>112.936191757686</v>
       </c>
       <c r="I25" t="n">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="K25" t="n">
-        <v>295.2143080604648</v>
+        <v>157.1602338986017</v>
       </c>
       <c r="L25" t="n">
-        <v>8.296271270230509</v>
+        <v>14.82974756248723</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7443830515973038</v>
+        <v>0.7153584076456888</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6312849162011173</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2553242073507193</v>
+        <v>0.2078721792812474</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9217835026410355</v>
+        <v>0.9067244111730958</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1675</v>
+        <v>1747</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>963</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C26" t="n">
         <v>1255</v>
       </c>
-      <c r="B26" t="n">
-        <v>1340</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1496</v>
-      </c>
       <c r="D26" t="n">
-        <v>3.619792774170327</v>
+        <v>2.220543523685725</v>
       </c>
       <c r="E26" t="n">
-        <v>3.068786775553406</v>
+        <v>1.669537525068805</v>
       </c>
       <c r="F26" t="n">
         <v>-0.5510059986169207</v>
       </c>
       <c r="G26" t="n">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="H26" t="n">
-        <v>104.1161869428956</v>
+        <v>82.36828848573941</v>
       </c>
       <c r="I26" t="n">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="J26" t="n">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="K26" t="n">
-        <v>407.1303503503513</v>
+        <v>295.2143080604648</v>
       </c>
       <c r="L26" t="n">
-        <v>13.52406853376658</v>
+        <v>8.296271270230509</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7338814590216104</v>
+        <v>0.7443830515973038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5448717948717948</v>
+        <v>0.6312849162011173</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2149800678981111</v>
+        <v>0.2553242073507193</v>
       </c>
       <c r="S26" t="n">
-        <v>0.922157637536081</v>
+        <v>0.9217835026410355</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1676</v>
+        <v>1748</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>86</v>
+        <v>1255</v>
       </c>
       <c r="B27" t="n">
-        <v>121</v>
+        <v>1340</v>
       </c>
       <c r="C27" t="n">
-        <v>165</v>
+        <v>1496</v>
       </c>
       <c r="D27" t="n">
-        <v>3.764116510360032</v>
+        <v>3.619792774170327</v>
       </c>
       <c r="E27" t="n">
-        <v>3.261158120071443</v>
+        <v>3.068786775553406</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5029583902885882</v>
+        <v>-0.5510059986169207</v>
       </c>
       <c r="G27" t="n">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="H27" t="n">
-        <v>31.10491085891734</v>
+        <v>104.1161869428956</v>
       </c>
       <c r="I27" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J27" t="n">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="K27" t="n">
-        <v>229.0285705050167</v>
+        <v>407.1303503503513</v>
       </c>
       <c r="L27" t="n">
-        <v>18.59089134953652</v>
+        <v>13.52406853376658</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6729081011415606</v>
+        <v>0.7338814590216104</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="R27" t="n">
-        <v>0.236356300536905</v>
+        <v>0.2149800678981111</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9676917881450167</v>
+        <v>0.922157637536081</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1677</v>
+        <v>1749</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2062</v>
+        <v>86</v>
       </c>
       <c r="B28" t="n">
-        <v>2094</v>
+        <v>121</v>
       </c>
       <c r="C28" t="n">
-        <v>2179</v>
+        <v>165</v>
       </c>
       <c r="D28" t="n">
-        <v>1.685505898569871</v>
+        <v>3.764116510360032</v>
       </c>
       <c r="E28" t="n">
-        <v>1.182547508281283</v>
+        <v>3.261158120071443</v>
       </c>
       <c r="F28" t="n">
         <v>-0.5029583902885882</v>
       </c>
       <c r="G28" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>67.49583323300976</v>
+        <v>31.10491085891734</v>
       </c>
       <c r="I28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J28" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K28" t="n">
-        <v>95.56829069827987</v>
+        <v>229.0285705050167</v>
       </c>
       <c r="L28" t="n">
-        <v>8.32467776782984</v>
+        <v>18.59089134953652</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8851723901160464</v>
+        <v>0.6729081011415606</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3764705882352941</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="R28" t="n">
-        <v>0.262234032510669</v>
+        <v>0.236356300536905</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9091571970697651</v>
+        <v>0.9676917881450167</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1678</v>
+        <v>1750</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2911</v>
+        <v>2062</v>
       </c>
       <c r="B29" t="n">
-        <v>2925</v>
+        <v>2094</v>
       </c>
       <c r="C29" t="n">
-        <v>2998</v>
+        <v>2179</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9393580592214783</v>
+        <v>1.685505898569871</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4363996689328901</v>
+        <v>1.182547508281283</v>
       </c>
       <c r="F29" t="n">
         <v>-0.5029583902885882</v>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="H29" t="n">
-        <v>22.77216793255275</v>
+        <v>67.49583323300976</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J29" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K29" t="n">
-        <v>50.11509621986745</v>
+        <v>95.56829069827987</v>
       </c>
       <c r="L29" t="n">
-        <v>4.639469466269959</v>
+        <v>8.32467776782984</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8677262795093758</v>
+        <v>0.8851723901160464</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1917808219178082</v>
+        <v>0.3764705882352941</v>
       </c>
       <c r="R29" t="n">
-        <v>0.284448839115896</v>
+        <v>0.262234032510669</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8745297351341554</v>
+        <v>0.9091571970697651</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1679</v>
+        <v>1751</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>256</v>
+        <v>2911</v>
       </c>
       <c r="B30" t="n">
-        <v>296</v>
+        <v>2925</v>
       </c>
       <c r="C30" t="n">
-        <v>350</v>
+        <v>2998</v>
       </c>
       <c r="D30" t="n">
-        <v>2.858395109363791</v>
+        <v>0.9393580592214783</v>
       </c>
       <c r="E30" t="n">
-        <v>2.200751977246922</v>
+        <v>0.4363996689328901</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6576431321168686</v>
+        <v>-0.5029583902885882</v>
       </c>
       <c r="G30" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H30" t="n">
-        <v>49.9872821942111</v>
+        <v>22.77216793255275</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K30" t="n">
-        <v>226.9029256275016</v>
+        <v>50.11509621986745</v>
       </c>
       <c r="L30" t="n">
-        <v>9.858786233646365</v>
+        <v>4.639469466269959</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.5868539478882827</v>
+        <v>0.8677262795093758</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1155654152507736</v>
+        <v>0.284448839115896</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8847941876685436</v>
+        <v>0.8745297351341554</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1680</v>
+        <v>1752</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>256</v>
+      </c>
+      <c r="B31" t="n">
+        <v>296</v>
+      </c>
+      <c r="C31" t="n">
         <v>350</v>
       </c>
-      <c r="B31" t="n">
-        <v>382</v>
-      </c>
-      <c r="C31" t="n">
-        <v>478</v>
-      </c>
       <c r="D31" t="n">
-        <v>2.663481309339887</v>
+        <v>2.858395109363791</v>
       </c>
       <c r="E31" t="n">
-        <v>2.005838177223018</v>
+        <v>2.200751977246922</v>
       </c>
       <c r="F31" t="n">
         <v>-0.6576431321168686</v>
       </c>
       <c r="G31" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H31" t="n">
-        <v>49.85852510900071</v>
+        <v>49.9872821942111</v>
       </c>
       <c r="I31" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J31" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K31" t="n">
-        <v>244.3271965677432</v>
+        <v>226.9029256275016</v>
       </c>
       <c r="L31" t="n">
-        <v>9.186516160790317</v>
+        <v>9.858786233646365</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,16 +3100,16 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8402641580437811</v>
+        <v>0.5868539478882827</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09547631616894366</v>
+        <v>0.1155654152507736</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9268498099884983</v>
+        <v>0.8847941876685436</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1681</v>
+        <v>1753</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>350</v>
+      </c>
+      <c r="B32" t="n">
+        <v>382</v>
+      </c>
+      <c r="C32" t="n">
         <v>478</v>
       </c>
-      <c r="B32" t="n">
-        <v>489</v>
-      </c>
-      <c r="C32" t="n">
-        <v>523</v>
-      </c>
       <c r="D32" t="n">
-        <v>1.491821954488696</v>
+        <v>2.663481309339887</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8341788223718276</v>
+        <v>2.005838177223018</v>
       </c>
       <c r="F32" t="n">
         <v>-0.6576431321168686</v>
       </c>
       <c r="G32" t="n">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="H32" t="n">
-        <v>20.16468317384778</v>
+        <v>49.85852510900071</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J32" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="K32" t="n">
-        <v>54.53869666132923</v>
+        <v>244.3271965677432</v>
       </c>
       <c r="L32" t="n">
-        <v>5.145388648260778</v>
+        <v>9.186516160790317</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7766880229701415</v>
+        <v>0.8402641580437811</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08848847656339963</v>
+        <v>0.09547631616894366</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7339005278284083</v>
+        <v>0.9268498099884983</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1682</v>
+        <v>1754</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,65 +3223,65 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1022</v>
+        <v>478</v>
       </c>
       <c r="B33" t="n">
-        <v>1042</v>
+        <v>489</v>
       </c>
       <c r="C33" t="n">
-        <v>1217</v>
+        <v>523</v>
       </c>
       <c r="D33" t="n">
-        <v>1.827691581359484</v>
+        <v>1.491821954488696</v>
       </c>
       <c r="E33" t="n">
-        <v>1.170048449242616</v>
+        <v>0.8341788223718276</v>
       </c>
       <c r="F33" t="n">
         <v>-0.6576431321168686</v>
       </c>
       <c r="G33" t="n">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="H33" t="n">
-        <v>15.37909927289525</v>
+        <v>20.16468317384778</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="K33" t="n">
-        <v>146.9145075949202</v>
+        <v>54.53869666132923</v>
       </c>
       <c r="L33" t="n">
-        <v>6.303824318279354</v>
+        <v>5.145388648260778</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1110), 'value': np.float64(0.3249952152838888), 'amplitude': np.float64(0.9826383474007574), 'start_idx': np.int64(1099), 'end_idx': np.int64(1113), 'duration': np.float64(14.0), 'fwhm': np.float64(85.38785607844216), 'rise_time': np.float64(11.0), 'decay_time': np.float64(3.0), 'auc': np.float64(12.553976627928408)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6268829317201016</v>
+        <v>0.7766880229701415</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5473409104318145</v>
+        <v>0.08848847656339963</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2501357831423251</v>
+        <v>0.7339005278284083</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1683</v>
+        <v>1755</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,65 +3309,65 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1421</v>
+        <v>1022</v>
       </c>
       <c r="B34" t="n">
-        <v>1459</v>
+        <v>1042</v>
       </c>
       <c r="C34" t="n">
-        <v>1535</v>
+        <v>1217</v>
       </c>
       <c r="D34" t="n">
-        <v>2.886982616799114</v>
+        <v>1.827691581359484</v>
       </c>
       <c r="E34" t="n">
-        <v>2.229339484682245</v>
+        <v>1.170048449242616</v>
       </c>
       <c r="F34" t="n">
         <v>-0.6576431321168686</v>
       </c>
       <c r="G34" t="n">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1245041777454</v>
+        <v>15.37909927289525</v>
       </c>
       <c r="I34" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J34" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="K34" t="n">
-        <v>211.9688930290862</v>
+        <v>146.9145075949202</v>
       </c>
       <c r="L34" t="n">
-        <v>9.957386362031119</v>
+        <v>6.303824318279354</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1110), 'value': np.float64(0.3249952152838888), 'amplitude': np.float64(0.9826383474007574), 'start_idx': np.int64(1099), 'end_idx': np.int64(1113), 'duration': np.float64(14.0), 'fwhm': np.float64(85.38785607844216), 'rise_time': np.float64(11.0), 'decay_time': np.float64(3.0), 'auc': np.float64(12.553976627928408)}]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8007425862917832</v>
+        <v>0.6268829317201016</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3799122875327303</v>
+        <v>0.5473409104318145</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9016138416985215</v>
+        <v>0.2501357831423251</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1684</v>
+        <v>1756</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1421</v>
       </c>
       <c r="B35" t="n">
-        <v>27</v>
+        <v>1459</v>
       </c>
       <c r="C35" t="n">
-        <v>55</v>
+        <v>1535</v>
       </c>
       <c r="D35" t="n">
-        <v>1.219563910145253</v>
+        <v>2.886982616799114</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6880959135164362</v>
+        <v>2.229339484682245</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5314679966288166</v>
+        <v>-0.6576431321168686</v>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="H35" t="n">
-        <v>20.36115035808934</v>
+        <v>148.1245041777454</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J35" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K35" t="n">
-        <v>38.6911498636556</v>
+        <v>211.9688930290862</v>
       </c>
       <c r="L35" t="n">
-        <v>4.717874964158657</v>
+        <v>9.957386362031119</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8003727812940333</v>
+        <v>0.8007425862917832</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2421884171818693</v>
+        <v>0.3799122875327303</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9435853759883135</v>
+        <v>0.9016138416985215</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1685</v>
+        <v>1757</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
         <v>55</v>
       </c>
-      <c r="B36" t="n">
-        <v>90</v>
-      </c>
-      <c r="C36" t="n">
-        <v>147</v>
-      </c>
       <c r="D36" t="n">
-        <v>3.591629800911818</v>
+        <v>1.219563910145253</v>
       </c>
       <c r="E36" t="n">
-        <v>3.060161804283002</v>
+        <v>0.6880959135164362</v>
       </c>
       <c r="F36" t="n">
         <v>-0.5314679966288166</v>
       </c>
       <c r="G36" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>38.72342380788592</v>
+        <v>20.36115035808934</v>
       </c>
       <c r="I36" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9120529298611</v>
+        <v>38.6911498636556</v>
       </c>
       <c r="L36" t="n">
-        <v>13.89419625924306</v>
+        <v>4.717874964158657</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.775351898777315</v>
+        <v>0.8003727812940333</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R36" t="n">
-        <v>0.14392531656706</v>
+        <v>0.2421884171818693</v>
       </c>
       <c r="S36" t="n">
-        <v>0.976091201812836</v>
+        <v>0.9435853759883135</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1686</v>
+        <v>1758</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="C37" t="n">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="D37" t="n">
-        <v>4.34425960930284</v>
+        <v>3.591629800911818</v>
       </c>
       <c r="E37" t="n">
-        <v>3.812791612674023</v>
+        <v>3.060161804283002</v>
       </c>
       <c r="F37" t="n">
         <v>-0.5314679966288166</v>
       </c>
       <c r="G37" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H37" t="n">
-        <v>58.07508092777937</v>
+        <v>38.72342380788592</v>
       </c>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J37" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K37" t="n">
-        <v>213.2121900439572</v>
+        <v>181.9120529298611</v>
       </c>
       <c r="L37" t="n">
-        <v>16.80573972223765</v>
+        <v>13.89419625924306</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.71843310395011</v>
+        <v>0.775351898777315</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1099115777656333</v>
+        <v>0.14392531656706</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9590291470943585</v>
+        <v>0.976091201812836</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1687</v>
+        <v>1759</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>257</v>
+      </c>
+      <c r="B38" t="n">
+        <v>285</v>
+      </c>
+      <c r="C38" t="n">
         <v>337</v>
       </c>
-      <c r="B38" t="n">
-        <v>365</v>
-      </c>
-      <c r="C38" t="n">
-        <v>406</v>
-      </c>
       <c r="D38" t="n">
-        <v>1.39282582101496</v>
+        <v>4.34425960930284</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8613578243861438</v>
+        <v>3.812791612674023</v>
       </c>
       <c r="F38" t="n">
         <v>-0.5314679966288166</v>
       </c>
       <c r="G38" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H38" t="n">
-        <v>19.48929319233537</v>
+        <v>58.07508092777937</v>
       </c>
       <c r="I38" t="n">
         <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K38" t="n">
-        <v>63.82087688411286</v>
+        <v>213.2121900439572</v>
       </c>
       <c r="L38" t="n">
-        <v>5.388137526648822</v>
+        <v>16.80573972223765</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.792163363819586</v>
+        <v>0.71843310395011</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2932230100607816</v>
+        <v>0.1099115777656333</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9811442680272917</v>
+        <v>0.9590291470943585</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1688</v>
+        <v>1760</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>337</v>
+      </c>
+      <c r="B39" t="n">
+        <v>365</v>
+      </c>
+      <c r="C39" t="n">
         <v>406</v>
       </c>
-      <c r="B39" t="n">
-        <v>457</v>
-      </c>
-      <c r="C39" t="n">
-        <v>541</v>
-      </c>
       <c r="D39" t="n">
-        <v>2.249201644367131</v>
+        <v>1.39282582101496</v>
       </c>
       <c r="E39" t="n">
-        <v>1.717733647738314</v>
+        <v>0.8613578243861438</v>
       </c>
       <c r="F39" t="n">
         <v>-0.5314679966288166</v>
       </c>
       <c r="G39" t="n">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H39" t="n">
-        <v>81.26424488109319</v>
+        <v>19.48929319233537</v>
       </c>
       <c r="I39" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J39" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K39" t="n">
-        <v>183.4111537313464</v>
+        <v>63.82087688411286</v>
       </c>
       <c r="L39" t="n">
-        <v>8.701021766083848</v>
+        <v>5.388137526648822</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6405673363560775</v>
+        <v>0.792163363819586</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4910289252496242</v>
+        <v>0.2932230100607816</v>
       </c>
       <c r="S39" t="n">
-        <v>0.562357520815872</v>
+        <v>0.9811442680272917</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1689</v>
+        <v>1761</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1690</v>
+        <v>1762</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1691</v>
+        <v>1763</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1692</v>
+        <v>1764</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1693</v>
+        <v>1765</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1694</v>
+        <v>1766</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1695</v>
+        <v>1767</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1696</v>
+        <v>1768</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1697</v>
+        <v>1769</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1698</v>
+        <v>1770</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1699</v>
+        <v>1771</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1700</v>
+        <v>1772</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1701</v>
+        <v>1773</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1702</v>
+        <v>1774</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1703</v>
+        <v>1775</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1704</v>
+        <v>1776</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1705</v>
+        <v>1777</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1706</v>
+        <v>1778</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1707</v>
+        <v>1779</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1708</v>
+        <v>1780</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1709</v>
+        <v>1781</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1710</v>
+        <v>1782</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1711</v>
+        <v>1783</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1712</v>
+        <v>1784</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1713</v>
+        <v>1785</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1714</v>
+        <v>1786</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1715</v>
+        <v>1787</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2445</v>
+        <v>2275</v>
       </c>
       <c r="B66" t="n">
-        <v>2476</v>
+        <v>2290</v>
       </c>
       <c r="C66" t="n">
-        <v>2609</v>
+        <v>2313</v>
       </c>
       <c r="D66" t="n">
-        <v>3.218599268853435</v>
+        <v>1.37519646815998</v>
       </c>
       <c r="E66" t="n">
-        <v>2.617930278891218</v>
+        <v>0.7745274781977617</v>
       </c>
       <c r="F66" t="n">
         <v>-0.6006689899622177</v>
       </c>
       <c r="G66" t="n">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="H66" t="n">
-        <v>82.81370690405038</v>
+        <v>20.8650622815876</v>
       </c>
       <c r="I66" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J66" t="n">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="K66" t="n">
-        <v>249.345527864993</v>
+        <v>43.71768539994241</v>
       </c>
       <c r="L66" t="n">
-        <v>9.04776041418018</v>
+        <v>3.86579599602365</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.9024284828193114</v>
+        <v>0.6386204435475267</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2580225942107277</v>
+        <v>0.0437214528994824</v>
       </c>
       <c r="S66" t="n">
-        <v>0.827920115537133</v>
+        <v>0.9444998526964922</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1716</v>
+        <v>1788</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1890</v>
+        <v>2445</v>
       </c>
       <c r="B67" t="n">
-        <v>1924</v>
+        <v>2476</v>
       </c>
       <c r="C67" t="n">
-        <v>2021</v>
+        <v>2609</v>
       </c>
       <c r="D67" t="n">
-        <v>4.130747581209208</v>
+        <v>3.218599268853435</v>
       </c>
       <c r="E67" t="n">
-        <v>3.613987402476519</v>
+        <v>2.617930278891218</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5167601787326893</v>
+        <v>-0.6006689899622177</v>
       </c>
       <c r="G67" t="n">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="H67" t="n">
-        <v>79.17266266522734</v>
+        <v>82.81370690405038</v>
       </c>
       <c r="I67" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J67" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K67" t="n">
-        <v>297.2863283905966</v>
+        <v>249.345527864993</v>
       </c>
       <c r="L67" t="n">
-        <v>21.20555660489666</v>
+        <v>9.04776041418018</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.9054875845953013</v>
+        <v>0.9024284828193114</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3505154639175257</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2373551887073947</v>
+        <v>0.2580225942107277</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9603928012884784</v>
+        <v>0.827920115537133</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1717</v>
+        <v>1789</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2761</v>
+        <v>1890</v>
       </c>
       <c r="B68" t="n">
-        <v>2779</v>
+        <v>1924</v>
       </c>
       <c r="C68" t="n">
-        <v>2803</v>
+        <v>2021</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9650604896193876</v>
+        <v>4.130747581209208</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4483003108866983</v>
+        <v>3.613987402476519</v>
       </c>
       <c r="F68" t="n">
         <v>-0.5167601787326893</v>
       </c>
       <c r="G68" t="n">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H68" t="n">
-        <v>22.41031476905846</v>
+        <v>79.17266266522734</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J68" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K68" t="n">
-        <v>22.10057339849218</v>
+        <v>297.2863283905966</v>
       </c>
       <c r="L68" t="n">
-        <v>4.954223040126436</v>
+        <v>21.20555660489666</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7201140673944955</v>
+        <v>0.9054875845953013</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.75</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1615241364800977</v>
+        <v>0.2373551887073947</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9248441765424416</v>
+        <v>0.9603928012884784</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1718</v>
+        <v>1790</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1149</v>
+        <v>2761</v>
       </c>
       <c r="B69" t="n">
-        <v>1168</v>
+        <v>2779</v>
       </c>
       <c r="C69" t="n">
-        <v>1234</v>
+        <v>2803</v>
       </c>
       <c r="D69" t="n">
-        <v>1.479221145148162</v>
+        <v>0.9650604896193876</v>
       </c>
       <c r="E69" t="n">
-        <v>1.065523500384404</v>
+        <v>0.4483003108866983</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4136976447637583</v>
+        <v>-0.5167601787326893</v>
       </c>
       <c r="G69" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H69" t="n">
-        <v>23.18304167929819</v>
+        <v>22.41031476905846</v>
       </c>
       <c r="I69" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J69" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="K69" t="n">
-        <v>76.18855740241951</v>
+        <v>22.10057339849218</v>
       </c>
       <c r="L69" t="n">
-        <v>4.975702946587203</v>
+        <v>4.954223040126436</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8771768989793763</v>
+        <v>0.7201140673944955</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.75</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2822648987151745</v>
+        <v>0.1615241364800977</v>
       </c>
       <c r="S69" t="n">
-        <v>0.7058320548522758</v>
+        <v>0.9248441765424416</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1719</v>
+        <v>1791</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2165</v>
+        <v>1149</v>
       </c>
       <c r="B70" t="n">
-        <v>2186</v>
+        <v>1168</v>
       </c>
       <c r="C70" t="n">
-        <v>2213</v>
+        <v>1234</v>
       </c>
       <c r="D70" t="n">
-        <v>6.631068956453403</v>
+        <v>1.479221145148162</v>
       </c>
       <c r="E70" t="n">
-        <v>6.217371311689645</v>
+        <v>1.065523500384404</v>
       </c>
       <c r="F70" t="n">
         <v>-0.4136976447637583</v>
       </c>
       <c r="G70" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H70" t="n">
-        <v>83.67788472317989</v>
+        <v>23.18304167929819</v>
       </c>
       <c r="I70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J70" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="K70" t="n">
-        <v>227.8707933945307</v>
+        <v>76.18855740241951</v>
       </c>
       <c r="L70" t="n">
-        <v>22.30513635764945</v>
+        <v>4.975702946587203</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,16 +6454,16 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.5852074720494669</v>
+        <v>0.8771768989793763</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="R70" t="n">
-        <v>0.06610044198539208</v>
+        <v>0.2822648987151745</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9293328716525227</v>
+        <v>0.7058320548522758</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1720</v>
+        <v>1792</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C71" t="n">
         <v>2213</v>
       </c>
-      <c r="B71" t="n">
-        <v>2224</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2252</v>
-      </c>
       <c r="D71" t="n">
-        <v>2.966547276821624</v>
+        <v>6.631068956453403</v>
       </c>
       <c r="E71" t="n">
-        <v>2.552849632057866</v>
+        <v>6.217371311689645</v>
       </c>
       <c r="F71" t="n">
         <v>-0.4136976447637583</v>
       </c>
       <c r="G71" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H71" t="n">
-        <v>12.33582484229146</v>
+        <v>83.67788472317989</v>
       </c>
       <c r="I71" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J71" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K71" t="n">
-        <v>92.58018509008386</v>
+        <v>227.8707933945307</v>
       </c>
       <c r="L71" t="n">
-        <v>9.97866889267131</v>
+        <v>22.30513635764945</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8794850658598854</v>
+        <v>0.5852074720494669</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1926275822113243</v>
+        <v>0.06610044198539208</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9671232498421244</v>
+        <v>0.9293328716525227</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1721</v>
+        <v>1793</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1057</v>
+        <v>2213</v>
       </c>
       <c r="B72" t="n">
-        <v>1087</v>
+        <v>2224</v>
       </c>
       <c r="C72" t="n">
-        <v>1144</v>
+        <v>2252</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9994882515022709</v>
+        <v>2.966547276821624</v>
       </c>
       <c r="E72" t="n">
-        <v>0.509099458115494</v>
+        <v>2.552849632057866</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.490388793386777</v>
+        <v>-0.4136976447637583</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>45.04970117327116</v>
+        <v>12.33582484229146</v>
       </c>
       <c r="I72" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J72" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="K72" t="n">
-        <v>51.39967150013261</v>
+        <v>92.58018509008386</v>
       </c>
       <c r="L72" t="n">
-        <v>5.553701683818852</v>
+        <v>9.97866889267131</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8095476888584652</v>
+        <v>0.8794850658598854</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2739111855316982</v>
+        <v>0.1926275822113243</v>
       </c>
       <c r="S72" t="n">
-        <v>0.7973333271711703</v>
+        <v>0.9671232498421244</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1722</v>
+        <v>1794</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C73" t="n">
         <v>1144</v>
       </c>
-      <c r="B73" t="n">
-        <v>1168</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1202</v>
-      </c>
       <c r="D73" t="n">
-        <v>1.237573032599237</v>
+        <v>0.9994882515022709</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7471842392124597</v>
+        <v>0.509099458115494</v>
       </c>
       <c r="F73" t="n">
         <v>-0.490388793386777</v>
       </c>
       <c r="G73" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H73" t="n">
-        <v>29.46148699042487</v>
+        <v>45.04970117327116</v>
       </c>
       <c r="I73" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J73" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K73" t="n">
-        <v>38.13545611362203</v>
+        <v>51.39967150013261</v>
       </c>
       <c r="L73" t="n">
-        <v>6.876630540343642</v>
+        <v>5.553701683818852</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,16 +6712,16 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.785750492787582</v>
+        <v>0.8095476888584652</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2230587349664162</v>
+        <v>0.2739111855316982</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9157988497405417</v>
+        <v>0.7973333271711703</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1723</v>
+        <v>1795</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C74" t="n">
         <v>1202</v>
       </c>
-      <c r="B74" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1283</v>
-      </c>
       <c r="D74" t="n">
-        <v>3.950413490887396</v>
+        <v>1.237573032599237</v>
       </c>
       <c r="E74" t="n">
-        <v>3.460024697500619</v>
+        <v>0.7471842392124597</v>
       </c>
       <c r="F74" t="n">
         <v>-0.490388793386777</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H74" t="n">
-        <v>46.44328663341821</v>
+        <v>29.46148699042487</v>
       </c>
       <c r="I74" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J74" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K74" t="n">
-        <v>186.8249481615344</v>
+        <v>38.13545611362203</v>
       </c>
       <c r="L74" t="n">
-        <v>21.95065126893309</v>
+        <v>6.876630540343642</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,16 +6798,16 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.7697588168389985</v>
+        <v>0.785750492787582</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R74" t="n">
-        <v>0.4054558558435518</v>
+        <v>0.2230587349664162</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9820607682262906</v>
+        <v>0.9157988497405417</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1724</v>
+        <v>1796</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C75" t="n">
         <v>1283</v>
       </c>
-      <c r="B75" t="n">
-        <v>1302</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1418</v>
-      </c>
       <c r="D75" t="n">
-        <v>1.749516686730495</v>
+        <v>3.950413490887396</v>
       </c>
       <c r="E75" t="n">
-        <v>1.259127893343718</v>
+        <v>3.460024697500619</v>
       </c>
       <c r="F75" t="n">
         <v>-0.490388793386777</v>
       </c>
       <c r="G75" t="n">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>26.1022755977408</v>
+        <v>46.44328663341821</v>
       </c>
       <c r="I75" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J75" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="K75" t="n">
-        <v>144.1026730892733</v>
+        <v>186.8249481615344</v>
       </c>
       <c r="L75" t="n">
-        <v>9.721268613573343</v>
+        <v>21.95065126893309</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8278846682317136</v>
+        <v>0.7697588168389985</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.8</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3798259482489776</v>
+        <v>0.4054558558435518</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9091923210806228</v>
+        <v>0.9820607682262906</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1725</v>
+        <v>1797</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C76" t="n">
         <v>1418</v>
       </c>
-      <c r="B76" t="n">
-        <v>1448</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1544</v>
-      </c>
       <c r="D76" t="n">
-        <v>3.827634770201197</v>
+        <v>1.749516686730495</v>
       </c>
       <c r="E76" t="n">
-        <v>3.33724597681442</v>
+        <v>1.259127893343718</v>
       </c>
       <c r="F76" t="n">
         <v>-0.490388793386777</v>
       </c>
       <c r="G76" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H76" t="n">
-        <v>31.24423241417549</v>
+        <v>26.1022755977408</v>
       </c>
       <c r="I76" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J76" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K76" t="n">
-        <v>224.037881763288</v>
+        <v>144.1026730892733</v>
       </c>
       <c r="L76" t="n">
-        <v>21.26842575323825</v>
+        <v>9.721268613573343</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8954001799225936</v>
+        <v>0.8278846682317136</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.3125</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3026245488218579</v>
+        <v>0.3798259482489776</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9068796248540566</v>
+        <v>0.9091923210806228</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1726</v>
+        <v>1798</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2446</v>
+        <v>1418</v>
       </c>
       <c r="B77" t="n">
-        <v>2497</v>
+        <v>1448</v>
       </c>
       <c r="C77" t="n">
-        <v>2572</v>
+        <v>1544</v>
       </c>
       <c r="D77" t="n">
-        <v>2.748571041333682</v>
+        <v>3.827634770201197</v>
       </c>
       <c r="E77" t="n">
-        <v>2.306460962957268</v>
+        <v>3.33724597681442</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.442110078376414</v>
+        <v>-0.490388793386777</v>
       </c>
       <c r="G77" t="n">
         <v>126</v>
       </c>
       <c r="H77" t="n">
-        <v>191.4064969184078</v>
+        <v>31.24423241417549</v>
       </c>
       <c r="I77" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J77" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K77" t="n">
-        <v>203.1797430763545</v>
+        <v>224.037881763288</v>
       </c>
       <c r="L77" t="n">
-        <v>6.20881702916776</v>
+        <v>21.26842575323825</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.7417674669711664</v>
+        <v>0.8954001799225936</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.68</v>
+        <v>0.3125</v>
       </c>
       <c r="R77" t="n">
-        <v>0.2588585873137254</v>
+        <v>0.3026245488218579</v>
       </c>
       <c r="S77" t="n">
-        <v>0.8941672979775732</v>
+        <v>0.9068796248540566</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1727</v>
+        <v>1799</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>650</v>
+        <v>844</v>
       </c>
       <c r="B78" t="n">
-        <v>676</v>
+        <v>869</v>
       </c>
       <c r="C78" t="n">
-        <v>740</v>
+        <v>905</v>
       </c>
       <c r="D78" t="n">
-        <v>2.181316072860801</v>
+        <v>1.787810839739749</v>
       </c>
       <c r="E78" t="n">
-        <v>1.614877846370183</v>
+        <v>1.345700761363335</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5664382264906178</v>
+        <v>-0.442110078376414</v>
       </c>
       <c r="G78" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H78" t="n">
-        <v>32.42853476916684</v>
+        <v>39.16109489901828</v>
       </c>
       <c r="I78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J78" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K78" t="n">
-        <v>90.79829088821212</v>
+        <v>93.33921464396234</v>
       </c>
       <c r="L78" t="n">
-        <v>6.051060769780182</v>
+        <v>4.038531374950655</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.9095259069939894</v>
+        <v>0.517945856346428</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.40625</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2840106331705308</v>
+        <v>0.06913927003552328</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9223526171884505</v>
+        <v>0.8839309882617234</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1728</v>
+        <v>1800</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1038</v>
+        <v>2446</v>
       </c>
       <c r="B79" t="n">
-        <v>1113</v>
+        <v>2497</v>
       </c>
       <c r="C79" t="n">
-        <v>1287</v>
+        <v>2572</v>
       </c>
       <c r="D79" t="n">
-        <v>4.021366502961399</v>
+        <v>2.748571041333682</v>
       </c>
       <c r="E79" t="n">
-        <v>3.454928276470781</v>
+        <v>2.306460962957268</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5664382264906178</v>
+        <v>-0.442110078376414</v>
       </c>
       <c r="G79" t="n">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="H79" t="n">
-        <v>206.2408280526645</v>
+        <v>191.4064969184078</v>
       </c>
       <c r="I79" t="n">
+        <v>51</v>
+      </c>
+      <c r="J79" t="n">
         <v>75</v>
       </c>
-      <c r="J79" t="n">
-        <v>174</v>
-      </c>
       <c r="K79" t="n">
-        <v>577.4515858275171</v>
+        <v>203.1797430763545</v>
       </c>
       <c r="L79" t="n">
-        <v>11.15543656865113</v>
+        <v>6.20881702916776</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8298913497625925</v>
+        <v>0.7417674669711664</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.68</v>
       </c>
       <c r="R79" t="n">
-        <v>0.2714974172992408</v>
+        <v>0.2588585873137254</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8549907381344468</v>
+        <v>0.8941672979775732</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1729</v>
+        <v>1801</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1287</v>
+        <v>1376</v>
       </c>
       <c r="B80" t="n">
-        <v>1313</v>
+        <v>1405</v>
       </c>
       <c r="C80" t="n">
-        <v>1404</v>
+        <v>1479</v>
       </c>
       <c r="D80" t="n">
-        <v>2.119861797799547</v>
+        <v>2.57398427074873</v>
       </c>
       <c r="E80" t="n">
-        <v>1.553423571308929</v>
+        <v>2.101651875603468</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5664382264906178</v>
+        <v>-0.4723323951452619</v>
       </c>
       <c r="G80" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H80" t="n">
-        <v>48.40131834931071</v>
+        <v>39.99402796265463</v>
       </c>
       <c r="I80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J80" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K80" t="n">
-        <v>166.9605595646503</v>
+        <v>159.6558548867037</v>
       </c>
       <c r="L80" t="n">
-        <v>5.880584075648124</v>
+        <v>8.806820735672288</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.8642097543907802</v>
+        <v>0.8685448712896969</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1544289957766591</v>
+        <v>0.1484070954758858</v>
       </c>
       <c r="S80" t="n">
-        <v>0.7197790719779673</v>
+        <v>0.9607404417177514</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1730</v>
+        <v>1802</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1533</v>
+        <v>650</v>
       </c>
       <c r="B81" t="n">
-        <v>1549</v>
+        <v>676</v>
       </c>
       <c r="C81" t="n">
-        <v>1606</v>
+        <v>740</v>
       </c>
       <c r="D81" t="n">
-        <v>1.557464946158713</v>
+        <v>2.181316072860801</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9910267196680952</v>
+        <v>1.614877846370183</v>
       </c>
       <c r="F81" t="n">
         <v>-0.5664382264906178</v>
       </c>
       <c r="G81" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H81" t="n">
-        <v>34.96501492911102</v>
+        <v>32.42853476916684</v>
       </c>
       <c r="I81" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J81" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K81" t="n">
-        <v>89.27928118381493</v>
+        <v>90.79829088821212</v>
       </c>
       <c r="L81" t="n">
-        <v>4.320472009197998</v>
+        <v>6.051060769780182</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,16 +7400,16 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7861387034389514</v>
+        <v>0.9095259069939894</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.40625</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08138629435541755</v>
+        <v>0.2840106331705308</v>
       </c>
       <c r="S81" t="n">
-        <v>0.735979168767923</v>
+        <v>0.9223526171884505</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1731</v>
+        <v>1803</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2507</v>
+        <v>1038</v>
       </c>
       <c r="B82" t="n">
-        <v>2532</v>
+        <v>1113</v>
       </c>
       <c r="C82" t="n">
-        <v>2580</v>
+        <v>1287</v>
       </c>
       <c r="D82" t="n">
-        <v>1.507470859171457</v>
+        <v>4.021366502961399</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9410326326808389</v>
+        <v>3.454928276470781</v>
       </c>
       <c r="F82" t="n">
         <v>-0.5664382264906178</v>
       </c>
       <c r="G82" t="n">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="H82" t="n">
-        <v>49.36730234028119</v>
+        <v>206.2408280526645</v>
       </c>
       <c r="I82" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J82" t="n">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="K82" t="n">
-        <v>57.82477019564994</v>
+        <v>577.4515858275171</v>
       </c>
       <c r="L82" t="n">
-        <v>4.181786349538959</v>
+        <v>11.15543656865113</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.7656756351794181</v>
+        <v>0.8298913497625925</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1934597787825248</v>
+        <v>0.2714974172992408</v>
       </c>
       <c r="S82" t="n">
-        <v>0.7846496778774239</v>
+        <v>0.8549907381344468</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1732</v>
+        <v>1804</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1266</v>
+        <v>1287</v>
       </c>
       <c r="B83" t="n">
-        <v>1286</v>
+        <v>1313</v>
       </c>
       <c r="C83" t="n">
-        <v>1336</v>
+        <v>1404</v>
       </c>
       <c r="D83" t="n">
-        <v>1.524519077484653</v>
+        <v>2.119861797799547</v>
       </c>
       <c r="E83" t="n">
-        <v>1.090171652800971</v>
+        <v>1.553423571308929</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4343474246836825</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G83" t="n">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="H83" t="n">
-        <v>61.39888818937197</v>
+        <v>48.40131834931071</v>
       </c>
       <c r="I83" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K83" t="n">
-        <v>63.21339554086849</v>
+        <v>166.9605595646503</v>
       </c>
       <c r="L83" t="n">
-        <v>3.915716946962626</v>
+        <v>5.880584075648124</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7061984020732089</v>
+        <v>0.8642097543907802</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R83" t="n">
-        <v>0.08624040693439561</v>
+        <v>0.1544289957766591</v>
       </c>
       <c r="S83" t="n">
-        <v>0.7949607952016357</v>
+        <v>0.7197790719779673</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1733</v>
+        <v>1805</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1850</v>
+        <v>1533</v>
       </c>
       <c r="B84" t="n">
-        <v>1865</v>
+        <v>1549</v>
       </c>
       <c r="C84" t="n">
-        <v>1924</v>
+        <v>1606</v>
       </c>
       <c r="D84" t="n">
-        <v>1.786970080157547</v>
+        <v>1.557464946158713</v>
       </c>
       <c r="E84" t="n">
-        <v>1.352622655473864</v>
+        <v>0.9910267196680952</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4343474246836825</v>
+        <v>-0.5664382264906178</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H84" t="n">
-        <v>28.307887997232</v>
+        <v>34.96501492911102</v>
       </c>
       <c r="I84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J84" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K84" t="n">
-        <v>83.43394963652429</v>
+        <v>89.27928118381493</v>
       </c>
       <c r="L84" t="n">
-        <v>4.58982057353658</v>
+        <v>4.320472009197998</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.9158065101938436</v>
+        <v>0.7861387034389514</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2626838270101983</v>
+        <v>0.08138629435541755</v>
       </c>
       <c r="S84" t="n">
-        <v>0.6853742015110151</v>
+        <v>0.735979168767923</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1734</v>
+        <v>1806</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,85 +7695,429 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.507470859171457</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9410326326808389</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.5664382264906178</v>
+      </c>
+      <c r="G85" t="n">
+        <v>73</v>
+      </c>
+      <c r="H85" t="n">
+        <v>49.36730234028119</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="n">
+        <v>57.82477019564994</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4.181786349538959</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.7656756351794181</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.1934597787825248</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.7846496778774239</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1807</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.524519077484653</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.090171652800971</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4343474246836825</v>
+      </c>
+      <c r="G86" t="n">
+        <v>70</v>
+      </c>
+      <c r="H86" t="n">
+        <v>61.39888818937197</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50</v>
+      </c>
+      <c r="K86" t="n">
+        <v>63.21339554086849</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.915716946962626</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.7061984020732089</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.08624040693439561</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.7949607952016357</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1808</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.786970080157547</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.352622655473864</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4343474246836825</v>
+      </c>
+      <c r="G87" t="n">
+        <v>74</v>
+      </c>
+      <c r="H87" t="n">
+        <v>28.307887997232</v>
+      </c>
+      <c r="I87" t="n">
+        <v>15</v>
+      </c>
+      <c r="J87" t="n">
+        <v>59</v>
+      </c>
+      <c r="K87" t="n">
+        <v>83.43394963652429</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.58982057353658</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.9158065101938436</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.2626838270101983</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.6853742015110151</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1809</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2058</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.609202993690552</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.17485556900687</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.4343474246836825</v>
+      </c>
+      <c r="G88" t="n">
+        <v>91</v>
+      </c>
+      <c r="H88" t="n">
+        <v>60.75970624939441</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>58</v>
+      </c>
+      <c r="K88" t="n">
+        <v>166.6007604584941</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.701720254833979</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.5543427259706426</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.5689655172413793</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1336533305283845</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.7957659196937841</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1810</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
         <v>1105</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B89" t="n">
         <v>1172</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C89" t="n">
         <v>1301</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D89" t="n">
         <v>3.353129779008167</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E89" t="n">
         <v>2.895312737673103</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F89" t="n">
         <v>-0.4578170413350643</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G89" t="n">
         <v>196</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H89" t="n">
         <v>38.40869436427579</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I89" t="n">
         <v>67</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J89" t="n">
         <v>129</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K89" t="n">
         <v>238.4317713687722</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L89" t="n">
         <v>8.278096602641764</v>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
         <v>0.5835037233012353</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q89" t="n">
         <v>0.5193798449612403</v>
       </c>
-      <c r="R85" t="n">
+      <c r="R89" t="n">
         <v>0.3709180739315896</v>
       </c>
-      <c r="S85" t="n">
+      <c r="S89" t="n">
         <v>0.7049025606891258</v>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>n40</t>
         </is>
       </c>
-      <c r="U85" t="n">
-        <v>1735</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
+      <c r="U89" t="n">
+        <v>1811</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926ymaze2024-12-06180137trace.xlsx</t>
         </is>
